--- a/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
+++ b/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\elec\BCpUC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/elec/bcpuc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF11D8B-6961-42E1-8033-23B326896378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20101766-C4E9-F645-AA3A-F22D15710A6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="1230" windowWidth="24765" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2840" yWindow="740" windowWidth="24760" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -347,10 +347,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="#,##0;#,##0"/>
-    <numFmt numFmtId="170" formatCode="###0;###0"/>
-    <numFmt numFmtId="171" formatCode="###0.00;###0.00"/>
-    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0;#,##0"/>
+    <numFmt numFmtId="166" formatCode="###0;###0"/>
+    <numFmt numFmtId="167" formatCode="###0.00;###0.00"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -684,7 +684,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -714,28 +714,28 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -751,6 +751,49 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -769,49 +812,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1527,26 +1528,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="67.140625" customWidth="1"/>
+    <col min="2" max="2" width="67.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="61">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1554,167 +1558,167 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="7">
         <v>2014</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
         <v>2013</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="7">
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
     </row>
-    <row r="35" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="15">
         <v>1.0549999999999999</v>
       </c>
@@ -1722,15 +1726,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="59">
+    <row r="42" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="53">
         <v>0.9143273584567535</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
         <v>33</v>
       </c>
@@ -1751,56 +1755,56 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1808,12 +1812,12 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2010</v>
       </c>
@@ -1822,7 +1826,7 @@
         <v>433.0387640541885</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2011</v>
       </c>
@@ -1831,7 +1835,7 @@
         <v>409.22947853151709</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>2012</v>
       </c>
@@ -1840,7 +1844,7 @@
         <v>386.3720977709163</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>2013</v>
       </c>
@@ -1849,7 +1853,7 @@
         <v>364.4666217721533</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>2014</v>
       </c>
@@ -1858,7 +1862,7 @@
         <v>343.51305053569376</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>2015</v>
       </c>
@@ -1867,7 +1871,7 @@
         <v>323.51138406107202</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>2016</v>
       </c>
@@ -1876,7 +1880,7 @@
         <v>304.46162234828807</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>2017</v>
       </c>
@@ -1885,7 +1889,7 @@
         <v>286.36376539757475</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -1893,7 +1897,7 @@
         <v>269.83</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>2019</v>
       </c>
@@ -1902,7 +1906,7 @@
         <v>253.02376578282565</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -1910,7 +1914,7 @@
         <v>236.56</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>2021</v>
       </c>
@@ -1919,7 +1923,7 @@
         <v>223.49138521566056</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -1927,7 +1931,7 @@
         <v>210.4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>2023</v>
       </c>
@@ -1936,7 +1940,7 @@
         <v>197.76662369631231</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2024</v>
       </c>
@@ -1944,7 +1948,7 @@
         <v>186.83</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>2025</v>
       </c>
@@ -1953,7 +1957,7 @@
         <v>175.84948122501373</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2026</v>
       </c>
@@ -1961,7 +1965,7 @@
         <v>166.37</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>2027</v>
       </c>
@@ -1970,7 +1974,7 @@
         <v>157.73995780176483</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2028</v>
       </c>
@@ -1978,7 +1982,7 @@
         <v>149.96</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>2029</v>
       </c>
@@ -1987,7 +1991,7 @@
         <v>143.4380534265656</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2030</v>
       </c>
@@ -1995,7 +1999,7 @@
         <v>137.68</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15">
         <v>2031</v>
       </c>
@@ -2007,7 +2011,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>2032</v>
       </c>
@@ -2018,7 +2022,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15">
         <v>2033</v>
       </c>
@@ -2027,7 +2031,7 @@
         <v>131.91999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>2034</v>
       </c>
@@ -2035,7 +2039,7 @@
         <v>130.38999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15">
         <v>2035</v>
       </c>
@@ -2044,7 +2048,7 @@
         <v>129.16</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>2036</v>
       </c>
@@ -2052,7 +2056,7 @@
         <v>127.93</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15">
         <v>2037</v>
       </c>
@@ -2061,7 +2065,7 @@
         <v>126.855</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15">
         <v>2038</v>
       </c>
@@ -2069,7 +2073,7 @@
         <v>125.78</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>2039</v>
       </c>
@@ -2078,7 +2082,7 @@
         <v>124.77000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15">
         <v>2040</v>
       </c>
@@ -2086,7 +2090,7 @@
         <v>123.76</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>2041</v>
       </c>
@@ -2095,7 +2099,7 @@
         <v>122.68</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15">
         <v>2042</v>
       </c>
@@ -2103,7 +2107,7 @@
         <v>121.6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>2043</v>
       </c>
@@ -2112,7 +2116,7 @@
         <v>120.55</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15">
         <v>2044</v>
       </c>
@@ -2120,7 +2124,7 @@
         <v>119.5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15">
         <v>2045</v>
       </c>
@@ -2129,7 +2133,7 @@
         <v>118.49000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>2046</v>
       </c>
@@ -2137,7 +2141,7 @@
         <v>117.48</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15">
         <v>2047</v>
       </c>
@@ -2146,7 +2150,7 @@
         <v>116.495</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>2048</v>
       </c>
@@ -2154,7 +2158,7 @@
         <v>115.51</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15">
         <v>2049</v>
       </c>
@@ -2163,7 +2167,7 @@
         <v>114.56</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>2050</v>
       </c>
@@ -2171,28 +2175,28 @@
         <v>113.61</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>22</v>
       </c>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>23</v>
       </c>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>24</v>
       </c>
       <c r="B56" s="2"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>4</v>
       </c>
@@ -2206,7 +2210,7 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -2217,7 +2221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>603</v>
       </c>
@@ -2229,7 +2233,7 @@
         <v>636.16499999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>779</v>
       </c>
@@ -2241,7 +2245,7 @@
         <v>821.84499999999991</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>711</v>
       </c>
@@ -2253,7 +2257,7 @@
         <v>750.1049999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>707</v>
       </c>
@@ -2265,7 +2269,7 @@
         <v>745.88499999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>637</v>
       </c>
@@ -2277,7 +2281,7 @@
         <v>672.03499999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C65" s="17">
         <f>AVERAGE(C60:C64)</f>
         <v>725.20699999999999</v>
@@ -2286,32 +2290,32 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>5</v>
       </c>
@@ -2319,12 +2323,12 @@
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" t="s">
         <v>3</v>
@@ -2333,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
         <v>2010</v>
       </c>
@@ -2346,7 +2350,7 @@
         <v>725.20699999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <v>2011</v>
       </c>
@@ -2359,7 +2363,7 @@
         <v>701.39771447732858</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="8">
         <v>2012</v>
       </c>
@@ -2372,7 +2376,7 @@
         <v>678.54033371672779</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <v>2013</v>
       </c>
@@ -2385,7 +2389,7 @@
         <v>656.63485771796479</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="8">
         <v>2014</v>
       </c>
@@ -2398,7 +2402,7 @@
         <v>635.68128648150525</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
         <v>2015</v>
       </c>
@@ -2411,7 +2415,7 @@
         <v>615.67962000688351</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
         <v>2016</v>
       </c>
@@ -2424,7 +2428,7 @@
         <v>596.62985829409956</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>2017</v>
       </c>
@@ -2437,7 +2441,7 @@
         <v>578.53200134338624</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
         <v>2018</v>
       </c>
@@ -2450,7 +2454,7 @@
         <v>561.99823594581153</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>2019</v>
       </c>
@@ -2463,7 +2467,7 @@
         <v>545.19200172863714</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
         <v>2020</v>
       </c>
@@ -2476,7 +2480,7 @@
         <v>528.72823594581155</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>2021</v>
       </c>
@@ -2489,7 +2493,7 @@
         <v>515.65962116147205</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <v>2022</v>
       </c>
@@ -2502,7 +2506,7 @@
         <v>502.56823594581147</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>2023</v>
       </c>
@@ -2515,7 +2519,7 @@
         <v>489.9348596421238</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>2024</v>
       </c>
@@ -2528,7 +2532,7 @@
         <v>478.99823594581153</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>2025</v>
       </c>
@@ -2541,7 +2545,7 @@
         <v>468.01771717082522</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <v>2026</v>
       </c>
@@ -2554,7 +2558,7 @@
         <v>458.53823594581149</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>2027</v>
       </c>
@@ -2567,7 +2571,7 @@
         <v>449.90819374757632</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>2028</v>
       </c>
@@ -2580,7 +2584,7 @@
         <v>442.12823594581153</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>2029</v>
       </c>
@@ -2593,7 +2597,7 @@
         <v>435.60628937237709</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
         <v>2030</v>
       </c>
@@ -2606,7 +2610,7 @@
         <v>429.8482359458115</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
         <v>2031</v>
       </c>
@@ -2619,7 +2623,7 @@
         <v>427.73323594581149</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
         <v>2032</v>
       </c>
@@ -2632,7 +2636,7 @@
         <v>425.61823594581148</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
         <v>2033</v>
       </c>
@@ -2645,7 +2649,7 @@
         <v>424.08823594581145</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="8">
         <v>2034</v>
       </c>
@@ -2658,7 +2662,7 @@
         <v>422.55823594581148</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
         <v>2035</v>
       </c>
@@ -2671,7 +2675,7 @@
         <v>421.32823594581146</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="8">
         <v>2036</v>
       </c>
@@ -2684,7 +2688,7 @@
         <v>420.0982359458115</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
         <v>2037</v>
       </c>
@@ -2697,7 +2701,7 @@
         <v>419.02323594581151</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="8">
         <v>2038</v>
       </c>
@@ -2710,7 +2714,7 @@
         <v>417.94823594581146</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="8">
         <v>2039</v>
       </c>
@@ -2723,7 +2727,7 @@
         <v>416.93823594581147</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="8">
         <v>2040</v>
       </c>
@@ -2736,7 +2740,7 @@
         <v>415.92823594581148</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
         <v>2041</v>
       </c>
@@ -2749,7 +2753,7 @@
         <v>414.8482359458115</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="8">
         <v>2042</v>
       </c>
@@ -2762,7 +2766,7 @@
         <v>413.76823594581151</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="8">
         <v>2043</v>
       </c>
@@ -2775,7 +2779,7 @@
         <v>412.7182359458115</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="8">
         <v>2044</v>
       </c>
@@ -2788,7 +2792,7 @@
         <v>411.66823594581149</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="8">
         <v>2045</v>
       </c>
@@ -2801,7 +2805,7 @@
         <v>410.6582359458115</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="8">
         <v>2046</v>
       </c>
@@ -2814,7 +2818,7 @@
         <v>409.64823594581151</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
         <v>2047</v>
       </c>
@@ -2827,7 +2831,7 @@
         <v>408.66323594581149</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="8">
         <v>2048</v>
       </c>
@@ -2840,7 +2844,7 @@
         <v>407.67823594581148</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="8">
         <v>2049</v>
       </c>
@@ -2853,7 +2857,7 @@
         <v>406.72823594581149</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="8">
         <v>2050</v>
       </c>
@@ -2878,54 +2882,54 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" style="20" customWidth="1"/>
-    <col min="2" max="13" width="11.28515625" style="20" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="32.5" style="20" customWidth="1"/>
+    <col min="2" max="13" width="11.33203125" style="20" customWidth="1"/>
+    <col min="14" max="16384" width="9.1640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="29"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="39" t="s">
+      <c r="F2" s="59"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="39" t="s">
+      <c r="I2" s="59"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L2" s="59"/>
+      <c r="M2" s="60"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>70</v>
       </c>
@@ -2966,7 +2970,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
         <v>53</v>
       </c>
@@ -3007,7 +3011,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
         <v>54</v>
       </c>
@@ -3048,7 +3052,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
         <v>55</v>
       </c>
@@ -3089,7 +3093,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
         <v>56</v>
       </c>
@@ -3130,7 +3134,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
         <v>71</v>
       </c>
@@ -3171,7 +3175,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="30" t="s">
         <v>57</v>
       </c>
@@ -3212,7 +3216,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
         <v>58</v>
       </c>
@@ -3253,48 +3257,48 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="37">
         <v>79632110</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="38">
         <v>332</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="39">
         <v>1.33</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="40">
         <v>46566751</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="38">
         <v>388</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="39">
         <v>0.78</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="40">
         <v>30034071</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="38">
         <v>501</v>
       </c>
-      <c r="J11" s="45">
+      <c r="J11" s="39">
         <v>0.5</v>
       </c>
-      <c r="K11" s="46">
+      <c r="K11" s="40">
         <v>21767732</v>
       </c>
-      <c r="L11" s="44">
+      <c r="L11" s="38">
         <v>726</v>
       </c>
-      <c r="M11" s="45">
+      <c r="M11" s="39">
         <v>0.36</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
         <v>60</v>
       </c>
@@ -3335,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="30" t="s">
         <v>61</v>
       </c>
@@ -3376,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
         <v>62</v>
       </c>
@@ -3417,7 +3421,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="30" t="s">
         <v>63</v>
       </c>
@@ -3458,7 +3462,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="30" t="s">
         <v>64</v>
       </c>
@@ -3499,7 +3503,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
         <v>65</v>
       </c>
@@ -3540,113 +3544,113 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
+    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="48">
+      <c r="B18" s="42">
         <v>11648623</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="43">
         <v>49</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18" s="44">
         <v>0.19</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="45">
         <v>7893608</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="43">
         <v>66</v>
       </c>
-      <c r="G18" s="50">
+      <c r="G18" s="44">
         <v>0.13</v>
       </c>
-      <c r="H18" s="51">
+      <c r="H18" s="45">
         <v>6016101</v>
       </c>
-      <c r="I18" s="49">
+      <c r="I18" s="43">
         <v>100</v>
       </c>
-      <c r="J18" s="50">
+      <c r="J18" s="44">
         <v>0.1</v>
       </c>
-      <c r="K18" s="51">
+      <c r="K18" s="45">
         <v>5077347</v>
       </c>
-      <c r="L18" s="49">
+      <c r="L18" s="43">
         <v>169</v>
       </c>
-      <c r="M18" s="50">
+      <c r="M18" s="44">
         <v>0.08</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="54" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="55">
+      <c r="D22" s="49">
         <f>SUM(D5:D9,D12:D17)</f>
         <v>0.57999999999999985</v>
       </c>
-      <c r="E22" s="58" t="s">
+      <c r="E22" s="52" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="57">
+      <c r="D23" s="51">
         <f>D10*SUM(D5:D7)/SUM(D4:D7)</f>
         <v>2.1272727272727273E-2</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="52" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="55">
+      <c r="D24" s="49">
         <f>SUM(D22:D23)</f>
         <v>0.60127272727272707</v>
       </c>
-      <c r="E24" s="58" t="s">
+      <c r="E24" s="52" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="56" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="60">
+      <c r="D25" s="54">
         <f>D24*10^6</f>
         <v>601272.72727272706</v>
       </c>
-      <c r="E25" s="58" t="s">
+      <c r="E25" s="52" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="56" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="60">
+      <c r="D26" s="54">
         <f>D25*About!A42</f>
         <v>549760.10443936056</v>
       </c>
-      <c r="E26" s="58" t="s">
+      <c r="E26" s="52" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>93</v>
       </c>
@@ -3672,13 +3676,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -3686,7 +3690,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>'Battery Calculations'!A84</f>
         <v>2018</v>
@@ -3696,7 +3700,7 @@
         <v>561998.2359458115</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>'Battery Calculations'!A85</f>
         <v>2019</v>
@@ -3706,7 +3710,7 @@
         <v>545192.00172863714</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>'Battery Calculations'!A86</f>
         <v>2020</v>
@@ -3716,7 +3720,7 @@
         <v>528728.2359458115</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>'Battery Calculations'!A87</f>
         <v>2021</v>
@@ -3726,7 +3730,7 @@
         <v>515659.62116147205</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>'Battery Calculations'!A88</f>
         <v>2022</v>
@@ -3736,7 +3740,7 @@
         <v>502568.2359458115</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>'Battery Calculations'!A89</f>
         <v>2023</v>
@@ -3746,7 +3750,7 @@
         <v>489934.8596421238</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>'Battery Calculations'!A90</f>
         <v>2024</v>
@@ -3756,7 +3760,7 @@
         <v>478998.23594581155</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>'Battery Calculations'!A91</f>
         <v>2025</v>
@@ -3766,7 +3770,7 @@
         <v>468017.71717082523</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>'Battery Calculations'!A92</f>
         <v>2026</v>
@@ -3776,7 +3780,7 @@
         <v>458538.2359458115</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>'Battery Calculations'!A93</f>
         <v>2027</v>
@@ -3786,7 +3790,7 @@
         <v>449908.19374757633</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>'Battery Calculations'!A94</f>
         <v>2028</v>
@@ -3796,7 +3800,7 @@
         <v>442128.23594581155</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <f>'Battery Calculations'!A95</f>
         <v>2029</v>
@@ -3806,7 +3810,7 @@
         <v>435606.2893723771</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <f>'Battery Calculations'!A96</f>
         <v>2030</v>
@@ -3816,7 +3820,7 @@
         <v>429848.2359458115</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <f>'Battery Calculations'!A97</f>
         <v>2031</v>
@@ -3826,7 +3830,7 @@
         <v>427733.2359458115</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <f>'Battery Calculations'!A98</f>
         <v>2032</v>
@@ -3836,7 +3840,7 @@
         <v>425618.2359458115</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <f>'Battery Calculations'!A99</f>
         <v>2033</v>
@@ -3846,7 +3850,7 @@
         <v>424088.23594581144</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <f>'Battery Calculations'!A100</f>
         <v>2034</v>
@@ -3856,7 +3860,7 @@
         <v>422558.2359458115</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <f>'Battery Calculations'!A101</f>
         <v>2035</v>
@@ -3866,7 +3870,7 @@
         <v>421328.23594581144</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <f>'Battery Calculations'!A102</f>
         <v>2036</v>
@@ -3876,7 +3880,7 @@
         <v>420098.2359458115</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <f>'Battery Calculations'!A103</f>
         <v>2037</v>
@@ -3886,7 +3890,7 @@
         <v>419023.2359458115</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <f>'Battery Calculations'!A104</f>
         <v>2038</v>
@@ -3896,7 +3900,7 @@
         <v>417948.23594581144</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <f>'Battery Calculations'!A105</f>
         <v>2039</v>
@@ -3906,7 +3910,7 @@
         <v>416938.2359458115</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <f>'Battery Calculations'!A106</f>
         <v>2040</v>
@@ -3916,7 +3920,7 @@
         <v>415928.2359458115</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
         <f>'Battery Calculations'!A107</f>
         <v>2041</v>
@@ -3926,7 +3930,7 @@
         <v>414848.2359458115</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
         <f>'Battery Calculations'!A108</f>
         <v>2042</v>
@@ -3936,7 +3940,7 @@
         <v>413768.2359458115</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
         <f>'Battery Calculations'!A109</f>
         <v>2043</v>
@@ -3946,7 +3950,7 @@
         <v>412718.2359458115</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <f>'Battery Calculations'!A110</f>
         <v>2044</v>
@@ -3956,7 +3960,7 @@
         <v>411668.2359458115</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <f>'Battery Calculations'!A111</f>
         <v>2045</v>
@@ -3966,7 +3970,7 @@
         <v>410658.2359458115</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
         <f>'Battery Calculations'!A112</f>
         <v>2046</v>
@@ -3976,7 +3980,7 @@
         <v>409648.2359458115</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
         <f>'Battery Calculations'!A113</f>
         <v>2047</v>
@@ -3986,7 +3990,7 @@
         <v>408663.2359458115</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
         <f>'Battery Calculations'!A114</f>
         <v>2048</v>
@@ -3996,7 +4000,7 @@
         <v>407678.2359458115</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="15">
         <f>'Battery Calculations'!A115</f>
         <v>2049</v>
@@ -4006,7 +4010,7 @@
         <v>406728.2359458115</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="15">
         <f>'Battery Calculations'!A116</f>
         <v>2050</v>
@@ -4030,12 +4034,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -4139,7 +4143,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>

--- a/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
+++ b/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/elec/bcpuc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/elec/bcpuc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20101766-C4E9-F645-AA3A-F22D15710A6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34726A2D-56C6-D14E-8598-2F4FFAFBEAA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="740" windowWidth="24760" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2840" yWindow="1080" windowWidth="24760" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>

--- a/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
+++ b/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/elec/bcpuc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\elec\BCpUC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34726A2D-56C6-D14E-8598-2F4FFAFBEAA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF11D8B-6961-42E1-8033-23B326896378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="1080" windowWidth="24760" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2835" yWindow="1230" windowWidth="24765" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -347,10 +347,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="#,##0;#,##0"/>
-    <numFmt numFmtId="166" formatCode="###0;###0"/>
-    <numFmt numFmtId="167" formatCode="###0.00;###0.00"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="#,##0;#,##0"/>
+    <numFmt numFmtId="170" formatCode="###0;###0"/>
+    <numFmt numFmtId="171" formatCode="###0.00;###0.00"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -684,7 +684,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -714,28 +714,28 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -751,49 +751,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -812,7 +769,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1528,29 +1527,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="67.1640625" customWidth="1"/>
+    <col min="2" max="2" width="67.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="61">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1558,167 +1554,167 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>2014</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>2013</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
     </row>
-    <row r="35" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>1.0549999999999999</v>
       </c>
@@ -1726,15 +1722,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="53">
+    <row r="42" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="59">
         <v>0.9143273584567535</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>33</v>
       </c>
@@ -1755,56 +1751,56 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1812,12 +1808,12 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2010</v>
       </c>
@@ -1826,7 +1822,7 @@
         <v>433.0387640541885</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2011</v>
       </c>
@@ -1835,7 +1831,7 @@
         <v>409.22947853151709</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2012</v>
       </c>
@@ -1844,7 +1840,7 @@
         <v>386.3720977709163</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2013</v>
       </c>
@@ -1853,7 +1849,7 @@
         <v>364.4666217721533</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2014</v>
       </c>
@@ -1862,7 +1858,7 @@
         <v>343.51305053569376</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2015</v>
       </c>
@@ -1871,7 +1867,7 @@
         <v>323.51138406107202</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2016</v>
       </c>
@@ -1880,7 +1876,7 @@
         <v>304.46162234828807</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2017</v>
       </c>
@@ -1889,7 +1885,7 @@
         <v>286.36376539757475</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -1897,7 +1893,7 @@
         <v>269.83</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2019</v>
       </c>
@@ -1906,7 +1902,7 @@
         <v>253.02376578282565</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -1914,7 +1910,7 @@
         <v>236.56</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2021</v>
       </c>
@@ -1923,7 +1919,7 @@
         <v>223.49138521566056</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -1931,7 +1927,7 @@
         <v>210.4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2023</v>
       </c>
@@ -1940,7 +1936,7 @@
         <v>197.76662369631231</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2024</v>
       </c>
@@ -1948,7 +1944,7 @@
         <v>186.83</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2025</v>
       </c>
@@ -1957,7 +1953,7 @@
         <v>175.84948122501373</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2026</v>
       </c>
@@ -1965,7 +1961,7 @@
         <v>166.37</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2027</v>
       </c>
@@ -1974,7 +1970,7 @@
         <v>157.73995780176483</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2028</v>
       </c>
@@ -1982,7 +1978,7 @@
         <v>149.96</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2029</v>
       </c>
@@ -1991,7 +1987,7 @@
         <v>143.4380534265656</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2030</v>
       </c>
@@ -1999,7 +1995,7 @@
         <v>137.68</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>2031</v>
       </c>
@@ -2011,7 +2007,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2032</v>
       </c>
@@ -2022,7 +2018,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>2033</v>
       </c>
@@ -2031,7 +2027,7 @@
         <v>131.91999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2034</v>
       </c>
@@ -2039,7 +2035,7 @@
         <v>130.38999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>2035</v>
       </c>
@@ -2048,7 +2044,7 @@
         <v>129.16</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2036</v>
       </c>
@@ -2056,7 +2052,7 @@
         <v>127.93</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>2037</v>
       </c>
@@ -2065,7 +2061,7 @@
         <v>126.855</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>2038</v>
       </c>
@@ -2073,7 +2069,7 @@
         <v>125.78</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2039</v>
       </c>
@@ -2082,7 +2078,7 @@
         <v>124.77000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>2040</v>
       </c>
@@ -2090,7 +2086,7 @@
         <v>123.76</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2041</v>
       </c>
@@ -2099,7 +2095,7 @@
         <v>122.68</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>2042</v>
       </c>
@@ -2107,7 +2103,7 @@
         <v>121.6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>2043</v>
       </c>
@@ -2116,7 +2112,7 @@
         <v>120.55</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>2044</v>
       </c>
@@ -2124,7 +2120,7 @@
         <v>119.5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>2045</v>
       </c>
@@ -2133,7 +2129,7 @@
         <v>118.49000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>2046</v>
       </c>
@@ -2141,7 +2137,7 @@
         <v>117.48</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
         <v>2047</v>
       </c>
@@ -2150,7 +2146,7 @@
         <v>116.495</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>2048</v>
       </c>
@@ -2158,7 +2154,7 @@
         <v>115.51</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
         <v>2049</v>
       </c>
@@ -2167,7 +2163,7 @@
         <v>114.56</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>2050</v>
       </c>
@@ -2175,28 +2171,28 @@
         <v>113.61</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>22</v>
       </c>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>23</v>
       </c>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>24</v>
       </c>
       <c r="B56" s="2"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>4</v>
       </c>
@@ -2210,7 +2206,7 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -2221,7 +2217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>603</v>
       </c>
@@ -2233,7 +2229,7 @@
         <v>636.16499999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>779</v>
       </c>
@@ -2245,7 +2241,7 @@
         <v>821.84499999999991</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>711</v>
       </c>
@@ -2257,7 +2253,7 @@
         <v>750.1049999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>707</v>
       </c>
@@ -2269,7 +2265,7 @@
         <v>745.88499999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>637</v>
       </c>
@@ -2281,7 +2277,7 @@
         <v>672.03499999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C65" s="17">
         <f>AVERAGE(C60:C64)</f>
         <v>725.20699999999999</v>
@@ -2290,32 +2286,32 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>5</v>
       </c>
@@ -2323,12 +2319,12 @@
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" t="s">
         <v>3</v>
@@ -2337,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>2010</v>
       </c>
@@ -2350,7 +2346,7 @@
         <v>725.20699999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>2011</v>
       </c>
@@ -2363,7 +2359,7 @@
         <v>701.39771447732858</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>2012</v>
       </c>
@@ -2376,7 +2372,7 @@
         <v>678.54033371672779</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>2013</v>
       </c>
@@ -2389,7 +2385,7 @@
         <v>656.63485771796479</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>2014</v>
       </c>
@@ -2402,7 +2398,7 @@
         <v>635.68128648150525</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>2015</v>
       </c>
@@ -2415,7 +2411,7 @@
         <v>615.67962000688351</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>2016</v>
       </c>
@@ -2428,7 +2424,7 @@
         <v>596.62985829409956</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>2017</v>
       </c>
@@ -2441,7 +2437,7 @@
         <v>578.53200134338624</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>2018</v>
       </c>
@@ -2454,7 +2450,7 @@
         <v>561.99823594581153</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>2019</v>
       </c>
@@ -2467,7 +2463,7 @@
         <v>545.19200172863714</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>2020</v>
       </c>
@@ -2480,7 +2476,7 @@
         <v>528.72823594581155</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>2021</v>
       </c>
@@ -2493,7 +2489,7 @@
         <v>515.65962116147205</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>2022</v>
       </c>
@@ -2506,7 +2502,7 @@
         <v>502.56823594581147</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>2023</v>
       </c>
@@ -2519,7 +2515,7 @@
         <v>489.9348596421238</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>2024</v>
       </c>
@@ -2532,7 +2528,7 @@
         <v>478.99823594581153</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>2025</v>
       </c>
@@ -2545,7 +2541,7 @@
         <v>468.01771717082522</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>2026</v>
       </c>
@@ -2558,7 +2554,7 @@
         <v>458.53823594581149</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>2027</v>
       </c>
@@ -2571,7 +2567,7 @@
         <v>449.90819374757632</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>2028</v>
       </c>
@@ -2584,7 +2580,7 @@
         <v>442.12823594581153</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>2029</v>
       </c>
@@ -2597,7 +2593,7 @@
         <v>435.60628937237709</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>2030</v>
       </c>
@@ -2610,7 +2606,7 @@
         <v>429.8482359458115</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>2031</v>
       </c>
@@ -2623,7 +2619,7 @@
         <v>427.73323594581149</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>2032</v>
       </c>
@@ -2636,7 +2632,7 @@
         <v>425.61823594581148</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>2033</v>
       </c>
@@ -2649,7 +2645,7 @@
         <v>424.08823594581145</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>2034</v>
       </c>
@@ -2662,7 +2658,7 @@
         <v>422.55823594581148</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>2035</v>
       </c>
@@ -2675,7 +2671,7 @@
         <v>421.32823594581146</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>2036</v>
       </c>
@@ -2688,7 +2684,7 @@
         <v>420.0982359458115</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>2037</v>
       </c>
@@ -2701,7 +2697,7 @@
         <v>419.02323594581151</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>2038</v>
       </c>
@@ -2714,7 +2710,7 @@
         <v>417.94823594581146</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>2039</v>
       </c>
@@ -2727,7 +2723,7 @@
         <v>416.93823594581147</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>2040</v>
       </c>
@@ -2740,7 +2736,7 @@
         <v>415.92823594581148</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>2041</v>
       </c>
@@ -2753,7 +2749,7 @@
         <v>414.8482359458115</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>2042</v>
       </c>
@@ -2766,7 +2762,7 @@
         <v>413.76823594581151</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>2043</v>
       </c>
@@ -2779,7 +2775,7 @@
         <v>412.7182359458115</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>2044</v>
       </c>
@@ -2792,7 +2788,7 @@
         <v>411.66823594581149</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>2045</v>
       </c>
@@ -2805,7 +2801,7 @@
         <v>410.6582359458115</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>2046</v>
       </c>
@@ -2818,7 +2814,7 @@
         <v>409.64823594581151</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>2047</v>
       </c>
@@ -2831,7 +2827,7 @@
         <v>408.66323594581149</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
         <v>2048</v>
       </c>
@@ -2844,7 +2840,7 @@
         <v>407.67823594581148</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>2049</v>
       </c>
@@ -2857,7 +2853,7 @@
         <v>406.72823594581149</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>2050</v>
       </c>
@@ -2882,54 +2878,54 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="20" customWidth="1"/>
-    <col min="2" max="13" width="11.33203125" style="20" customWidth="1"/>
-    <col min="14" max="16384" width="9.1640625" style="20"/>
+    <col min="1" max="1" width="32.5703125" style="20" customWidth="1"/>
+    <col min="2" max="13" width="11.28515625" style="20" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="58" t="s">
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="58" t="s">
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="59"/>
-      <c r="M2" s="60"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>70</v>
       </c>
@@ -2970,7 +2966,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>53</v>
       </c>
@@ -3011,7 +3007,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>54</v>
       </c>
@@ -3052,7 +3048,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>55</v>
       </c>
@@ -3093,7 +3089,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>56</v>
       </c>
@@ -3134,7 +3130,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>71</v>
       </c>
@@ -3175,7 +3171,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>57</v>
       </c>
@@ -3216,7 +3212,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>58</v>
       </c>
@@ -3257,48 +3253,48 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="43">
         <v>79632110</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="44">
         <v>332</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="45">
         <v>1.33</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="46">
         <v>46566751</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="44">
         <v>388</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="45">
         <v>0.78</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H11" s="46">
         <v>30034071</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="44">
         <v>501</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="45">
         <v>0.5</v>
       </c>
-      <c r="K11" s="40">
+      <c r="K11" s="46">
         <v>21767732</v>
       </c>
-      <c r="L11" s="38">
+      <c r="L11" s="44">
         <v>726</v>
       </c>
-      <c r="M11" s="39">
+      <c r="M11" s="45">
         <v>0.36</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>60</v>
       </c>
@@ -3339,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>61</v>
       </c>
@@ -3380,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>62</v>
       </c>
@@ -3421,7 +3417,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>63</v>
       </c>
@@ -3462,7 +3458,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>64</v>
       </c>
@@ -3503,7 +3499,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>65</v>
       </c>
@@ -3544,113 +3540,113 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="41" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="48">
         <v>11648623</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="49">
         <v>49</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="50">
         <v>0.19</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="51">
         <v>7893608</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="49">
         <v>66</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="50">
         <v>0.13</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="51">
         <v>6016101</v>
       </c>
-      <c r="I18" s="43">
+      <c r="I18" s="49">
         <v>100</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="50">
         <v>0.1</v>
       </c>
-      <c r="K18" s="45">
+      <c r="K18" s="51">
         <v>5077347</v>
       </c>
-      <c r="L18" s="43">
+      <c r="L18" s="49">
         <v>169</v>
       </c>
-      <c r="M18" s="44">
+      <c r="M18" s="50">
         <v>0.08</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="48" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="54" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="49">
+      <c r="D22" s="55">
         <f>SUM(D5:D9,D12:D17)</f>
         <v>0.57999999999999985</v>
       </c>
-      <c r="E22" s="52" t="s">
+      <c r="E22" s="58" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="50" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="51">
+      <c r="D23" s="57">
         <f>D10*SUM(D5:D7)/SUM(D4:D7)</f>
         <v>2.1272727272727273E-2</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="58" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="50" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="49">
+      <c r="D24" s="55">
         <f>SUM(D22:D23)</f>
         <v>0.60127272727272707</v>
       </c>
-      <c r="E24" s="52" t="s">
+      <c r="E24" s="58" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="50" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="54">
+      <c r="D25" s="60">
         <f>D24*10^6</f>
         <v>601272.72727272706</v>
       </c>
-      <c r="E25" s="52" t="s">
+      <c r="E25" s="58" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="50" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="54">
+      <c r="D26" s="60">
         <f>D25*About!A42</f>
         <v>549760.10443936056</v>
       </c>
-      <c r="E26" s="52" t="s">
+      <c r="E26" s="58" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>93</v>
       </c>
@@ -3676,13 +3672,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -3690,7 +3686,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>'Battery Calculations'!A84</f>
         <v>2018</v>
@@ -3700,7 +3696,7 @@
         <v>561998.2359458115</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>'Battery Calculations'!A85</f>
         <v>2019</v>
@@ -3710,7 +3706,7 @@
         <v>545192.00172863714</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>'Battery Calculations'!A86</f>
         <v>2020</v>
@@ -3720,7 +3716,7 @@
         <v>528728.2359458115</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>'Battery Calculations'!A87</f>
         <v>2021</v>
@@ -3730,7 +3726,7 @@
         <v>515659.62116147205</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>'Battery Calculations'!A88</f>
         <v>2022</v>
@@ -3740,7 +3736,7 @@
         <v>502568.2359458115</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>'Battery Calculations'!A89</f>
         <v>2023</v>
@@ -3750,7 +3746,7 @@
         <v>489934.8596421238</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>'Battery Calculations'!A90</f>
         <v>2024</v>
@@ -3760,7 +3756,7 @@
         <v>478998.23594581155</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>'Battery Calculations'!A91</f>
         <v>2025</v>
@@ -3770,7 +3766,7 @@
         <v>468017.71717082523</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>'Battery Calculations'!A92</f>
         <v>2026</v>
@@ -3780,7 +3776,7 @@
         <v>458538.2359458115</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>'Battery Calculations'!A93</f>
         <v>2027</v>
@@ -3790,7 +3786,7 @@
         <v>449908.19374757633</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>'Battery Calculations'!A94</f>
         <v>2028</v>
@@ -3800,7 +3796,7 @@
         <v>442128.23594581155</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>'Battery Calculations'!A95</f>
         <v>2029</v>
@@ -3810,7 +3806,7 @@
         <v>435606.2893723771</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>'Battery Calculations'!A96</f>
         <v>2030</v>
@@ -3820,7 +3816,7 @@
         <v>429848.2359458115</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <f>'Battery Calculations'!A97</f>
         <v>2031</v>
@@ -3830,7 +3826,7 @@
         <v>427733.2359458115</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <f>'Battery Calculations'!A98</f>
         <v>2032</v>
@@ -3840,7 +3836,7 @@
         <v>425618.2359458115</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <f>'Battery Calculations'!A99</f>
         <v>2033</v>
@@ -3850,7 +3846,7 @@
         <v>424088.23594581144</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <f>'Battery Calculations'!A100</f>
         <v>2034</v>
@@ -3860,7 +3856,7 @@
         <v>422558.2359458115</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <f>'Battery Calculations'!A101</f>
         <v>2035</v>
@@ -3870,7 +3866,7 @@
         <v>421328.23594581144</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <f>'Battery Calculations'!A102</f>
         <v>2036</v>
@@ -3880,7 +3876,7 @@
         <v>420098.2359458115</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <f>'Battery Calculations'!A103</f>
         <v>2037</v>
@@ -3890,7 +3886,7 @@
         <v>419023.2359458115</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <f>'Battery Calculations'!A104</f>
         <v>2038</v>
@@ -3900,7 +3896,7 @@
         <v>417948.23594581144</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <f>'Battery Calculations'!A105</f>
         <v>2039</v>
@@ -3910,7 +3906,7 @@
         <v>416938.2359458115</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <f>'Battery Calculations'!A106</f>
         <v>2040</v>
@@ -3920,7 +3916,7 @@
         <v>415928.2359458115</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <f>'Battery Calculations'!A107</f>
         <v>2041</v>
@@ -3930,7 +3926,7 @@
         <v>414848.2359458115</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <f>'Battery Calculations'!A108</f>
         <v>2042</v>
@@ -3940,7 +3936,7 @@
         <v>413768.2359458115</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <f>'Battery Calculations'!A109</f>
         <v>2043</v>
@@ -3950,7 +3946,7 @@
         <v>412718.2359458115</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <f>'Battery Calculations'!A110</f>
         <v>2044</v>
@@ -3960,7 +3956,7 @@
         <v>411668.2359458115</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <f>'Battery Calculations'!A111</f>
         <v>2045</v>
@@ -3970,7 +3966,7 @@
         <v>410658.2359458115</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <f>'Battery Calculations'!A112</f>
         <v>2046</v>
@@ -3980,7 +3976,7 @@
         <v>409648.2359458115</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <f>'Battery Calculations'!A113</f>
         <v>2047</v>
@@ -3990,7 +3986,7 @@
         <v>408663.2359458115</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <f>'Battery Calculations'!A114</f>
         <v>2048</v>
@@ -4000,7 +3996,7 @@
         <v>407678.2359458115</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <f>'Battery Calculations'!A115</f>
         <v>2049</v>
@@ -4010,7 +4006,7 @@
         <v>406728.2359458115</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <f>'Battery Calculations'!A116</f>
         <v>2050</v>
@@ -4034,12 +4030,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -4143,7 +4139,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>

--- a/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
+++ b/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\AL\elec\BCpUC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55157659-BA23-4B0E-9585-5D7803A484E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D0E1C4D-051B-4050-BF8E-55A97AFA57B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="4590" windowWidth="21600" windowHeight="12645" tabRatio="839" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="12645" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
     <sheet name="NREL ATB 2024" sheetId="8" r:id="rId2"/>
-    <sheet name="Balance of System Calculations" sheetId="5" r:id="rId3"/>
-    <sheet name="BCpUC-energy" sheetId="3" r:id="rId4"/>
-    <sheet name="BCpUC-power" sheetId="9" r:id="rId5"/>
-    <sheet name="BBoSCaSoFYC" sheetId="4" r:id="rId6"/>
+    <sheet name="Balance of System (NOT USED)" sheetId="5" r:id="rId3"/>
+    <sheet name="Calibration" sheetId="10" r:id="rId4"/>
+    <sheet name="BCpUC-energy" sheetId="3" r:id="rId5"/>
+    <sheet name="BCpUC-power" sheetId="9" r:id="rId6"/>
+    <sheet name="BBoSCaSoFYC" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="cpi_2020_to_2012">About!$A$51</definedName>
-    <definedName name="cpi_2022_to_2021">About!$A$53</definedName>
+    <definedName name="cpi_2020_to_2012">About!$A$50</definedName>
+    <definedName name="cpi_2022_to_2012">About!$A$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="152">
   <si>
     <t>Year</t>
   </si>
@@ -90,12 +91,6 @@
   </si>
   <si>
     <t>BCpUC Battery Cost per Unit Capacity</t>
-  </si>
-  <si>
-    <t>Used to calculate battery storage deployment. Only the first year of this time series</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input variable is used, and the remaining years are handled via endogenous </t>
   </si>
   <si>
     <t>learning.</t>
@@ -191,15 +186,6 @@
     <t>2018 U.S. Utility-Scale Photovoltaics Plus-Energy Storage System Costs Benchmark</t>
   </si>
   <si>
-    <t>Only the battery cost is affected by endogenous learning.  The "Balance of System"</t>
-  </si>
-  <si>
-    <t>costs are read directly from this variable and are not modified via endogenous learning</t>
-  </si>
-  <si>
-    <t>inside the simulator.</t>
-  </si>
-  <si>
     <t>We use the largest (4-hour duration) for our estimate.</t>
   </si>
   <si>
@@ -207,9 +193,6 @@
   </si>
   <si>
     <t>Sales tax on balance of system elements</t>
-  </si>
-  <si>
-    <t>The "balance of system" should include all costs the utility must pay to purchase and</t>
   </si>
   <si>
     <t>install the battery system, apart from the batteries themselves (and apart from sales</t>
@@ -496,6 +479,39 @@
   </si>
   <si>
     <t>2021 to 2012 USD</t>
+  </si>
+  <si>
+    <t>Used to calculate battery storage deployment. Only the years of this time series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provided via input data are used, and the remaining years are handled via endogenous </t>
+  </si>
+  <si>
+    <t>We hard code all years of power costs, because the ATB data remains relatively constant</t>
+  </si>
+  <si>
+    <t>rather than declining with time. We do apply endogenous learning to the energy costs.</t>
+  </si>
+  <si>
+    <t>The "balance of system" should include the proportion ofcosts the utility must pay to purchase and</t>
+  </si>
+  <si>
+    <t>We determine this value via calibration against ATB data.</t>
+  </si>
+  <si>
+    <t>2022 to 2013 costs</t>
+  </si>
+  <si>
+    <t>Raw Data (2022 $)</t>
+  </si>
+  <si>
+    <t>Battery Power Cost per Unit Capacity : NDC</t>
+  </si>
+  <si>
+    <t>Time (Year)</t>
+  </si>
+  <si>
+    <t>Battery Energy Cost per Unit Capacity : NDC</t>
   </si>
   <si>
     <t>Alabama</t>
@@ -1956,15 +1972,69 @@
     <xf numFmtId="169" fontId="10" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -2012,60 +2082,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2104,6 +2120,2235 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Battery Energy Costs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>EPS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Calibration!$C$2:$AE$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>306692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>303546</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>277345</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256728</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>240275</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>226464</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>214618</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>204553</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>196075</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>188655</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>182183</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176401</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>171611</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>167430</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>163809</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160633</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>157780</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>155218</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>152921</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150890</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>149018</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>147310</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>145744</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>144287</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>142963</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>141726</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>140576</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>139495</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>138485</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6812-4E08-8945-7A2FDA4ED213}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ATB 2024</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Calibration!$C$3:$AE$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>306878.94936720002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>303731.66899460001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>279266.77737264393</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>243293.47578553518</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>233252.14840633751</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>223191.51259439666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>213109.23426421883</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>203002.58732914092</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>192868.36780069349</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>189356.03464602598</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>185846.97839553715</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>182341.32671366737</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>178839.21398365742</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>175340.78175544157</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>171846.17922985621</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>168355.56378264303</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>164869.10153211665</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>161386.96795480166</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>157909.34855383474</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>154436.43958548567</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150968.44884977813</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>147505.59655190937</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>144048.11624197359</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>140596.25584142513</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>137150.27876576502</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>133710.46515414325</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>130277.11321794621</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>126850.54072202249</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>123431.08661402132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6812-4E08-8945-7A2FDA4ED213}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="160394144"/>
+        <c:axId val="160397024"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="160394144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="160397024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="160397024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="160394144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Battery Power Costs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>EPS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Calibration!$C$6:$AE$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>284786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>281865</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>272120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>244268</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>245045</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>245897</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>246831</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>247860</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>248994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>247304</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>245600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>243884</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>242154</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>240409</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>238650</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>236876</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>235085</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>233278</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>231454</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>229611</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>227750</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>225869</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>223967</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>222043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>220097</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>218127</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>216133</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>214112</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>212064</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A746-48A7-957C-308E50A86B6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ATB 2024</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Calibration!$C$7:$AE$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>284959.40253119997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>282036.92402159999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>272286.05370173522</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>244417.06594404427</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>245194.69990340629</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>246046.6784058107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>246981.98853590409</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>248011.12672651189</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>249146.42950757674</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>247454.58509336127</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>245750.12339699775</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>244032.5528635988</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>242301.35606843285</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>240555.98799237184</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>238795.87415751003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>237020.40860956014</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>235228.9517321249</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>233420.82787626804</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>231595.32278692271</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>229751.68080551774</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>227889.10182579816</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>226006.73797704489</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>224103.69000579341</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>222179.00332357589</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>220231.66368416525</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>218260.59244915689</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>216264.64139541212</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>214242.58701179549</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>212193.12422562522</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A746-48A7-957C-308E50A86B6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="824300832"/>
+        <c:axId val="863851040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="824300832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="863851040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="863851040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="824300832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2D4DD73-B6DB-46AE-8B30-72589B45F3A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7872683B-28B1-4FC2-BB63-C9028001B1C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2369,10 +4614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B52" sqref="B51:B52"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2386,15 +4631,15 @@
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C1" s="142">
-        <v>45528</v>
+        <v>45531</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2462,12 +4707,12 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2477,27 +4722,27 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2507,17 +4752,17 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2527,122 +4772,122 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>56</v>
+      <c r="A37" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>57</v>
+      <c r="A39" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>52</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>59</v>
+      <c r="A46" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>61</v>
+      <c r="A47">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>1.0549999999999999</v>
+      <c r="A48" s="38">
+        <v>0.9143273584567535</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
-        <v>0.9143273584567535</v>
+        <v>0.89805481563188172</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="38">
-        <v>0.89805481563188172</v>
+        <v>0.88711067149387013</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="38">
-        <v>0.88711067149387013</v>
+        <v>0.84730412960844359</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="38">
-        <v>0.84730412960844359</v>
+        <v>0.78452102304761584</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="38">
-        <v>0.78452102304761584</v>
-      </c>
-      <c r="B53" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A53" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>141</v>
-      </c>
-      <c r="B56">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55">
         <v>4</v>
       </c>
     </row>
@@ -2660,7 +4905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734360E0-DC8F-4FFB-9748-D4950767514E}">
   <dimension ref="A1:DD222"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="F10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -2676,21 +4921,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:108" s="40" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="143" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
+      <c r="A1" s="166" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
       <c r="M1" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:108" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2706,7 +4951,7 @@
       <c r="J2" s="41"/>
       <c r="K2" s="41"/>
       <c r="L2" s="42" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M2" s="41"/>
       <c r="N2" s="41"/>
@@ -2813,17 +5058,17 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="L3" s="43" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:108" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="44"/>
-      <c r="L4" s="144" t="s">
-        <v>77</v>
+      <c r="L4" s="167" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:108" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L5" s="145"/>
+      <c r="L5" s="168"/>
     </row>
     <row r="6" spans="1:108" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H6" s="45"/>
@@ -2853,25 +5098,25 @@
     </row>
     <row r="7" spans="1:108" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="146" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="146"/>
-      <c r="N7" s="146"/>
-      <c r="O7" s="146"/>
-      <c r="P7" s="146"/>
-      <c r="Q7" s="146"/>
+        <v>72</v>
+      </c>
+      <c r="C7" s="162" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="162"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="162"/>
       <c r="R7" s="50"/>
       <c r="S7" s="50"/>
       <c r="T7" s="50"/>
@@ -2889,43 +5134,43 @@
     </row>
     <row r="9" spans="1:108" s="40" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9"/>
-      <c r="B9" s="147" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="148" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="149"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="151">
+      <c r="B9" s="169" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="170" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="171"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="173">
         <v>2021</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="152"/>
-      <c r="K9" s="153"/>
-      <c r="L9" s="153"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="175"/>
+      <c r="L9" s="175"/>
     </row>
     <row r="10" spans="1:108" s="40" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="147"/>
+      <c r="B10" s="169"/>
       <c r="D10" s="53" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J10" s="52"/>
     </row>
     <row r="11" spans="1:108" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="147"/>
-      <c r="D11" s="154" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="155"/>
-      <c r="F11" s="155"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="155"/>
-      <c r="K11" s="155"/>
-      <c r="L11" s="155"/>
+      <c r="B11" s="169"/>
+      <c r="D11" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="177"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="177"/>
+      <c r="L11" s="177"/>
       <c r="W11" s="54"/>
       <c r="X11" s="55"/>
       <c r="Y11" s="55"/>
@@ -2933,18 +5178,18 @@
       <c r="AA11" s="55"/>
     </row>
     <row r="12" spans="1:108" s="40" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="147"/>
-      <c r="D12" s="156" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="157"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="157"/>
-      <c r="K12" s="157"/>
-      <c r="L12" s="158"/>
+      <c r="B12" s="169"/>
+      <c r="D12" s="178" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="179"/>
+      <c r="F12" s="179"/>
+      <c r="G12" s="179"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="179"/>
+      <c r="J12" s="179"/>
+      <c r="K12" s="179"/>
+      <c r="L12" s="180"/>
       <c r="M12" s="56"/>
       <c r="W12" s="54"/>
       <c r="X12" s="55"/>
@@ -2953,16 +5198,16 @@
       <c r="AA12" s="55"/>
     </row>
     <row r="13" spans="1:108" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="147"/>
-      <c r="D13" s="159"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="160"/>
-      <c r="I13" s="160"/>
-      <c r="J13" s="160"/>
-      <c r="K13" s="160"/>
-      <c r="L13" s="161"/>
+      <c r="B13" s="169"/>
+      <c r="D13" s="181"/>
+      <c r="E13" s="182"/>
+      <c r="F13" s="182"/>
+      <c r="G13" s="182"/>
+      <c r="H13" s="182"/>
+      <c r="I13" s="182"/>
+      <c r="J13" s="182"/>
+      <c r="K13" s="182"/>
+      <c r="L13" s="183"/>
       <c r="W13" s="54"/>
       <c r="X13" s="55"/>
       <c r="Y13" s="55"/>
@@ -2970,59 +5215,59 @@
       <c r="AA13" s="55"/>
     </row>
     <row r="14" spans="1:108" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="147"/>
+      <c r="B14" s="169"/>
     </row>
     <row r="15" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="B15" s="147"/>
-      <c r="C15" s="162" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="162"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="162"/>
-      <c r="H15" s="162"/>
-      <c r="I15" s="162"/>
-      <c r="J15" s="162"/>
-      <c r="K15" s="162"/>
-      <c r="L15" s="162"/>
-      <c r="M15" s="162"/>
-      <c r="N15" s="162"/>
-      <c r="O15" s="162"/>
-      <c r="P15" s="162"/>
+      <c r="B15" s="169"/>
+      <c r="C15" s="184" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="184"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="184"/>
+      <c r="I15" s="184"/>
+      <c r="J15" s="184"/>
+      <c r="K15" s="184"/>
+      <c r="L15" s="184"/>
+      <c r="M15" s="184"/>
+      <c r="N15" s="184"/>
+      <c r="O15" s="184"/>
+      <c r="P15" s="184"/>
       <c r="Q15" s="57"/>
     </row>
     <row r="16" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="B16" s="147"/>
-      <c r="C16" s="162"/>
-      <c r="D16" s="162"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="162"/>
-      <c r="I16" s="162"/>
-      <c r="J16" s="162"/>
-      <c r="K16" s="162"/>
-      <c r="L16" s="162"/>
-      <c r="M16" s="162"/>
-      <c r="N16" s="162"/>
-      <c r="O16" s="162"/>
-      <c r="P16" s="162"/>
+      <c r="B16" s="169"/>
+      <c r="C16" s="184"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="184"/>
+      <c r="F16" s="184"/>
+      <c r="G16" s="184"/>
+      <c r="H16" s="184"/>
+      <c r="I16" s="184"/>
+      <c r="J16" s="184"/>
+      <c r="K16" s="184"/>
+      <c r="L16" s="184"/>
+      <c r="M16" s="184"/>
+      <c r="N16" s="184"/>
+      <c r="O16" s="184"/>
+      <c r="P16" s="184"/>
     </row>
     <row r="17" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="147"/>
+      <c r="B17" s="169"/>
       <c r="C17" s="58"/>
-      <c r="D17" s="169" t="s">
-        <v>86</v>
+      <c r="D17" s="159" t="s">
+        <v>80</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="147"/>
+      <c r="B18" s="169"/>
       <c r="C18" s="58"/>
-      <c r="D18" s="170"/>
+      <c r="D18" s="160"/>
       <c r="F18" s="1">
         <v>2021</v>
       </c>
@@ -3115,11 +5360,11 @@
       </c>
     </row>
     <row r="19" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="147"/>
+      <c r="B19" s="169"/>
       <c r="C19" s="58"/>
-      <c r="D19" s="170"/>
+      <c r="D19" s="160"/>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F19" s="59">
         <v>322.051049922</v>
@@ -3213,11 +5458,11 @@
       </c>
     </row>
     <row r="20" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="147"/>
+      <c r="B20" s="169"/>
       <c r="C20" s="58"/>
-      <c r="D20" s="171"/>
+      <c r="D20" s="161"/>
       <c r="E20" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F20" s="59">
         <v>322.051049922</v>
@@ -3311,11 +5556,11 @@
       </c>
     </row>
     <row r="21" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="147"/>
+      <c r="B21" s="169"/>
       <c r="C21" s="58"/>
-      <c r="D21" s="171"/>
+      <c r="D21" s="161"/>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F21" s="59">
         <v>322.051049922</v>
@@ -3409,9 +5654,9 @@
       </c>
     </row>
     <row r="22" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="147"/>
+      <c r="B22" s="169"/>
       <c r="C22" s="58"/>
-      <c r="D22" s="171"/>
+      <c r="D22" s="161"/>
       <c r="F22" s="60"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -3444,18 +5689,18 @@
       <c r="AI22" s="5"/>
     </row>
     <row r="23" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="147"/>
+      <c r="B23" s="169"/>
       <c r="C23" s="58"/>
-      <c r="D23" s="171"/>
+      <c r="D23" s="161"/>
       <c r="E23" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F23" s="60"/>
     </row>
     <row r="24" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="147"/>
+      <c r="B24" s="169"/>
       <c r="C24" s="58"/>
-      <c r="D24" s="171"/>
+      <c r="D24" s="161"/>
       <c r="F24" s="1">
         <v>2021</v>
       </c>
@@ -3548,11 +5793,11 @@
       </c>
     </row>
     <row r="25" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="147"/>
+      <c r="B25" s="169"/>
       <c r="C25" s="58"/>
-      <c r="D25" s="171"/>
+      <c r="D25" s="161"/>
       <c r="E25" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F25" s="59">
         <v>299.04780031199999</v>
@@ -3646,11 +5891,11 @@
       </c>
     </row>
     <row r="26" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="147"/>
+      <c r="B26" s="169"/>
       <c r="C26" s="58"/>
-      <c r="D26" s="171"/>
+      <c r="D26" s="161"/>
       <c r="E26" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F26" s="59">
         <v>299.04780031199999</v>
@@ -3744,11 +5989,11 @@
       </c>
     </row>
     <row r="27" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="147"/>
+      <c r="B27" s="169"/>
       <c r="C27" s="58"/>
-      <c r="D27" s="171"/>
+      <c r="D27" s="161"/>
       <c r="E27" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F27" s="59">
         <v>299.04780031199999</v>
@@ -3842,7 +6087,7 @@
       </c>
     </row>
     <row r="28" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="147"/>
+      <c r="B28" s="169"/>
       <c r="C28" s="58"/>
       <c r="D28" s="58"/>
       <c r="G28" s="5"/>
@@ -3880,11 +6125,11 @@
       <c r="AM28" s="5"/>
     </row>
     <row r="29" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="147"/>
+      <c r="B29" s="169"/>
       <c r="C29" s="58"/>
       <c r="D29" s="58"/>
       <c r="E29" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="5"/>
@@ -3922,7 +6167,7 @@
       <c r="AM29" s="5"/>
     </row>
     <row r="30" spans="2:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="147"/>
+      <c r="B30" s="169"/>
       <c r="C30" s="58"/>
       <c r="D30" s="58"/>
       <c r="E30" s="1"/>
@@ -3962,25 +6207,25 @@
       <c r="AM30" s="5"/>
     </row>
     <row r="31" spans="2:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="147"/>
+      <c r="B31" s="169"/>
       <c r="C31" s="58"/>
-      <c r="D31" s="170" t="s">
-        <v>93</v>
+      <c r="D31" s="160" t="s">
+        <v>87</v>
       </c>
       <c r="E31" s="61" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F31" s="62" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G31" s="62" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H31" s="62" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I31" s="63" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="64"/>
@@ -4014,23 +6259,23 @@
       <c r="AM31" s="5"/>
     </row>
     <row r="32" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="147"/>
+      <c r="B32" s="169"/>
       <c r="C32" s="58"/>
-      <c r="D32" s="170"/>
+      <c r="D32" s="160"/>
       <c r="E32" s="66" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F32" s="67" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G32" s="67" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H32" s="67" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I32" s="68" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="64"/>
@@ -4064,23 +6309,23 @@
       <c r="AM32" s="5"/>
     </row>
     <row r="33" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="147"/>
+      <c r="B33" s="169"/>
       <c r="C33" s="58"/>
-      <c r="D33" s="170"/>
+      <c r="D33" s="160"/>
       <c r="E33" s="69" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F33" s="70" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G33" s="70" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H33" s="70" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I33" s="71" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="64"/>
@@ -4114,23 +6359,23 @@
       <c r="AM33" s="5"/>
     </row>
     <row r="34" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="147"/>
+      <c r="B34" s="169"/>
       <c r="C34" s="58"/>
-      <c r="D34" s="170"/>
+      <c r="D34" s="160"/>
       <c r="E34" s="72" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F34" s="73" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G34" s="73" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H34" s="73" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I34" s="74" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="64"/>
@@ -4164,23 +6409,23 @@
       <c r="AM34" s="5"/>
     </row>
     <row r="35" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="147"/>
+      <c r="B35" s="169"/>
       <c r="C35" s="58"/>
-      <c r="D35" s="170"/>
+      <c r="D35" s="160"/>
       <c r="E35" s="69" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F35" s="70" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G35" s="70" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H35" s="70" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I35" s="71" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="64"/>
@@ -4214,23 +6459,23 @@
       <c r="AM35" s="5"/>
     </row>
     <row r="36" spans="2:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="147"/>
+      <c r="B36" s="169"/>
       <c r="C36" s="58"/>
-      <c r="D36" s="170"/>
+      <c r="D36" s="160"/>
       <c r="E36" s="75" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F36" s="76" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G36" s="76" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H36" s="76" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I36" s="77" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="64"/>
@@ -4303,23 +6548,23 @@
       <c r="AM37" s="5"/>
     </row>
     <row r="38" spans="2:74" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="146" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="146"/>
-      <c r="E38" s="146"/>
-      <c r="F38" s="146"/>
-      <c r="G38" s="146"/>
-      <c r="H38" s="146"/>
-      <c r="I38" s="146"/>
-      <c r="J38" s="146"/>
-      <c r="K38" s="146"/>
-      <c r="L38" s="146"/>
-      <c r="M38" s="146"/>
-      <c r="N38" s="146"/>
-      <c r="O38" s="146"/>
-      <c r="P38" s="146"/>
-      <c r="Q38" s="146"/>
+      <c r="C38" s="162" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="162"/>
+      <c r="E38" s="162"/>
+      <c r="F38" s="162"/>
+      <c r="G38" s="162"/>
+      <c r="H38" s="162"/>
+      <c r="I38" s="162"/>
+      <c r="J38" s="162"/>
+      <c r="K38" s="162"/>
+      <c r="L38" s="162"/>
+      <c r="M38" s="162"/>
+      <c r="N38" s="162"/>
+      <c r="O38" s="162"/>
+      <c r="P38" s="162"/>
+      <c r="Q38" s="162"/>
       <c r="R38" s="50"/>
       <c r="S38" s="50"/>
       <c r="T38" s="50"/>
@@ -4351,12 +6596,12 @@
     <row r="39" spans="2:74" s="40" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D40" s="53" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="2:74" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="2:74" x14ac:dyDescent="0.25">
@@ -4452,17 +6697,17 @@
       </c>
     </row>
     <row r="43" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="178" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="169" t="s">
-        <v>115</v>
+      <c r="B43" s="164" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="159" t="s">
+        <v>109</v>
       </c>
       <c r="E43" s="79" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F43" s="80" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G43" s="81">
         <f>F19*2+F25</f>
@@ -4557,13 +6802,13 @@
       </c>
     </row>
     <row r="44" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B44" s="178"/>
-      <c r="D44" s="170"/>
+      <c r="B44" s="164"/>
+      <c r="D44" s="160"/>
       <c r="E44" s="82" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F44" s="80" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G44" s="81">
         <f t="shared" ref="G44:G45" si="0">F20*2+F26</f>
@@ -4658,13 +6903,13 @@
       </c>
     </row>
     <row r="45" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B45" s="178"/>
-      <c r="D45" s="170"/>
+      <c r="B45" s="164"/>
+      <c r="D45" s="160"/>
       <c r="E45" s="83" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F45" s="80" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G45" s="81">
         <f t="shared" si="0"/>
@@ -4759,13 +7004,13 @@
       </c>
     </row>
     <row r="46" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B46" s="178"/>
-      <c r="D46" s="171"/>
+      <c r="B46" s="164"/>
+      <c r="D46" s="161"/>
       <c r="E46" s="79" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F46" s="80" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G46" s="81">
         <f>F19*4+F25</f>
@@ -4893,13 +7138,13 @@
       <c r="BV46" s="5"/>
     </row>
     <row r="47" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B47" s="178"/>
-      <c r="D47" s="171"/>
+      <c r="B47" s="164"/>
+      <c r="D47" s="161"/>
       <c r="E47" s="79" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F47" s="80" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G47" s="81">
         <f>F20*4+F26</f>
@@ -5027,13 +7272,13 @@
       <c r="BV47" s="5"/>
     </row>
     <row r="48" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B48" s="178"/>
-      <c r="D48" s="171"/>
+      <c r="B48" s="164"/>
+      <c r="D48" s="161"/>
       <c r="E48" s="79" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F48" s="80" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G48" s="81">
         <f t="shared" ref="G48" si="1">F21*4+F27</f>
@@ -5161,13 +7406,13 @@
       <c r="BV48" s="5"/>
     </row>
     <row r="49" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B49" s="178"/>
-      <c r="D49" s="171"/>
+      <c r="B49" s="164"/>
+      <c r="D49" s="161"/>
       <c r="E49" s="79" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F49" s="80" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G49" s="81">
         <f t="shared" ref="G49:G51" si="2">F19*6+F25</f>
@@ -5295,13 +7540,13 @@
       <c r="BV49" s="5"/>
     </row>
     <row r="50" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B50" s="178"/>
-      <c r="D50" s="171"/>
+      <c r="B50" s="164"/>
+      <c r="D50" s="161"/>
       <c r="E50" s="79" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F50" s="80" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G50" s="81">
         <f t="shared" si="2"/>
@@ -5429,13 +7674,13 @@
       <c r="BV50" s="5"/>
     </row>
     <row r="51" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B51" s="178"/>
-      <c r="D51" s="171"/>
+      <c r="B51" s="164"/>
+      <c r="D51" s="161"/>
       <c r="E51" s="79" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F51" s="80" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G51" s="81">
         <f t="shared" si="2"/>
@@ -5563,13 +7808,13 @@
       <c r="BV51" s="5"/>
     </row>
     <row r="52" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B52" s="178"/>
-      <c r="D52" s="171"/>
+      <c r="B52" s="164"/>
+      <c r="D52" s="161"/>
       <c r="E52" s="79" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F52" s="80" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G52" s="81">
         <f t="shared" ref="G52:G54" si="3">F19*8+F25</f>
@@ -5697,13 +7942,13 @@
       <c r="BV52" s="5"/>
     </row>
     <row r="53" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B53" s="178"/>
-      <c r="D53" s="171"/>
+      <c r="B53" s="164"/>
+      <c r="D53" s="161"/>
       <c r="E53" s="79" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F53" s="80" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G53" s="81">
         <f t="shared" si="3"/>
@@ -5831,13 +8076,13 @@
       <c r="BV53" s="5"/>
     </row>
     <row r="54" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B54" s="178"/>
-      <c r="D54" s="171"/>
+      <c r="B54" s="164"/>
+      <c r="D54" s="161"/>
       <c r="E54" s="79" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F54" s="80" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G54" s="81">
         <f t="shared" si="3"/>
@@ -5965,13 +8210,13 @@
       <c r="BV54" s="5"/>
     </row>
     <row r="55" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B55" s="178"/>
-      <c r="D55" s="171"/>
+      <c r="B55" s="164"/>
+      <c r="D55" s="161"/>
       <c r="E55" s="79" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F55" s="80" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G55" s="81">
         <f t="shared" ref="G55:G57" si="4">F19*10+F25</f>
@@ -6099,13 +8344,13 @@
       <c r="BV55" s="5"/>
     </row>
     <row r="56" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B56" s="178"/>
-      <c r="D56" s="171"/>
+      <c r="B56" s="164"/>
+      <c r="D56" s="161"/>
       <c r="E56" s="79" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F56" s="80" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G56" s="81">
         <f t="shared" si="4"/>
@@ -6233,13 +8478,13 @@
       <c r="BV56" s="5"/>
     </row>
     <row r="57" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B57" s="178"/>
-      <c r="D57" s="171"/>
+      <c r="B57" s="164"/>
+      <c r="D57" s="161"/>
       <c r="E57" s="79" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F57" s="80" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G57" s="81">
         <f t="shared" si="4"/>
@@ -6367,7 +8612,7 @@
       <c r="BV57" s="5"/>
     </row>
     <row r="58" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B58" s="178"/>
+      <c r="B58" s="164"/>
       <c r="D58" s="58"/>
       <c r="E58" s="82"/>
       <c r="F58" s="82"/>
@@ -6436,7 +8681,7 @@
       <c r="BV58" s="5"/>
     </row>
     <row r="59" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B59" s="178"/>
+      <c r="B59" s="164"/>
       <c r="D59" s="58"/>
       <c r="E59" s="82"/>
       <c r="F59" s="82"/>
@@ -6505,7 +8750,7 @@
       <c r="BV59" s="5"/>
     </row>
     <row r="60" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B60" s="178"/>
+      <c r="B60" s="164"/>
       <c r="D60" s="58"/>
       <c r="E60" s="82"/>
       <c r="F60" s="82"/>
@@ -6574,7 +8819,7 @@
       <c r="BV60" s="5"/>
     </row>
     <row r="61" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B61" s="178"/>
+      <c r="B61" s="164"/>
       <c r="D61" s="84"/>
       <c r="E61" s="82"/>
       <c r="F61" s="82"/>
@@ -6670,15 +8915,15 @@
       </c>
     </row>
     <row r="62" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B62" s="178"/>
-      <c r="D62" s="169" t="s">
-        <v>116</v>
+      <c r="B62" s="164"/>
+      <c r="D62" s="159" t="s">
+        <v>110</v>
       </c>
       <c r="E62" s="79" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F62" s="80" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G62" s="81">
         <f t="shared" ref="G62:G70" si="5">0.025*G43</f>
@@ -6773,13 +9018,13 @@
       </c>
     </row>
     <row r="63" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B63" s="178"/>
-      <c r="D63" s="170"/>
+      <c r="B63" s="164"/>
+      <c r="D63" s="160"/>
       <c r="E63" s="82" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F63" s="80" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G63" s="81">
         <f t="shared" si="5"/>
@@ -6874,13 +9119,13 @@
       </c>
     </row>
     <row r="64" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B64" s="178"/>
-      <c r="D64" s="170"/>
+      <c r="B64" s="164"/>
+      <c r="D64" s="160"/>
       <c r="E64" s="83" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F64" s="80" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G64" s="81">
         <f t="shared" si="5"/>
@@ -6975,13 +9220,13 @@
       </c>
     </row>
     <row r="65" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B65" s="178"/>
-      <c r="D65" s="171"/>
+      <c r="B65" s="164"/>
+      <c r="D65" s="161"/>
       <c r="E65" s="79" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F65" s="80" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G65" s="81">
         <f t="shared" si="5"/>
@@ -7076,13 +9321,13 @@
       </c>
     </row>
     <row r="66" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B66" s="178"/>
-      <c r="D66" s="171"/>
+      <c r="B66" s="164"/>
+      <c r="D66" s="161"/>
       <c r="E66" s="79" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F66" s="80" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G66" s="81">
         <f t="shared" si="5"/>
@@ -7177,13 +9422,13 @@
       </c>
     </row>
     <row r="67" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B67" s="178"/>
-      <c r="D67" s="171"/>
+      <c r="B67" s="164"/>
+      <c r="D67" s="161"/>
       <c r="E67" s="79" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F67" s="80" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G67" s="81">
         <f t="shared" si="5"/>
@@ -7278,13 +9523,13 @@
       </c>
     </row>
     <row r="68" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B68" s="178"/>
-      <c r="D68" s="171"/>
+      <c r="B68" s="164"/>
+      <c r="D68" s="161"/>
       <c r="E68" s="79" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F68" s="80" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G68" s="81">
         <f t="shared" si="5"/>
@@ -7379,13 +9624,13 @@
       </c>
     </row>
     <row r="69" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B69" s="178"/>
-      <c r="D69" s="171"/>
+      <c r="B69" s="164"/>
+      <c r="D69" s="161"/>
       <c r="E69" s="79" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F69" s="80" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G69" s="81">
         <f t="shared" si="5"/>
@@ -7480,13 +9725,13 @@
       </c>
     </row>
     <row r="70" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B70" s="178"/>
-      <c r="D70" s="171"/>
+      <c r="B70" s="164"/>
+      <c r="D70" s="161"/>
       <c r="E70" s="79" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F70" s="80" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G70" s="81">
         <f t="shared" si="5"/>
@@ -7581,13 +9826,13 @@
       </c>
     </row>
     <row r="71" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B71" s="178"/>
-      <c r="D71" s="171"/>
+      <c r="B71" s="164"/>
+      <c r="D71" s="161"/>
       <c r="E71" s="79" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F71" s="80" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G71" s="81">
         <f t="shared" ref="G71:G76" si="6">0.025*G52</f>
@@ -7715,13 +9960,13 @@
       <c r="BV71" s="5"/>
     </row>
     <row r="72" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B72" s="178"/>
-      <c r="D72" s="171"/>
+      <c r="B72" s="164"/>
+      <c r="D72" s="161"/>
       <c r="E72" s="79" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F72" s="80" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G72" s="81">
         <f t="shared" si="6"/>
@@ -7849,13 +10094,13 @@
       <c r="BV72" s="5"/>
     </row>
     <row r="73" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B73" s="178"/>
-      <c r="D73" s="171"/>
+      <c r="B73" s="164"/>
+      <c r="D73" s="161"/>
       <c r="E73" s="79" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F73" s="80" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G73" s="81">
         <f t="shared" si="6"/>
@@ -7983,13 +10228,13 @@
       <c r="BV73" s="5"/>
     </row>
     <row r="74" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B74" s="178"/>
-      <c r="D74" s="171"/>
+      <c r="B74" s="164"/>
+      <c r="D74" s="161"/>
       <c r="E74" s="79" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F74" s="80" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G74" s="81">
         <f t="shared" si="6"/>
@@ -8117,13 +10362,13 @@
       <c r="BV74" s="5"/>
     </row>
     <row r="75" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B75" s="178"/>
-      <c r="D75" s="171"/>
+      <c r="B75" s="164"/>
+      <c r="D75" s="161"/>
       <c r="E75" s="79" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F75" s="80" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G75" s="81">
         <f t="shared" si="6"/>
@@ -8251,13 +10496,13 @@
       <c r="BV75" s="5"/>
     </row>
     <row r="76" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B76" s="178"/>
-      <c r="D76" s="171"/>
+      <c r="B76" s="164"/>
+      <c r="D76" s="161"/>
       <c r="E76" s="79" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F76" s="80" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G76" s="81">
         <f t="shared" si="6"/>
@@ -8385,13 +10630,13 @@
       <c r="BV76" s="5"/>
     </row>
     <row r="77" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B77" s="178"/>
+      <c r="B77" s="164"/>
       <c r="D77" s="84"/>
       <c r="E77" s="82"/>
       <c r="F77" s="82"/>
     </row>
     <row r="78" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B78" s="178"/>
+      <c r="B78" s="164"/>
       <c r="D78" s="40"/>
       <c r="E78" s="85"/>
       <c r="F78" s="85"/>
@@ -8487,15 +10732,15 @@
       </c>
     </row>
     <row r="79" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B79" s="178"/>
-      <c r="D79" s="169" t="s">
-        <v>117</v>
+      <c r="B79" s="164"/>
+      <c r="D79" s="159" t="s">
+        <v>111</v>
       </c>
       <c r="E79" s="79" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F79" s="80" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G79" s="59">
         <v>0</v>
@@ -8590,13 +10835,13 @@
       <c r="AO79" s="1"/>
     </row>
     <row r="80" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B80" s="178"/>
-      <c r="D80" s="170"/>
+      <c r="B80" s="164"/>
+      <c r="D80" s="160"/>
       <c r="E80" s="82" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F80" s="80" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G80" s="59">
         <v>0</v>
@@ -8691,13 +10936,13 @@
       <c r="AO80" s="1"/>
     </row>
     <row r="81" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B81" s="178"/>
-      <c r="D81" s="170"/>
+      <c r="B81" s="164"/>
+      <c r="D81" s="160"/>
       <c r="E81" s="83" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F81" s="80" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G81" s="59">
         <v>0</v>
@@ -8792,13 +11037,13 @@
       <c r="AO81" s="1"/>
     </row>
     <row r="82" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B82" s="179"/>
-      <c r="D82" s="171"/>
+      <c r="B82" s="165"/>
+      <c r="D82" s="161"/>
       <c r="E82" s="79" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F82" s="80" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G82" s="59">
         <v>0</v>
@@ -8892,13 +11137,13 @@
       </c>
     </row>
     <row r="83" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B83" s="179"/>
-      <c r="D83" s="171"/>
+      <c r="B83" s="165"/>
+      <c r="D83" s="161"/>
       <c r="E83" s="79" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F83" s="80" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G83" s="59">
         <v>0</v>
@@ -8992,13 +11237,13 @@
       </c>
     </row>
     <row r="84" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B84" s="179"/>
-      <c r="D84" s="171"/>
+      <c r="B84" s="165"/>
+      <c r="D84" s="161"/>
       <c r="E84" s="79" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F84" s="80" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G84" s="59">
         <v>0</v>
@@ -9094,13 +11339,13 @@
       <c r="AL84" s="5"/>
     </row>
     <row r="85" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B85" s="179"/>
-      <c r="D85" s="171"/>
+      <c r="B85" s="165"/>
+      <c r="D85" s="161"/>
       <c r="E85" s="79" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F85" s="80" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G85" s="59">
         <v>0</v>
@@ -9196,13 +11441,13 @@
       <c r="AL85" s="5"/>
     </row>
     <row r="86" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B86" s="179"/>
-      <c r="D86" s="171"/>
+      <c r="B86" s="165"/>
+      <c r="D86" s="161"/>
       <c r="E86" s="79" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F86" s="80" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G86" s="59">
         <v>0</v>
@@ -9298,13 +11543,13 @@
       <c r="AL86" s="5"/>
     </row>
     <row r="87" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B87" s="179"/>
-      <c r="D87" s="171"/>
+      <c r="B87" s="165"/>
+      <c r="D87" s="161"/>
       <c r="E87" s="79" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F87" s="80" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G87" s="59">
         <v>0</v>
@@ -9400,13 +11645,13 @@
       <c r="AL87" s="5"/>
     </row>
     <row r="88" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B88" s="179"/>
-      <c r="D88" s="171"/>
+      <c r="B88" s="165"/>
+      <c r="D88" s="161"/>
       <c r="E88" s="79" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F88" s="80" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G88" s="59">
         <v>0</v>
@@ -9502,13 +11747,13 @@
       <c r="AL88" s="5"/>
     </row>
     <row r="89" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B89" s="179"/>
-      <c r="D89" s="171"/>
+      <c r="B89" s="165"/>
+      <c r="D89" s="161"/>
       <c r="E89" s="79" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F89" s="80" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G89" s="59">
         <v>0</v>
@@ -9604,13 +11849,13 @@
       <c r="AL89" s="5"/>
     </row>
     <row r="90" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B90" s="179"/>
-      <c r="D90" s="171"/>
+      <c r="B90" s="165"/>
+      <c r="D90" s="161"/>
       <c r="E90" s="79" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F90" s="80" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G90" s="59">
         <v>0</v>
@@ -9706,13 +11951,13 @@
       <c r="AL90" s="5"/>
     </row>
     <row r="91" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B91" s="179"/>
-      <c r="D91" s="171"/>
+      <c r="B91" s="165"/>
+      <c r="D91" s="161"/>
       <c r="E91" s="79" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F91" s="80" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G91" s="59">
         <v>0</v>
@@ -9808,13 +12053,13 @@
       <c r="AL91" s="5"/>
     </row>
     <row r="92" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B92" s="179"/>
-      <c r="D92" s="171"/>
+      <c r="B92" s="165"/>
+      <c r="D92" s="161"/>
       <c r="E92" s="79" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F92" s="80" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G92" s="59">
         <v>0</v>
@@ -9910,13 +12155,13 @@
       <c r="AL92" s="5"/>
     </row>
     <row r="93" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B93" s="179"/>
-      <c r="D93" s="171"/>
+      <c r="B93" s="165"/>
+      <c r="D93" s="161"/>
       <c r="E93" s="79" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F93" s="80" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G93" s="59">
         <v>0</v>
@@ -10012,10 +12257,10 @@
       <c r="AL93" s="5"/>
     </row>
     <row r="94" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B94" s="179"/>
+      <c r="B94" s="165"/>
     </row>
     <row r="95" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="179"/>
+      <c r="B95" s="165"/>
       <c r="G95" s="1">
         <v>2021</v>
       </c>
@@ -10108,15 +12353,15 @@
       </c>
     </row>
     <row r="96" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B96" s="179"/>
-      <c r="D96" s="169" t="s">
-        <v>118</v>
+      <c r="B96" s="165"/>
+      <c r="D96" s="159" t="s">
+        <v>112</v>
       </c>
       <c r="E96" s="79" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F96" s="80" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G96" s="86">
         <v>0.85</v>
@@ -10210,13 +12455,13 @@
       </c>
     </row>
     <row r="97" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B97" s="179"/>
-      <c r="D97" s="170"/>
+      <c r="B97" s="165"/>
+      <c r="D97" s="160"/>
       <c r="E97" s="82" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F97" s="80" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G97" s="86">
         <v>0.85</v>
@@ -10310,13 +12555,13 @@
       </c>
     </row>
     <row r="98" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B98" s="179"/>
-      <c r="D98" s="170"/>
+      <c r="B98" s="165"/>
+      <c r="D98" s="160"/>
       <c r="E98" s="83" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F98" s="80" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G98" s="86">
         <v>0.85</v>
@@ -10410,1113 +12655,1113 @@
       </c>
     </row>
     <row r="99" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B99" s="179"/>
-      <c r="D99" s="171"/>
+      <c r="B99" s="165"/>
+      <c r="D99" s="161"/>
       <c r="E99" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="F99" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="G99" s="86">
+        <v>0.85</v>
+      </c>
+      <c r="H99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="I99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="J99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="K99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="L99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="M99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="N99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="O99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="P99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Q99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="R99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="S99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="T99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="U99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="V99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="W99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="X99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Y99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Z99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AA99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AB99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AC99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AD99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AE99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AF99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AG99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AH99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AI99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AJ99" s="141">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="100" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B100" s="165"/>
+      <c r="D100" s="161"/>
+      <c r="E100" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="F100" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="G100" s="86">
+        <v>0.85</v>
+      </c>
+      <c r="H100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="I100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="J100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="K100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="L100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="M100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="N100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="O100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="P100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Q100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="R100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="S100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="T100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="U100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="V100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="W100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="X100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Y100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Z100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AA100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AB100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AC100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AD100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AE100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AF100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AG100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AH100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AI100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AJ100" s="141">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="101" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B101" s="165"/>
+      <c r="D101" s="161"/>
+      <c r="E101" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="F101" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="G101" s="86">
+        <v>0.85</v>
+      </c>
+      <c r="H101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="I101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="J101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="K101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="L101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="M101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="N101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="O101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="P101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Q101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="R101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="S101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="T101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="U101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="V101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="W101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="X101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Y101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Z101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AA101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AB101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AC101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AD101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AE101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AF101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AG101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AH101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AI101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AJ101" s="141">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="102" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B102" s="165"/>
+      <c r="D102" s="161"/>
+      <c r="E102" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="F102" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="G102" s="86">
+        <v>0.85</v>
+      </c>
+      <c r="H102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="I102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="J102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="K102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="L102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="M102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="N102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="O102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="P102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Q102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="R102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="S102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="T102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="U102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="V102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="W102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="X102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Y102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Z102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AA102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AB102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AC102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AD102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AE102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AF102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AG102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AH102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AI102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AJ102" s="141">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="103" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B103" s="165"/>
+      <c r="D103" s="161"/>
+      <c r="E103" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="F103" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="G103" s="86">
+        <v>0.85</v>
+      </c>
+      <c r="H103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="I103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="J103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="K103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="L103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="M103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="N103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="O103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="P103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Q103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="R103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="S103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="T103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="U103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="V103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="W103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="X103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Y103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Z103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AA103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AB103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AC103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AD103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AE103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AF103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AG103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AH103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AI103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AJ103" s="141">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="104" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B104" s="165"/>
+      <c r="D104" s="161"/>
+      <c r="E104" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="F104" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="G104" s="86">
+        <v>0.85</v>
+      </c>
+      <c r="H104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="I104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="J104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="K104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="L104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="M104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="N104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="O104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="P104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Q104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="R104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="S104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="T104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="U104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="V104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="W104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="X104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Y104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Z104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AA104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AB104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AC104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AD104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AE104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AF104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AG104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AH104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AI104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AJ104" s="141">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="105" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B105" s="165"/>
+      <c r="D105" s="161"/>
+      <c r="E105" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="F105" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="G105" s="86">
+        <v>0.85</v>
+      </c>
+      <c r="H105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="I105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="J105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="K105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="L105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="M105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="N105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="O105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="P105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Q105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="R105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="S105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="T105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="U105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="V105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="W105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="X105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Y105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Z105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AA105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AB105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AC105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AD105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AE105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AF105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AG105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AH105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AI105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AJ105" s="141">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="106" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B106" s="165"/>
+      <c r="D106" s="161"/>
+      <c r="E106" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="F106" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="G106" s="86">
+        <v>0.85</v>
+      </c>
+      <c r="H106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="I106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="J106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="K106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="L106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="M106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="N106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="O106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="P106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Q106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="R106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="S106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="T106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="U106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="V106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="W106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="X106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Y106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Z106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AA106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AB106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AC106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AD106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AE106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AF106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AG106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AH106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AI106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AJ106" s="141">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="107" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B107" s="165"/>
+      <c r="D107" s="161"/>
+      <c r="E107" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="F107" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="G107" s="86">
+        <v>0.85</v>
+      </c>
+      <c r="H107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="I107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="J107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="K107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="L107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="M107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="N107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="O107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="P107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Q107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="R107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="S107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="T107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="U107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="V107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="W107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="X107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Y107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Z107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AA107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AB107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AC107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AD107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AE107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AF107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AG107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AH107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AI107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AJ107" s="141">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="108" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B108" s="165"/>
+      <c r="D108" s="161"/>
+      <c r="E108" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="F99" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="G99" s="86">
-        <v>0.85</v>
-      </c>
-      <c r="H99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="I99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="J99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="K99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="L99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="M99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="N99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="O99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="P99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Q99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="R99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="S99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="T99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="U99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="V99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="W99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="X99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Y99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Z99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AA99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AB99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AC99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AD99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AE99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AF99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AG99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AH99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AI99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AJ99" s="141">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="100" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B100" s="179"/>
-      <c r="D100" s="171"/>
-      <c r="E100" s="79" t="s">
+      <c r="F108" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="G108" s="86">
+        <v>0.85</v>
+      </c>
+      <c r="H108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="I108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="J108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="K108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="L108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="M108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="N108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="O108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="P108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Q108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="R108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="S108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="T108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="U108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="V108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="W108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="X108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Y108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Z108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AA108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AB108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AC108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AD108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AE108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AF108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AG108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AH108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AI108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AJ108" s="141">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="109" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B109" s="165"/>
+      <c r="D109" s="161"/>
+      <c r="E109" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="F100" s="80" t="s">
-        <v>89</v>
-      </c>
-      <c r="G100" s="86">
-        <v>0.85</v>
-      </c>
-      <c r="H100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="I100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="J100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="K100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="L100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="M100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="N100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="O100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="P100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Q100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="R100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="S100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="T100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="U100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="V100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="W100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="X100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Y100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Z100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AA100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AB100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AC100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AD100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AE100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AF100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AG100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AH100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AI100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AJ100" s="141">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="101" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B101" s="179"/>
-      <c r="D101" s="171"/>
-      <c r="E101" s="79" t="s">
+      <c r="F109" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="G109" s="86">
+        <v>0.85</v>
+      </c>
+      <c r="H109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="I109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="J109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="K109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="L109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="M109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="N109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="O109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="P109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Q109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="R109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="S109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="T109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="U109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="V109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="W109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="X109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Y109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Z109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AA109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AB109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AC109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AD109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AE109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AF109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AG109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AH109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AI109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AJ109" s="141">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="110" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B110" s="165"/>
+      <c r="D110" s="161"/>
+      <c r="E110" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="F101" s="80" t="s">
-        <v>90</v>
-      </c>
-      <c r="G101" s="86">
-        <v>0.85</v>
-      </c>
-      <c r="H101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="I101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="J101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="K101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="L101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="M101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="N101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="O101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="P101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Q101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="R101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="S101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="T101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="U101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="V101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="W101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="X101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Y101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Z101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AA101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AB101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AC101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AD101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AE101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AF101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AG101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AH101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AI101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AJ101" s="141">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="102" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B102" s="179"/>
-      <c r="D102" s="171"/>
-      <c r="E102" s="79" t="s">
-        <v>106</v>
-      </c>
-      <c r="F102" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="G102" s="86">
-        <v>0.85</v>
-      </c>
-      <c r="H102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="I102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="J102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="K102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="L102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="M102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="N102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="O102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="P102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Q102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="R102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="S102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="T102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="U102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="V102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="W102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="X102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Y102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Z102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AA102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AB102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AC102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AD102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AE102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AF102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AG102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AH102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AI102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AJ102" s="141">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="103" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B103" s="179"/>
-      <c r="D103" s="171"/>
-      <c r="E103" s="79" t="s">
-        <v>106</v>
-      </c>
-      <c r="F103" s="80" t="s">
-        <v>89</v>
-      </c>
-      <c r="G103" s="86">
-        <v>0.85</v>
-      </c>
-      <c r="H103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="I103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="J103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="K103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="L103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="M103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="N103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="O103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="P103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Q103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="R103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="S103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="T103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="U103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="V103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="W103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="X103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Y103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Z103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AA103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AB103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AC103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AD103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AE103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AF103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AG103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AH103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AI103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AJ103" s="141">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="104" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B104" s="179"/>
-      <c r="D104" s="171"/>
-      <c r="E104" s="79" t="s">
-        <v>106</v>
-      </c>
-      <c r="F104" s="80" t="s">
-        <v>90</v>
-      </c>
-      <c r="G104" s="86">
-        <v>0.85</v>
-      </c>
-      <c r="H104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="I104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="J104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="K104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="L104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="M104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="N104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="O104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="P104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Q104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="R104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="S104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="T104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="U104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="V104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="W104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="X104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Y104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Z104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AA104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AB104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AC104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AD104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AE104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AF104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AG104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AH104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AI104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AJ104" s="141">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="105" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B105" s="179"/>
-      <c r="D105" s="171"/>
-      <c r="E105" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="F105" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="G105" s="86">
-        <v>0.85</v>
-      </c>
-      <c r="H105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="I105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="J105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="K105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="L105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="M105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="N105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="O105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="P105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Q105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="R105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="S105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="T105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="U105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="V105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="W105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="X105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Y105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Z105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AA105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AB105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AC105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AD105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AE105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AF105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AG105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AH105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AI105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AJ105" s="141">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="106" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B106" s="179"/>
-      <c r="D106" s="171"/>
-      <c r="E106" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="F106" s="80" t="s">
-        <v>89</v>
-      </c>
-      <c r="G106" s="86">
-        <v>0.85</v>
-      </c>
-      <c r="H106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="I106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="J106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="K106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="L106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="M106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="N106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="O106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="P106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Q106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="R106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="S106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="T106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="U106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="V106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="W106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="X106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Y106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Z106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AA106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AB106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AC106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AD106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AE106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AF106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AG106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AH106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AI106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AJ106" s="141">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="107" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B107" s="179"/>
-      <c r="D107" s="171"/>
-      <c r="E107" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="F107" s="80" t="s">
-        <v>90</v>
-      </c>
-      <c r="G107" s="86">
-        <v>0.85</v>
-      </c>
-      <c r="H107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="I107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="J107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="K107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="L107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="M107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="N107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="O107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="P107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Q107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="R107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="S107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="T107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="U107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="V107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="W107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="X107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Y107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Z107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AA107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AB107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AC107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AD107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AE107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AF107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AG107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AH107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AI107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AJ107" s="141">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="108" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B108" s="179"/>
-      <c r="D108" s="171"/>
-      <c r="E108" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="F108" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="G108" s="86">
-        <v>0.85</v>
-      </c>
-      <c r="H108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="I108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="J108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="K108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="L108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="M108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="N108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="O108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="P108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Q108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="R108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="S108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="T108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="U108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="V108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="W108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="X108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Y108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Z108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AA108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AB108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AC108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AD108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AE108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AF108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AG108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AH108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AI108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AJ108" s="141">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="109" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B109" s="179"/>
-      <c r="D109" s="171"/>
-      <c r="E109" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="F109" s="80" t="s">
-        <v>89</v>
-      </c>
-      <c r="G109" s="86">
-        <v>0.85</v>
-      </c>
-      <c r="H109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="I109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="J109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="K109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="L109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="M109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="N109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="O109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="P109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Q109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="R109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="S109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="T109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="U109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="V109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="W109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="X109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Y109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Z109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AA109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AB109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AC109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AD109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AE109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AF109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AG109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AH109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AI109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AJ109" s="141">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="110" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B110" s="179"/>
-      <c r="D110" s="171"/>
-      <c r="E110" s="79" t="s">
-        <v>110</v>
-      </c>
       <c r="F110" s="80" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G110" s="86">
         <v>0.85</v>
@@ -11610,10 +13855,10 @@
       </c>
     </row>
     <row r="111" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B111" s="179"/>
+      <c r="B111" s="165"/>
     </row>
     <row r="112" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B112" s="179"/>
+      <c r="B112" s="165"/>
       <c r="G112" s="1">
         <v>2021</v>
       </c>
@@ -11706,15 +13951,15 @@
       </c>
     </row>
     <row r="113" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B113" s="179"/>
-      <c r="D113" s="169" t="s">
-        <v>119</v>
+      <c r="B113" s="165"/>
+      <c r="D113" s="159" t="s">
+        <v>113</v>
       </c>
       <c r="E113" s="79" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F113" s="80" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G113" s="86">
         <f>2/24</f>
@@ -11809,13 +14054,13 @@
       </c>
     </row>
     <row r="114" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B114" s="179"/>
-      <c r="D114" s="170"/>
+      <c r="B114" s="165"/>
+      <c r="D114" s="160"/>
       <c r="E114" s="82" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F114" s="80" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G114" s="86">
         <f t="shared" ref="G114:G115" si="7">2/24</f>
@@ -11910,13 +14155,13 @@
       </c>
     </row>
     <row r="115" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B115" s="179"/>
-      <c r="D115" s="170"/>
+      <c r="B115" s="165"/>
+      <c r="D115" s="160"/>
       <c r="E115" s="83" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F115" s="80" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G115" s="86">
         <f t="shared" si="7"/>
@@ -12011,13 +14256,13 @@
       </c>
     </row>
     <row r="116" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B116" s="179"/>
-      <c r="D116" s="171"/>
+      <c r="B116" s="165"/>
+      <c r="D116" s="161"/>
       <c r="E116" s="79" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F116" s="80" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G116" s="86">
         <f>4/24</f>
@@ -12112,13 +14357,13 @@
       </c>
     </row>
     <row r="117" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B117" s="179"/>
-      <c r="D117" s="171"/>
+      <c r="B117" s="165"/>
+      <c r="D117" s="161"/>
       <c r="E117" s="79" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F117" s="80" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G117" s="86">
         <f t="shared" ref="G117:G118" si="8">4/24</f>
@@ -12213,13 +14458,13 @@
       </c>
     </row>
     <row r="118" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B118" s="179"/>
-      <c r="D118" s="171"/>
+      <c r="B118" s="165"/>
+      <c r="D118" s="161"/>
       <c r="E118" s="79" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F118" s="80" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G118" s="86">
         <f t="shared" si="8"/>
@@ -12314,13 +14559,13 @@
       </c>
     </row>
     <row r="119" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B119" s="179"/>
-      <c r="D119" s="171"/>
+      <c r="B119" s="165"/>
+      <c r="D119" s="161"/>
       <c r="E119" s="79" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F119" s="80" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G119" s="86">
         <f>6/24</f>
@@ -12415,13 +14660,13 @@
       </c>
     </row>
     <row r="120" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B120" s="179"/>
-      <c r="D120" s="171"/>
+      <c r="B120" s="165"/>
+      <c r="D120" s="161"/>
       <c r="E120" s="79" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F120" s="80" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G120" s="86">
         <f t="shared" ref="G120:G121" si="9">6/24</f>
@@ -12516,13 +14761,13 @@
       </c>
     </row>
     <row r="121" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B121" s="179"/>
-      <c r="D121" s="171"/>
+      <c r="B121" s="165"/>
+      <c r="D121" s="161"/>
       <c r="E121" s="79" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F121" s="80" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G121" s="86">
         <f t="shared" si="9"/>
@@ -12617,13 +14862,13 @@
       </c>
     </row>
     <row r="122" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B122" s="179"/>
-      <c r="D122" s="171"/>
+      <c r="B122" s="165"/>
+      <c r="D122" s="161"/>
       <c r="E122" s="79" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F122" s="80" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G122" s="86">
         <f>8/24</f>
@@ -12718,13 +14963,13 @@
       </c>
     </row>
     <row r="123" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B123" s="179"/>
-      <c r="D123" s="171"/>
+      <c r="B123" s="165"/>
+      <c r="D123" s="161"/>
       <c r="E123" s="79" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F123" s="80" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G123" s="86">
         <f t="shared" ref="G123:G124" si="10">8/24</f>
@@ -12819,13 +15064,13 @@
       </c>
     </row>
     <row r="124" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B124" s="179"/>
-      <c r="D124" s="171"/>
+      <c r="B124" s="165"/>
+      <c r="D124" s="161"/>
       <c r="E124" s="79" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F124" s="80" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G124" s="86">
         <f t="shared" si="10"/>
@@ -12920,13 +15165,13 @@
       </c>
     </row>
     <row r="125" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B125" s="179"/>
-      <c r="D125" s="171"/>
+      <c r="B125" s="165"/>
+      <c r="D125" s="161"/>
       <c r="E125" s="79" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F125" s="80" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G125" s="86">
         <f>10/24</f>
@@ -13021,13 +15266,13 @@
       </c>
     </row>
     <row r="126" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B126" s="179"/>
-      <c r="D126" s="171"/>
+      <c r="B126" s="165"/>
+      <c r="D126" s="161"/>
       <c r="E126" s="79" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F126" s="80" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G126" s="86">
         <f t="shared" ref="G126:G127" si="11">10/24</f>
@@ -13122,13 +15367,13 @@
       </c>
     </row>
     <row r="127" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B127" s="179"/>
-      <c r="D127" s="171"/>
+      <c r="B127" s="165"/>
+      <c r="D127" s="161"/>
       <c r="E127" s="79" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F127" s="80" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G127" s="86">
         <f t="shared" si="11"/>
@@ -13226,23 +15471,23 @@
       <c r="B128" s="87"/>
     </row>
     <row r="129" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B129" s="172" t="s">
-        <v>120</v>
-      </c>
-      <c r="C129" s="146"/>
-      <c r="D129" s="146"/>
-      <c r="E129" s="146"/>
-      <c r="F129" s="146"/>
-      <c r="G129" s="146"/>
-      <c r="H129" s="146"/>
-      <c r="I129" s="146"/>
-      <c r="J129" s="146"/>
-      <c r="K129" s="146"/>
-      <c r="L129" s="146"/>
-      <c r="M129" s="146"/>
-      <c r="N129" s="146"/>
-      <c r="O129" s="146"/>
-      <c r="P129" s="146"/>
+      <c r="B129" s="163" t="s">
+        <v>114</v>
+      </c>
+      <c r="C129" s="162"/>
+      <c r="D129" s="162"/>
+      <c r="E129" s="162"/>
+      <c r="F129" s="162"/>
+      <c r="G129" s="162"/>
+      <c r="H129" s="162"/>
+      <c r="I129" s="162"/>
+      <c r="J129" s="162"/>
+      <c r="K129" s="162"/>
+      <c r="L129" s="162"/>
+      <c r="M129" s="162"/>
+      <c r="N129" s="162"/>
+      <c r="O129" s="162"/>
+      <c r="P129" s="162"/>
       <c r="Q129" s="50"/>
       <c r="R129" s="50"/>
       <c r="S129" s="50"/>
@@ -13277,26 +15522,26 @@
     </row>
     <row r="131" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B131" s="40"/>
-      <c r="C131" s="173" t="s">
-        <v>121</v>
-      </c>
-      <c r="D131" s="174"/>
-      <c r="E131" s="174"/>
-      <c r="F131" s="174"/>
-      <c r="G131" s="174"/>
-      <c r="H131" s="174"/>
-      <c r="I131" s="175" t="s">
-        <v>122</v>
-      </c>
-      <c r="J131" s="176"/>
-      <c r="K131" s="176"/>
-      <c r="L131" s="176"/>
-      <c r="M131" s="177"/>
+      <c r="C131" s="153" t="s">
+        <v>115</v>
+      </c>
+      <c r="D131" s="154"/>
+      <c r="E131" s="154"/>
+      <c r="F131" s="154"/>
+      <c r="G131" s="154"/>
+      <c r="H131" s="154"/>
+      <c r="I131" s="156" t="s">
+        <v>116</v>
+      </c>
+      <c r="J131" s="157"/>
+      <c r="K131" s="157"/>
+      <c r="L131" s="157"/>
+      <c r="M131" s="158"/>
       <c r="N131" s="89" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="O131" s="90" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="P131" s="91"/>
       <c r="Q131" s="91"/>
@@ -13309,16 +15554,16 @@
     </row>
     <row r="132" spans="2:28" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="40"/>
-      <c r="C132" s="163" t="s">
-        <v>125</v>
-      </c>
-      <c r="D132" s="164"/>
-      <c r="E132" s="164"/>
-      <c r="F132" s="164"/>
-      <c r="G132" s="164"/>
-      <c r="H132" s="165"/>
+      <c r="C132" s="143" t="s">
+        <v>119</v>
+      </c>
+      <c r="D132" s="144"/>
+      <c r="E132" s="144"/>
+      <c r="F132" s="144"/>
+      <c r="G132" s="144"/>
+      <c r="H132" s="145"/>
       <c r="I132" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M132" s="96"/>
       <c r="N132" s="97"/>
@@ -13327,16 +15572,16 @@
     </row>
     <row r="133" spans="2:28" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="40"/>
-      <c r="C133" s="163" t="s">
-        <v>126</v>
-      </c>
-      <c r="D133" s="164"/>
-      <c r="E133" s="164"/>
-      <c r="F133" s="164"/>
-      <c r="G133" s="164"/>
-      <c r="H133" s="165"/>
+      <c r="C133" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D133" s="144"/>
+      <c r="E133" s="144"/>
+      <c r="F133" s="144"/>
+      <c r="G133" s="144"/>
+      <c r="H133" s="145"/>
       <c r="I133" s="100" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J133" s="101"/>
       <c r="K133" s="101"/>
@@ -13345,7 +15590,7 @@
       <c r="N133" s="103"/>
       <c r="O133" s="103"/>
       <c r="P133" s="101" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Q133" s="101"/>
       <c r="R133" s="101"/>
@@ -13357,21 +15602,21 @@
     </row>
     <row r="134" spans="2:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="40"/>
-      <c r="C134" s="163" t="s">
-        <v>115</v>
-      </c>
-      <c r="D134" s="164"/>
-      <c r="E134" s="164"/>
-      <c r="F134" s="164"/>
-      <c r="G134" s="164"/>
-      <c r="H134" s="165"/>
-      <c r="I134" s="166" t="s">
-        <v>128</v>
-      </c>
-      <c r="J134" s="167"/>
-      <c r="K134" s="167"/>
-      <c r="L134" s="167"/>
-      <c r="M134" s="168"/>
+      <c r="C134" s="143" t="s">
+        <v>109</v>
+      </c>
+      <c r="D134" s="144"/>
+      <c r="E134" s="144"/>
+      <c r="F134" s="144"/>
+      <c r="G134" s="144"/>
+      <c r="H134" s="145"/>
+      <c r="I134" s="149" t="s">
+        <v>122</v>
+      </c>
+      <c r="J134" s="150"/>
+      <c r="K134" s="150"/>
+      <c r="L134" s="150"/>
+      <c r="M134" s="151"/>
       <c r="N134" s="105"/>
       <c r="O134" s="105"/>
       <c r="P134" s="106"/>
@@ -13385,21 +15630,21 @@
     </row>
     <row r="135" spans="2:28" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="40"/>
-      <c r="C135" s="163" t="s">
-        <v>129</v>
-      </c>
-      <c r="D135" s="164"/>
-      <c r="E135" s="164"/>
-      <c r="F135" s="164"/>
-      <c r="G135" s="164"/>
-      <c r="H135" s="165"/>
-      <c r="I135" s="166" t="s">
-        <v>130</v>
-      </c>
-      <c r="J135" s="167"/>
-      <c r="K135" s="167"/>
-      <c r="L135" s="167"/>
-      <c r="M135" s="168"/>
+      <c r="C135" s="143" t="s">
+        <v>123</v>
+      </c>
+      <c r="D135" s="144"/>
+      <c r="E135" s="144"/>
+      <c r="F135" s="144"/>
+      <c r="G135" s="144"/>
+      <c r="H135" s="145"/>
+      <c r="I135" s="149" t="s">
+        <v>124</v>
+      </c>
+      <c r="J135" s="150"/>
+      <c r="K135" s="150"/>
+      <c r="L135" s="150"/>
+      <c r="M135" s="151"/>
       <c r="N135" s="105"/>
       <c r="O135" s="105"/>
       <c r="P135" s="106"/>
@@ -13413,16 +15658,16 @@
     </row>
     <row r="136" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B136" s="40"/>
-      <c r="C136" s="163" t="s">
-        <v>131</v>
-      </c>
-      <c r="D136" s="164"/>
-      <c r="E136" s="164"/>
-      <c r="F136" s="164"/>
-      <c r="G136" s="164"/>
-      <c r="H136" s="165"/>
+      <c r="C136" s="143" t="s">
+        <v>125</v>
+      </c>
+      <c r="D136" s="144"/>
+      <c r="E136" s="144"/>
+      <c r="F136" s="144"/>
+      <c r="G136" s="144"/>
+      <c r="H136" s="145"/>
       <c r="I136" s="108" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J136" s="109"/>
       <c r="K136" s="109"/>
@@ -13441,16 +15686,16 @@
     </row>
     <row r="137" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B137" s="40"/>
-      <c r="C137" s="180" t="s">
-        <v>132</v>
-      </c>
-      <c r="D137" s="181"/>
-      <c r="E137" s="181"/>
-      <c r="F137" s="181"/>
-      <c r="G137" s="181"/>
-      <c r="H137" s="182"/>
+      <c r="C137" s="146" t="s">
+        <v>126</v>
+      </c>
+      <c r="D137" s="147"/>
+      <c r="E137" s="147"/>
+      <c r="F137" s="147"/>
+      <c r="G137" s="147"/>
+      <c r="H137" s="148"/>
       <c r="I137" s="112" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J137" s="113"/>
       <c r="K137" s="113"/>
@@ -13469,12 +15714,12 @@
     </row>
     <row r="138" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B138" s="40"/>
-      <c r="C138" s="183"/>
-      <c r="D138" s="183"/>
-      <c r="E138" s="183"/>
-      <c r="F138" s="183"/>
-      <c r="G138" s="183"/>
-      <c r="H138" s="183"/>
+      <c r="C138" s="152"/>
+      <c r="D138" s="152"/>
+      <c r="E138" s="152"/>
+      <c r="F138" s="152"/>
+      <c r="G138" s="152"/>
+      <c r="H138" s="152"/>
       <c r="I138" s="116"/>
       <c r="J138" s="116"/>
       <c r="K138" s="116"/>
@@ -13493,26 +15738,26 @@
     </row>
     <row r="139" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B139" s="40"/>
-      <c r="C139" s="173" t="s">
-        <v>133</v>
-      </c>
-      <c r="D139" s="174"/>
-      <c r="E139" s="174"/>
-      <c r="F139" s="174"/>
-      <c r="G139" s="174"/>
-      <c r="H139" s="184"/>
-      <c r="I139" s="175" t="s">
-        <v>122</v>
-      </c>
-      <c r="J139" s="176"/>
-      <c r="K139" s="176"/>
-      <c r="L139" s="176"/>
-      <c r="M139" s="177"/>
+      <c r="C139" s="153" t="s">
+        <v>127</v>
+      </c>
+      <c r="D139" s="154"/>
+      <c r="E139" s="154"/>
+      <c r="F139" s="154"/>
+      <c r="G139" s="154"/>
+      <c r="H139" s="155"/>
+      <c r="I139" s="156" t="s">
+        <v>116</v>
+      </c>
+      <c r="J139" s="157"/>
+      <c r="K139" s="157"/>
+      <c r="L139" s="157"/>
+      <c r="M139" s="158"/>
       <c r="N139" s="89" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="O139" s="89" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="P139" s="118"/>
       <c r="Q139" s="119"/>
@@ -13525,16 +15770,16 @@
     </row>
     <row r="140" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B140" s="40"/>
-      <c r="C140" s="163" t="s">
-        <v>126</v>
-      </c>
-      <c r="D140" s="164"/>
-      <c r="E140" s="164"/>
-      <c r="F140" s="164"/>
-      <c r="G140" s="164"/>
-      <c r="H140" s="165"/>
+      <c r="C140" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D140" s="144"/>
+      <c r="E140" s="144"/>
+      <c r="F140" s="144"/>
+      <c r="G140" s="144"/>
+      <c r="H140" s="145"/>
       <c r="I140" s="100" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J140" s="101"/>
       <c r="K140" s="101"/>
@@ -13543,7 +15788,7 @@
       <c r="N140" s="103"/>
       <c r="O140" s="103"/>
       <c r="P140" s="101" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Q140" s="101"/>
       <c r="R140" s="101"/>
@@ -13556,7 +15801,7 @@
     <row r="141" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B141" s="40"/>
       <c r="C141" s="93" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D141" s="94"/>
       <c r="E141" s="94"/>
@@ -13564,7 +15809,7 @@
       <c r="G141" s="94"/>
       <c r="H141" s="95"/>
       <c r="I141" s="122" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J141" s="123"/>
       <c r="K141" s="123"/>
@@ -13583,7 +15828,7 @@
     </row>
     <row r="142" spans="2:28" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C142" s="93" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D142" s="94"/>
       <c r="E142" s="94"/>
@@ -13591,7 +15836,7 @@
       <c r="G142" s="94"/>
       <c r="H142" s="95"/>
       <c r="I142" s="127" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J142" s="127"/>
       <c r="K142" s="127"/>
@@ -13599,7 +15844,7 @@
       <c r="M142" s="127"/>
       <c r="O142" s="128"/>
       <c r="P142" s="129" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="Q142" s="94"/>
       <c r="R142" s="95"/>
@@ -13616,16 +15861,16 @@
     </row>
     <row r="143" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B143" s="40"/>
-      <c r="C143" s="163" t="s">
-        <v>129</v>
-      </c>
-      <c r="D143" s="164"/>
-      <c r="E143" s="164"/>
-      <c r="F143" s="164"/>
-      <c r="G143" s="164"/>
-      <c r="H143" s="165"/>
+      <c r="C143" s="143" t="s">
+        <v>123</v>
+      </c>
+      <c r="D143" s="144"/>
+      <c r="E143" s="144"/>
+      <c r="F143" s="144"/>
+      <c r="G143" s="144"/>
+      <c r="H143" s="145"/>
       <c r="I143" s="122" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J143" s="131"/>
       <c r="K143" s="131"/>
@@ -13644,16 +15889,16 @@
     </row>
     <row r="144" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B144" s="40"/>
-      <c r="C144" s="163" t="s">
-        <v>131</v>
-      </c>
-      <c r="D144" s="164"/>
-      <c r="E144" s="164"/>
-      <c r="F144" s="164"/>
-      <c r="G144" s="164"/>
-      <c r="H144" s="165"/>
+      <c r="C144" s="143" t="s">
+        <v>125</v>
+      </c>
+      <c r="D144" s="144"/>
+      <c r="E144" s="144"/>
+      <c r="F144" s="144"/>
+      <c r="G144" s="144"/>
+      <c r="H144" s="145"/>
       <c r="I144" s="122" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J144" s="109"/>
       <c r="K144" s="109"/>
@@ -13672,16 +15917,16 @@
     </row>
     <row r="145" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B145" s="40"/>
-      <c r="C145" s="180" t="s">
-        <v>137</v>
-      </c>
-      <c r="D145" s="181"/>
-      <c r="E145" s="181"/>
-      <c r="F145" s="181"/>
-      <c r="G145" s="181"/>
-      <c r="H145" s="182"/>
+      <c r="C145" s="146" t="s">
+        <v>131</v>
+      </c>
+      <c r="D145" s="147"/>
+      <c r="E145" s="147"/>
+      <c r="F145" s="147"/>
+      <c r="G145" s="147"/>
+      <c r="H145" s="148"/>
       <c r="I145" s="112" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J145" s="113"/>
       <c r="K145" s="113"/>
@@ -13931,17 +16176,16 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C140:H140"/>
-    <mergeCell ref="C143:H143"/>
-    <mergeCell ref="C144:H144"/>
-    <mergeCell ref="C145:H145"/>
-    <mergeCell ref="C135:H135"/>
-    <mergeCell ref="I135:M135"/>
-    <mergeCell ref="C136:H136"/>
-    <mergeCell ref="C137:H137"/>
-    <mergeCell ref="C138:H138"/>
-    <mergeCell ref="C139:H139"/>
-    <mergeCell ref="I139:M139"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="C7:Q7"/>
+    <mergeCell ref="B9:B36"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="C15:P16"/>
     <mergeCell ref="C134:H134"/>
     <mergeCell ref="I134:M134"/>
     <mergeCell ref="D17:D27"/>
@@ -13958,16 +16202,17 @@
     <mergeCell ref="D79:D93"/>
     <mergeCell ref="D96:D110"/>
     <mergeCell ref="D113:D127"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="C7:Q7"/>
-    <mergeCell ref="B9:B36"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="C15:P16"/>
+    <mergeCell ref="I135:M135"/>
+    <mergeCell ref="C136:H136"/>
+    <mergeCell ref="C137:H137"/>
+    <mergeCell ref="C138:H138"/>
+    <mergeCell ref="C139:H139"/>
+    <mergeCell ref="I139:M139"/>
+    <mergeCell ref="C140:H140"/>
+    <mergeCell ref="C143:H143"/>
+    <mergeCell ref="C144:H144"/>
+    <mergeCell ref="C145:H145"/>
+    <mergeCell ref="C135:H135"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M1" r:id="rId1" display="https://atb.nrel.gov/electricity/2022/utility-scale_battery_storage" xr:uid="{7816EC9A-0454-4087-A6E1-F971C99AA20E}"/>
@@ -13986,7 +16231,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13997,7 +16242,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -14016,72 +16261,72 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="185" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="186"/>
       <c r="D2" s="187"/>
       <c r="E2" s="39"/>
       <c r="F2" s="185" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" s="186"/>
       <c r="H2" s="187"/>
       <c r="I2" s="185" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J2" s="186"/>
       <c r="K2" s="187"/>
       <c r="L2" s="185" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M2" s="186"/>
       <c r="N2" s="187"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="9">
         <v>50160000</v>
@@ -14126,7 +16371,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="9">
         <v>4200000</v>
@@ -14171,7 +16416,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="9">
         <v>3121131</v>
@@ -14216,7 +16461,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="9">
         <v>8602825</v>
@@ -14261,7 +16506,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="9">
         <v>5479149</v>
@@ -14306,7 +16551,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="9">
         <v>2775545</v>
@@ -14351,7 +16596,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="9">
         <v>5293460</v>
@@ -14396,7 +16641,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="23">
         <v>79632110</v>
@@ -14441,7 +16686,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="7">
         <v>250000</v>
@@ -14483,7 +16728,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="9">
         <v>295289</v>
@@ -14525,7 +16770,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" s="9">
         <v>1802363</v>
@@ -14567,7 +16812,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" s="9">
         <v>2477135</v>
@@ -14609,7 +16854,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="9">
         <v>2477135</v>
@@ -14651,7 +16896,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="9">
         <v>4346702</v>
@@ -14693,7 +16938,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" s="28">
         <v>11648623</v>
@@ -14735,12 +16980,12 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D22" s="35">
         <f>SUM(D5:D9,D12:D17)</f>
@@ -14748,12 +16993,12 @@
       </c>
       <c r="E22" s="35"/>
       <c r="F22" s="37" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D23" s="36">
         <f>D10*SUM(D5:D7)/SUM(D4:D7)</f>
@@ -14761,12 +17006,12 @@
       </c>
       <c r="E23" s="36"/>
       <c r="F23" s="37" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D24" s="35">
         <f>SUM(D22:D23)</f>
@@ -14774,12 +17019,12 @@
       </c>
       <c r="E24" s="35"/>
       <c r="F24" s="37" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D25" s="5">
         <f>D24*10^6</f>
@@ -14787,25 +17032,25 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="37" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D26" s="5">
-        <f>D25*About!A49</f>
+        <f>D25*About!A48</f>
         <v>549760.10443936056</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="37" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -14821,6 +17066,839 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9A83FF-6D12-451D-B709-5F68973469C6}">
+  <dimension ref="A1:AE12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AE2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1">
+        <v>2021</v>
+      </c>
+      <c r="C1">
+        <v>2022</v>
+      </c>
+      <c r="D1">
+        <v>2023</v>
+      </c>
+      <c r="E1">
+        <v>2024</v>
+      </c>
+      <c r="F1">
+        <v>2025</v>
+      </c>
+      <c r="G1">
+        <v>2026</v>
+      </c>
+      <c r="H1">
+        <v>2027</v>
+      </c>
+      <c r="I1">
+        <v>2028</v>
+      </c>
+      <c r="J1">
+        <v>2029</v>
+      </c>
+      <c r="K1">
+        <v>2030</v>
+      </c>
+      <c r="L1">
+        <v>2031</v>
+      </c>
+      <c r="M1">
+        <v>2032</v>
+      </c>
+      <c r="N1">
+        <v>2033</v>
+      </c>
+      <c r="O1">
+        <v>2034</v>
+      </c>
+      <c r="P1">
+        <v>2035</v>
+      </c>
+      <c r="Q1">
+        <v>2036</v>
+      </c>
+      <c r="R1">
+        <v>2037</v>
+      </c>
+      <c r="S1">
+        <v>2038</v>
+      </c>
+      <c r="T1">
+        <v>2039</v>
+      </c>
+      <c r="U1">
+        <v>2040</v>
+      </c>
+      <c r="V1">
+        <v>2041</v>
+      </c>
+      <c r="W1">
+        <v>2042</v>
+      </c>
+      <c r="X1">
+        <v>2043</v>
+      </c>
+      <c r="Y1">
+        <v>2044</v>
+      </c>
+      <c r="Z1">
+        <v>2045</v>
+      </c>
+      <c r="AA1">
+        <v>2046</v>
+      </c>
+      <c r="AB1">
+        <v>2047</v>
+      </c>
+      <c r="AC1">
+        <v>2048</v>
+      </c>
+      <c r="AD1">
+        <v>2049</v>
+      </c>
+      <c r="AE1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2">
+        <v>272875</v>
+      </c>
+      <c r="C2">
+        <v>306692</v>
+      </c>
+      <c r="D2">
+        <v>303546</v>
+      </c>
+      <c r="E2">
+        <v>277345</v>
+      </c>
+      <c r="F2">
+        <v>256728</v>
+      </c>
+      <c r="G2">
+        <v>240275</v>
+      </c>
+      <c r="H2">
+        <v>226464</v>
+      </c>
+      <c r="I2">
+        <v>214618</v>
+      </c>
+      <c r="J2">
+        <v>204553</v>
+      </c>
+      <c r="K2">
+        <v>196075</v>
+      </c>
+      <c r="L2">
+        <v>188655</v>
+      </c>
+      <c r="M2">
+        <v>182183</v>
+      </c>
+      <c r="N2">
+        <v>176401</v>
+      </c>
+      <c r="O2">
+        <v>171611</v>
+      </c>
+      <c r="P2">
+        <v>167430</v>
+      </c>
+      <c r="Q2">
+        <v>163809</v>
+      </c>
+      <c r="R2">
+        <v>160633</v>
+      </c>
+      <c r="S2">
+        <v>157780</v>
+      </c>
+      <c r="T2">
+        <v>155218</v>
+      </c>
+      <c r="U2">
+        <v>152921</v>
+      </c>
+      <c r="V2">
+        <v>150890</v>
+      </c>
+      <c r="W2">
+        <v>149018</v>
+      </c>
+      <c r="X2">
+        <v>147310</v>
+      </c>
+      <c r="Y2">
+        <v>145744</v>
+      </c>
+      <c r="Z2">
+        <v>144287</v>
+      </c>
+      <c r="AA2">
+        <v>142963</v>
+      </c>
+      <c r="AB2">
+        <v>141726</v>
+      </c>
+      <c r="AC2">
+        <v>140576</v>
+      </c>
+      <c r="AD2">
+        <v>139495</v>
+      </c>
+      <c r="AE2">
+        <v>138485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f t="shared" ref="C3:AE3" si="0">C9*$B$12*1000</f>
+        <v>306878.94936720002</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>303731.66899460001</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>279266.77737264393</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>243293.47578553518</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>233252.14840633751</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>223191.51259439666</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>213109.23426421883</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>203002.58732914092</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>192868.36780069349</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>189356.03464602598</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>185846.97839553715</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>182341.32671366737</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>178839.21398365742</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>175340.78175544157</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>171846.17922985621</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>168355.56378264303</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>164869.10153211665</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>161386.96795480166</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>157909.34855383474</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>154436.43958548567</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>150968.44884977813</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>147505.59655190937</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="0"/>
+        <v>144048.11624197359</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
+        <v>140596.25584142513</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="0"/>
+        <v>137150.27876576502</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="0"/>
+        <v>133710.46515414325</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="0"/>
+        <v>130277.11321794621</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="0"/>
+        <v>126850.54072202249</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" si="0"/>
+        <v>123431.08661402132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5">
+        <v>2021</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5">
+        <v>2023</v>
+      </c>
+      <c r="E5">
+        <v>2024</v>
+      </c>
+      <c r="F5">
+        <v>2025</v>
+      </c>
+      <c r="G5">
+        <v>2026</v>
+      </c>
+      <c r="H5">
+        <v>2027</v>
+      </c>
+      <c r="I5">
+        <v>2028</v>
+      </c>
+      <c r="J5">
+        <v>2029</v>
+      </c>
+      <c r="K5">
+        <v>2030</v>
+      </c>
+      <c r="L5">
+        <v>2031</v>
+      </c>
+      <c r="M5">
+        <v>2032</v>
+      </c>
+      <c r="N5">
+        <v>2033</v>
+      </c>
+      <c r="O5">
+        <v>2034</v>
+      </c>
+      <c r="P5">
+        <v>2035</v>
+      </c>
+      <c r="Q5">
+        <v>2036</v>
+      </c>
+      <c r="R5">
+        <v>2037</v>
+      </c>
+      <c r="S5">
+        <v>2038</v>
+      </c>
+      <c r="T5">
+        <v>2039</v>
+      </c>
+      <c r="U5">
+        <v>2040</v>
+      </c>
+      <c r="V5">
+        <v>2041</v>
+      </c>
+      <c r="W5">
+        <v>2042</v>
+      </c>
+      <c r="X5">
+        <v>2043</v>
+      </c>
+      <c r="Y5">
+        <v>2044</v>
+      </c>
+      <c r="Z5">
+        <v>2045</v>
+      </c>
+      <c r="AA5">
+        <v>2046</v>
+      </c>
+      <c r="AB5">
+        <v>2047</v>
+      </c>
+      <c r="AC5">
+        <v>2048</v>
+      </c>
+      <c r="AD5">
+        <v>2049</v>
+      </c>
+      <c r="AE5">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6">
+        <v>253384</v>
+      </c>
+      <c r="C6">
+        <v>284786</v>
+      </c>
+      <c r="D6">
+        <v>281865</v>
+      </c>
+      <c r="E6">
+        <v>272120</v>
+      </c>
+      <c r="F6">
+        <v>244268</v>
+      </c>
+      <c r="G6">
+        <v>245045</v>
+      </c>
+      <c r="H6">
+        <v>245897</v>
+      </c>
+      <c r="I6">
+        <v>246831</v>
+      </c>
+      <c r="J6">
+        <v>247860</v>
+      </c>
+      <c r="K6">
+        <v>248994</v>
+      </c>
+      <c r="L6">
+        <v>247304</v>
+      </c>
+      <c r="M6">
+        <v>245600</v>
+      </c>
+      <c r="N6">
+        <v>243884</v>
+      </c>
+      <c r="O6">
+        <v>242154</v>
+      </c>
+      <c r="P6">
+        <v>240409</v>
+      </c>
+      <c r="Q6">
+        <v>238650</v>
+      </c>
+      <c r="R6">
+        <v>236876</v>
+      </c>
+      <c r="S6">
+        <v>235085</v>
+      </c>
+      <c r="T6">
+        <v>233278</v>
+      </c>
+      <c r="U6">
+        <v>231454</v>
+      </c>
+      <c r="V6">
+        <v>229611</v>
+      </c>
+      <c r="W6">
+        <v>227750</v>
+      </c>
+      <c r="X6">
+        <v>225869</v>
+      </c>
+      <c r="Y6">
+        <v>223967</v>
+      </c>
+      <c r="Z6">
+        <v>222043</v>
+      </c>
+      <c r="AA6">
+        <v>220097</v>
+      </c>
+      <c r="AB6">
+        <v>218127</v>
+      </c>
+      <c r="AC6">
+        <v>216133</v>
+      </c>
+      <c r="AD6">
+        <v>214112</v>
+      </c>
+      <c r="AE6">
+        <v>212064</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f t="shared" ref="C7:AE7" si="1">C10*$B$12*1000</f>
+        <v>284959.40253119997</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>282036.92402159999</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>272286.05370173522</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>244417.06594404427</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>245194.69990340629</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>246046.6784058107</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>246981.98853590409</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>248011.12672651189</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>249146.42950757674</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>247454.58509336127</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>245750.12339699775</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>244032.5528635988</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>242301.35606843285</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>240555.98799237184</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>238795.87415751003</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>237020.40860956014</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>235228.9517321249</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>233420.82787626804</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="1"/>
+        <v>231595.32278692271</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>229751.68080551774</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="1"/>
+        <v>227889.10182579816</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="1"/>
+        <v>226006.73797704489</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="1"/>
+        <v>224103.69000579341</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="1"/>
+        <v>222179.00332357589</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="1"/>
+        <v>220231.66368416525</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="1"/>
+        <v>218260.59244915689</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="1"/>
+        <v>216264.64139541212</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="1"/>
+        <v>214242.58701179549</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="1"/>
+        <v>212193.12422562522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9">
+        <v>390.92859792000002</v>
+      </c>
+      <c r="D9">
+        <v>386.91932356000001</v>
+      </c>
+      <c r="E9">
+        <v>355.75385652566109</v>
+      </c>
+      <c r="F9">
+        <v>309.92799463125499</v>
+      </c>
+      <c r="G9">
+        <v>297.13649478514333</v>
+      </c>
+      <c r="H9">
+        <v>284.32039820942248</v>
+      </c>
+      <c r="I9">
+        <v>271.47673154677557</v>
+      </c>
+      <c r="J9">
+        <v>258.60202207533877</v>
+      </c>
+      <c r="K9">
+        <v>245.69218828113821</v>
+      </c>
+      <c r="L9">
+        <v>241.2178785299694</v>
+      </c>
+      <c r="M9">
+        <v>236.74774317902819</v>
+      </c>
+      <c r="N9">
+        <v>232.281944858175</v>
+      </c>
+      <c r="O9">
+        <v>227.82065475625149</v>
+      </c>
+      <c r="P9">
+        <v>223.3640531916453</v>
+      </c>
+      <c r="Q9">
+        <v>218.91233022911618</v>
+      </c>
+      <c r="R9">
+        <v>214.46568634731594</v>
+      </c>
+      <c r="S9">
+        <v>210.02433316193202</v>
+      </c>
+      <c r="T9">
+        <v>205.5884942099384</v>
+      </c>
+      <c r="U9">
+        <v>201.15840580106337</v>
+      </c>
+      <c r="V9">
+        <v>196.73431794329383</v>
+      </c>
+      <c r="W9">
+        <v>192.31649535003584</v>
+      </c>
+      <c r="X9">
+        <v>187.90521853746415</v>
+      </c>
+      <c r="Y9">
+        <v>183.50078502162239</v>
+      </c>
+      <c r="Z9">
+        <v>179.10351062601924</v>
+      </c>
+      <c r="AA9">
+        <v>174.71373091180257</v>
+      </c>
+      <c r="AB9">
+        <v>170.33180274413155</v>
+      </c>
+      <c r="AC9">
+        <v>165.95810601012255</v>
+      </c>
+      <c r="AD9">
+        <v>161.59304550576113</v>
+      </c>
+      <c r="AE9">
+        <v>157.23705301149212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10">
+        <v>363.00560831999996</v>
+      </c>
+      <c r="D10">
+        <v>359.28270576</v>
+      </c>
+      <c r="E10">
+        <v>346.86121490666903</v>
+      </c>
+      <c r="F10">
+        <v>311.35931967394174</v>
+      </c>
+      <c r="G10">
+        <v>312.34993618268317</v>
+      </c>
+      <c r="H10">
+        <v>313.43525911568241</v>
+      </c>
+      <c r="I10">
+        <v>314.62673698841286</v>
+      </c>
+      <c r="J10">
+        <v>315.93774105288139</v>
+      </c>
+      <c r="K10">
+        <v>317.38398663385573</v>
+      </c>
+      <c r="L10">
+        <v>315.22877081956847</v>
+      </c>
+      <c r="M10">
+        <v>313.05748203439202</v>
+      </c>
+      <c r="N10">
+        <v>310.86949409375643</v>
+      </c>
+      <c r="O10">
+        <v>308.66414785787623</v>
+      </c>
+      <c r="P10">
+        <v>306.44074903486859</v>
+      </c>
+      <c r="Q10">
+        <v>304.19856580574526</v>
+      </c>
+      <c r="R10">
+        <v>301.93682625421673</v>
+      </c>
+      <c r="S10">
+        <v>299.65471558232468</v>
+      </c>
+      <c r="T10">
+        <v>297.35137309078732</v>
+      </c>
+      <c r="U10">
+        <v>295.02588890053846</v>
+      </c>
+      <c r="V10">
+        <v>292.67730038919456</v>
+      </c>
+      <c r="W10">
+        <v>290.30458831311864</v>
+      </c>
+      <c r="X10">
+        <v>287.90667258222277</v>
+      </c>
+      <c r="Y10">
+        <v>285.48240765069221</v>
+      </c>
+      <c r="Z10">
+        <v>283.03057748226229</v>
+      </c>
+      <c r="AA10">
+        <v>280.54989004352262</v>
+      </c>
+      <c r="AB10">
+        <v>278.0389712728113</v>
+      </c>
+      <c r="AC10">
+        <v>275.49635846549313</v>
+      </c>
+      <c r="AD10">
+        <v>272.92049300865665</v>
+      </c>
+      <c r="AE10">
+        <v>270.30971238933148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12">
+        <v>0.78500000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF003399"/>
@@ -14843,7 +17921,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -14851,7 +17929,7 @@
         <v>2021</v>
       </c>
       <c r="B2" s="5">
-        <f>'NREL ATB 2024'!F20*1000*About!A52</f>
+        <f>'NREL ATB 2024'!F20*1000*About!A51</f>
         <v>272875.18454364559</v>
       </c>
       <c r="E2" s="5"/>
@@ -14862,7 +17940,7 @@
         <v>2022</v>
       </c>
       <c r="B3" s="5">
-        <f>'NREL ATB 2024'!G20*1000*cpi_2022_to_2021</f>
+        <f>'NREL ATB 2024'!G20*1000*cpi_2022_to_2012</f>
         <v>306691.70357876847</v>
       </c>
       <c r="E3" s="5"/>
@@ -14872,7 +17950,7 @@
         <v>2023</v>
       </c>
       <c r="B4" s="5">
-        <f>'NREL ATB 2024'!H20*1000*cpi_2022_to_2021</f>
+        <f>'NREL ATB 2024'!H20*1000*cpi_2022_to_2012</f>
         <v>303546.34355618269</v>
       </c>
     </row>
@@ -15097,15 +18175,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87094533-1E2E-4CB1-BEF0-251B882C2D5B}">
   <sheetPr>
     <tabColor rgb="FF003399"/>
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15128,8 +18206,8 @@
         <v>2021</v>
       </c>
       <c r="B2" s="5">
-        <f>'NREL ATB 2024'!F26*1000*cpi_2022_to_2021</f>
-        <v>234609.28624090937</v>
+        <f>'NREL ATB 2024'!F26*1000*About!A51</f>
+        <v>253384.43615467878</v>
       </c>
       <c r="G2" s="5"/>
     </row>
@@ -15138,7 +18216,7 @@
         <v>2022</v>
       </c>
       <c r="B3" s="5">
-        <f>'NREL ATB 2024'!G26*1000*cpi_2022_to_2021</f>
+        <f>INDEX('NREL ATB 2024'!$G$26:$AI$26,MATCH('BCpUC-power'!A3,'NREL ATB 2024'!$G$24:$AI$24,0))*1000*cpi_2022_to_2012</f>
         <v>284785.53121122846</v>
       </c>
     </row>
@@ -15147,8 +18225,8 @@
         <v>2023</v>
       </c>
       <c r="B4" s="5">
-        <f>'NREL ATB 2024'!H26*1000*About!A52</f>
-        <v>304421.72028734331</v>
+        <f>INDEX('NREL ATB 2024'!$G$26:$AI$26,MATCH('BCpUC-power'!A4,'NREL ATB 2024'!$G$24:$AI$24,0))*1000*cpi_2022_to_2012</f>
+        <v>281864.83588615071</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -15156,7 +18234,8 @@
         <v>2024</v>
       </c>
       <c r="B5" s="5">
-        <v>0</v>
+        <f>INDEX('NREL ATB 2024'!$G$26:$AI$26,MATCH('BCpUC-power'!A5,'NREL ATB 2024'!$G$24:$AI$24,0))*1000*cpi_2022_to_2012</f>
+        <v>272119.91517411894</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -15164,7 +18243,8 @@
         <v>2025</v>
       </c>
       <c r="B6" s="5">
-        <v>0</v>
+        <f>INDEX('NREL ATB 2024'!$G$26:$AI$26,MATCH('BCpUC-power'!A6,'NREL ATB 2024'!$G$24:$AI$24,0))*1000*cpi_2022_to_2012</f>
+        <v>244267.93200601047</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -15172,7 +18252,8 @@
         <v>2026</v>
       </c>
       <c r="B7" s="5">
-        <v>0</v>
+        <f>INDEX('NREL ATB 2024'!$G$26:$AI$26,MATCH('BCpUC-power'!A7,'NREL ATB 2024'!$G$24:$AI$24,0))*1000*cpi_2022_to_2012</f>
+        <v>245045.09148289612</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -15180,7 +18261,8 @@
         <v>2027</v>
       </c>
       <c r="B8" s="5">
-        <v>0</v>
+        <f>INDEX('NREL ATB 2024'!$G$26:$AI$26,MATCH('BCpUC-power'!A8,'NREL ATB 2024'!$G$24:$AI$24,0))*1000*cpi_2022_to_2012</f>
+        <v>245896.5501406297</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -15188,7 +18270,8 @@
         <v>2028</v>
       </c>
       <c r="B9" s="5">
-        <v>0</v>
+        <f>INDEX('NREL ATB 2024'!$G$26:$AI$26,MATCH('BCpUC-power'!A9,'NREL ATB 2024'!$G$24:$AI$24,0))*1000*cpi_2022_to_2012</f>
+        <v>246831.28958028281</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -15196,7 +18279,8 @@
         <v>2029</v>
       </c>
       <c r="B10" s="5">
-        <v>0</v>
+        <f>INDEX('NREL ATB 2024'!$G$26:$AI$26,MATCH('BCpUC-power'!A10,'NREL ATB 2024'!$G$24:$AI$24,0))*1000*cpi_2022_to_2012</f>
+        <v>247859.79983015926</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -15204,7 +18288,8 @@
         <v>2030</v>
       </c>
       <c r="B11" s="5">
-        <v>0</v>
+        <f>INDEX('NREL ATB 2024'!$G$26:$AI$26,MATCH('BCpUC-power'!A11,'NREL ATB 2024'!$G$24:$AI$24,0))*1000*cpi_2022_to_2012</f>
+        <v>248994.40989292334</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -15212,7 +18297,8 @@
         <v>2031</v>
       </c>
       <c r="B12" s="5">
-        <v>0</v>
+        <f>INDEX('NREL ATB 2024'!$G$26:$AI$26,MATCH('BCpUC-power'!A12,'NREL ATB 2024'!$G$24:$AI$24,0))*1000*cpi_2022_to_2012</f>
+        <v>247303.59777741029</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -15220,7 +18306,8 @@
         <v>2032</v>
       </c>
       <c r="B13" s="5">
-        <v>0</v>
+        <f>INDEX('NREL ATB 2024'!$G$26:$AI$26,MATCH('BCpUC-power'!A13,'NREL ATB 2024'!$G$24:$AI$24,0))*1000*cpi_2022_to_2012</f>
+        <v>245600.17607833183</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -15228,7 +18315,8 @@
         <v>2033</v>
       </c>
       <c r="B14" s="5">
-        <v>0</v>
+        <f>INDEX('NREL ATB 2024'!$G$26:$AI$26,MATCH('BCpUC-power'!A14,'NREL ATB 2024'!$G$24:$AI$24,0))*1000*cpi_2022_to_2012</f>
+        <v>243883.65354072856</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -15236,7 +18324,8 @@
         <v>2034</v>
       </c>
       <c r="B15" s="5">
-        <v>0</v>
+        <f>INDEX('NREL ATB 2024'!$G$26:$AI$26,MATCH('BCpUC-power'!A15,'NREL ATB 2024'!$G$24:$AI$24,0))*1000*cpi_2022_to_2012</f>
+        <v>242153.5130555816</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -15244,7 +18333,8 @@
         <v>2035</v>
       </c>
       <c r="B16" s="5">
-        <v>0</v>
+        <f>INDEX('NREL ATB 2024'!$G$26:$AI$26,MATCH('BCpUC-power'!A16,'NREL ATB 2024'!$G$24:$AI$24,0))*1000*cpi_2022_to_2012</f>
+        <v>240409.20993631281</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -15252,7 +18342,8 @@
         <v>2036</v>
       </c>
       <c r="B17" s="5">
-        <v>0</v>
+        <f>INDEX('NREL ATB 2024'!$G$26:$AI$26,MATCH('BCpUC-power'!A17,'NREL ATB 2024'!$G$24:$AI$24,0))*1000*cpi_2022_to_2012</f>
+        <v>238650.17005554074</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -15260,7 +18351,8 @@
         <v>2037</v>
       </c>
       <c r="B18" s="5">
-        <v>0</v>
+        <f>INDEX('NREL ATB 2024'!$G$26:$AI$26,MATCH('BCpUC-power'!A18,'NREL ATB 2024'!$G$24:$AI$24,0))*1000*cpi_2022_to_2012</f>
+        <v>236875.78782870833</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -15268,7 +18360,8 @@
         <v>2038</v>
       </c>
       <c r="B19" s="5">
-        <v>0</v>
+        <f>INDEX('NREL ATB 2024'!$G$26:$AI$26,MATCH('BCpUC-power'!A19,'NREL ATB 2024'!$G$24:$AI$24,0))*1000*cpi_2022_to_2012</f>
+        <v>235085.42402968768</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -15276,7 +18369,8 @@
         <v>2039</v>
       </c>
       <c r="B20" s="5">
-        <v>0</v>
+        <f>INDEX('NREL ATB 2024'!$G$26:$AI$26,MATCH('BCpUC-power'!A20,'NREL ATB 2024'!$G$24:$AI$24,0))*1000*cpi_2022_to_2012</f>
+        <v>233278.40342179779</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -15284,7 +18378,8 @@
         <v>2040</v>
       </c>
       <c r="B21" s="5">
-        <v>0</v>
+        <f>INDEX('NREL ATB 2024'!$G$26:$AI$26,MATCH('BCpUC-power'!A21,'NREL ATB 2024'!$G$24:$AI$24,0))*1000*cpi_2022_to_2012</f>
+        <v>231454.01218578266</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -15292,7 +18387,8 @@
         <v>2041</v>
       </c>
       <c r="B22" s="5">
-        <v>0</v>
+        <f>INDEX('NREL ATB 2024'!$G$26:$AI$26,MATCH('BCpUC-power'!A22,'NREL ATB 2024'!$G$24:$AI$24,0))*1000*cpi_2022_to_2012</f>
+        <v>229611.49512414529</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -15300,7 +18396,8 @@
         <v>2042</v>
       </c>
       <c r="B23" s="5">
-        <v>0</v>
+        <f>INDEX('NREL ATB 2024'!$G$26:$AI$26,MATCH('BCpUC-power'!A23,'NREL ATB 2024'!$G$24:$AI$24,0))*1000*cpi_2022_to_2012</f>
+        <v>227750.05261882479</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -15308,7 +18405,8 @@
         <v>2043</v>
       </c>
       <c r="B24" s="5">
-        <v>0</v>
+        <f>INDEX('NREL ATB 2024'!$G$26:$AI$26,MATCH('BCpUC-power'!A24,'NREL ATB 2024'!$G$24:$AI$24,0))*1000*cpi_2022_to_2012</f>
+        <v>225868.83731644039</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -15316,7 +18414,8 @@
         <v>2044</v>
       </c>
       <c r="B25" s="5">
-        <v>0</v>
+        <f>INDEX('NREL ATB 2024'!$G$26:$AI$26,MATCH('BCpUC-power'!A25,'NREL ATB 2024'!$G$24:$AI$24,0))*1000*cpi_2022_to_2012</f>
+        <v>223966.95051221756</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -15324,7 +18423,8 @@
         <v>2045</v>
       </c>
       <c r="B26" s="5">
-        <v>0</v>
+        <f>INDEX('NREL ATB 2024'!$G$26:$AI$26,MATCH('BCpUC-power'!A26,'NREL ATB 2024'!$G$24:$AI$24,0))*1000*cpi_2022_to_2012</f>
+        <v>222043.43820014191</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -15332,7 +18432,8 @@
         <v>2046</v>
       </c>
       <c r="B27" s="5">
-        <v>0</v>
+        <f>INDEX('NREL ATB 2024'!$G$26:$AI$26,MATCH('BCpUC-power'!A27,'NREL ATB 2024'!$G$24:$AI$24,0))*1000*cpi_2022_to_2012</f>
+        <v>220097.2867528405</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -15340,7 +18441,8 @@
         <v>2047</v>
       </c>
       <c r="B28" s="5">
-        <v>0</v>
+        <f>INDEX('NREL ATB 2024'!$G$26:$AI$26,MATCH('BCpUC-power'!A28,'NREL ATB 2024'!$G$24:$AI$24,0))*1000*cpi_2022_to_2012</f>
+        <v>218127.41819005259</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -15348,7 +18450,8 @@
         <v>2048</v>
       </c>
       <c r="B29" s="5">
-        <v>0</v>
+        <f>INDEX('NREL ATB 2024'!$G$26:$AI$26,MATCH('BCpUC-power'!A29,'NREL ATB 2024'!$G$24:$AI$24,0))*1000*cpi_2022_to_2012</f>
+        <v>216132.68498924136</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -15356,7 +18459,8 @@
         <v>2049</v>
       </c>
       <c r="B30" s="5">
-        <v>0</v>
+        <f>INDEX('NREL ATB 2024'!$G$26:$AI$26,MATCH('BCpUC-power'!A30,'NREL ATB 2024'!$G$24:$AI$24,0))*1000*cpi_2022_to_2012</f>
+        <v>214111.864385811</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -15364,7 +18468,8 @@
         <v>2050</v>
       </c>
       <c r="B31" s="5">
-        <v>0</v>
+        <f>INDEX('NREL ATB 2024'!$G$26:$AI$26,MATCH('BCpUC-power'!A31,'NREL ATB 2024'!$G$24:$AI$24,0))*1000*cpi_2022_to_2012</f>
+        <v>212063.65210338513</v>
       </c>
     </row>
   </sheetData>
@@ -15372,7 +18477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2600C7A-0160-47B2-B089-93F8CBD71882}">
   <sheetPr>
     <tabColor rgb="FF003399"/>
@@ -15380,7 +18485,7 @@
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15390,19 +18495,18 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B2" s="36">
-        <f>'Balance of System Calculations'!$D$26/('NREL ATB 2024'!G47*1000)</f>
-        <v>0.34635968607339007</v>
+        <v>0.2</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>

--- a/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
+++ b/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\AL\elec\BCpUC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\BCpUC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D0E1C4D-051B-4050-BF8E-55A97AFA57B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999D7867-60B9-40C5-9EDF-D7A44AA77B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="12645" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="151">
   <si>
     <t>Year</t>
   </si>
@@ -512,9 +512,6 @@
   </si>
   <si>
     <t>Battery Energy Cost per Unit Capacity : NDC</t>
-  </si>
-  <si>
-    <t>Alabama</t>
   </si>
 </sst>
 </file>
@@ -1658,7 +1655,7 @@
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1971,7 +1968,6 @@
     <xf numFmtId="5" fontId="10" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="10" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4614,7 +4610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A44" sqref="A44:XFD49"/>
@@ -4626,23 +4622,17 @@
     <col min="2" max="2" width="67.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="142">
-        <v>45531</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4650,57 +4640,57 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>2014</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>2013</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -4921,19 +4911,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:108" s="40" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="165" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
       <c r="M1" s="3" t="s">
         <v>68</v>
       </c>
@@ -5063,12 +5053,12 @@
     </row>
     <row r="4" spans="1:108" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="44"/>
-      <c r="L4" s="167" t="s">
+      <c r="L4" s="166" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:108" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L5" s="168"/>
+      <c r="L5" s="167"/>
     </row>
     <row r="6" spans="1:108" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H6" s="45"/>
@@ -5100,23 +5090,23 @@
       <c r="B7" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="162" t="s">
+      <c r="C7" s="161" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="162"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="162"/>
-      <c r="O7" s="162"/>
-      <c r="P7" s="162"/>
-      <c r="Q7" s="162"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
+      <c r="L7" s="161"/>
+      <c r="M7" s="161"/>
+      <c r="N7" s="161"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="161"/>
       <c r="R7" s="50"/>
       <c r="S7" s="50"/>
       <c r="T7" s="50"/>
@@ -5134,43 +5124,43 @@
     </row>
     <row r="9" spans="1:108" s="40" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9"/>
-      <c r="B9" s="169" t="s">
+      <c r="B9" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="170" t="s">
+      <c r="D9" s="169" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="171"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="173">
+      <c r="E9" s="170"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="172">
         <v>2021</v>
       </c>
-      <c r="H9" s="174"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="175"/>
-      <c r="L9" s="175"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="173"/>
+      <c r="J9" s="173"/>
+      <c r="K9" s="174"/>
+      <c r="L9" s="174"/>
     </row>
     <row r="10" spans="1:108" s="40" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="169"/>
+      <c r="B10" s="168"/>
       <c r="D10" s="53" t="s">
         <v>76</v>
       </c>
       <c r="J10" s="52"/>
     </row>
     <row r="11" spans="1:108" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="169"/>
-      <c r="D11" s="176" t="s">
+      <c r="B11" s="168"/>
+      <c r="D11" s="175" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="177"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="177"/>
-      <c r="J11" s="177"/>
-      <c r="K11" s="177"/>
-      <c r="L11" s="177"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="176"/>
+      <c r="J11" s="176"/>
+      <c r="K11" s="176"/>
+      <c r="L11" s="176"/>
       <c r="W11" s="54"/>
       <c r="X11" s="55"/>
       <c r="Y11" s="55"/>
@@ -5178,18 +5168,18 @@
       <c r="AA11" s="55"/>
     </row>
     <row r="12" spans="1:108" s="40" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="169"/>
-      <c r="D12" s="178" t="s">
+      <c r="B12" s="168"/>
+      <c r="D12" s="177" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="179"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="179"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="179"/>
-      <c r="J12" s="179"/>
-      <c r="K12" s="179"/>
-      <c r="L12" s="180"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="178"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="178"/>
+      <c r="J12" s="178"/>
+      <c r="K12" s="178"/>
+      <c r="L12" s="179"/>
       <c r="M12" s="56"/>
       <c r="W12" s="54"/>
       <c r="X12" s="55"/>
@@ -5198,16 +5188,16 @@
       <c r="AA12" s="55"/>
     </row>
     <row r="13" spans="1:108" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="169"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="182"/>
-      <c r="F13" s="182"/>
-      <c r="G13" s="182"/>
-      <c r="H13" s="182"/>
-      <c r="I13" s="182"/>
-      <c r="J13" s="182"/>
-      <c r="K13" s="182"/>
-      <c r="L13" s="183"/>
+      <c r="B13" s="168"/>
+      <c r="D13" s="180"/>
+      <c r="E13" s="181"/>
+      <c r="F13" s="181"/>
+      <c r="G13" s="181"/>
+      <c r="H13" s="181"/>
+      <c r="I13" s="181"/>
+      <c r="J13" s="181"/>
+      <c r="K13" s="181"/>
+      <c r="L13" s="182"/>
       <c r="W13" s="54"/>
       <c r="X13" s="55"/>
       <c r="Y13" s="55"/>
@@ -5215,49 +5205,49 @@
       <c r="AA13" s="55"/>
     </row>
     <row r="14" spans="1:108" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="169"/>
+      <c r="B14" s="168"/>
     </row>
     <row r="15" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="B15" s="169"/>
-      <c r="C15" s="184" t="s">
+      <c r="B15" s="168"/>
+      <c r="C15" s="183" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="184"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="184"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="184"/>
-      <c r="J15" s="184"/>
-      <c r="K15" s="184"/>
-      <c r="L15" s="184"/>
-      <c r="M15" s="184"/>
-      <c r="N15" s="184"/>
-      <c r="O15" s="184"/>
-      <c r="P15" s="184"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="183"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="183"/>
+      <c r="I15" s="183"/>
+      <c r="J15" s="183"/>
+      <c r="K15" s="183"/>
+      <c r="L15" s="183"/>
+      <c r="M15" s="183"/>
+      <c r="N15" s="183"/>
+      <c r="O15" s="183"/>
+      <c r="P15" s="183"/>
       <c r="Q15" s="57"/>
     </row>
     <row r="16" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="B16" s="169"/>
-      <c r="C16" s="184"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="184"/>
-      <c r="F16" s="184"/>
-      <c r="G16" s="184"/>
-      <c r="H16" s="184"/>
-      <c r="I16" s="184"/>
-      <c r="J16" s="184"/>
-      <c r="K16" s="184"/>
-      <c r="L16" s="184"/>
-      <c r="M16" s="184"/>
-      <c r="N16" s="184"/>
-      <c r="O16" s="184"/>
-      <c r="P16" s="184"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="183"/>
+      <c r="D16" s="183"/>
+      <c r="E16" s="183"/>
+      <c r="F16" s="183"/>
+      <c r="G16" s="183"/>
+      <c r="H16" s="183"/>
+      <c r="I16" s="183"/>
+      <c r="J16" s="183"/>
+      <c r="K16" s="183"/>
+      <c r="L16" s="183"/>
+      <c r="M16" s="183"/>
+      <c r="N16" s="183"/>
+      <c r="O16" s="183"/>
+      <c r="P16" s="183"/>
     </row>
     <row r="17" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="169"/>
+      <c r="B17" s="168"/>
       <c r="C17" s="58"/>
-      <c r="D17" s="159" t="s">
+      <c r="D17" s="158" t="s">
         <v>80</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -5265,9 +5255,9 @@
       </c>
     </row>
     <row r="18" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="169"/>
+      <c r="B18" s="168"/>
       <c r="C18" s="58"/>
-      <c r="D18" s="160"/>
+      <c r="D18" s="159"/>
       <c r="F18" s="1">
         <v>2021</v>
       </c>
@@ -5360,9 +5350,9 @@
       </c>
     </row>
     <row r="19" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="169"/>
+      <c r="B19" s="168"/>
       <c r="C19" s="58"/>
-      <c r="D19" s="160"/>
+      <c r="D19" s="159"/>
       <c r="E19" t="s">
         <v>82</v>
       </c>
@@ -5458,9 +5448,9 @@
       </c>
     </row>
     <row r="20" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="169"/>
+      <c r="B20" s="168"/>
       <c r="C20" s="58"/>
-      <c r="D20" s="161"/>
+      <c r="D20" s="160"/>
       <c r="E20" t="s">
         <v>83</v>
       </c>
@@ -5556,9 +5546,9 @@
       </c>
     </row>
     <row r="21" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="169"/>
+      <c r="B21" s="168"/>
       <c r="C21" s="58"/>
-      <c r="D21" s="161"/>
+      <c r="D21" s="160"/>
       <c r="E21" t="s">
         <v>84</v>
       </c>
@@ -5654,9 +5644,9 @@
       </c>
     </row>
     <row r="22" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="169"/>
+      <c r="B22" s="168"/>
       <c r="C22" s="58"/>
-      <c r="D22" s="161"/>
+      <c r="D22" s="160"/>
       <c r="F22" s="60"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -5689,18 +5679,18 @@
       <c r="AI22" s="5"/>
     </row>
     <row r="23" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="169"/>
+      <c r="B23" s="168"/>
       <c r="C23" s="58"/>
-      <c r="D23" s="161"/>
+      <c r="D23" s="160"/>
       <c r="E23" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F23" s="60"/>
     </row>
     <row r="24" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="169"/>
+      <c r="B24" s="168"/>
       <c r="C24" s="58"/>
-      <c r="D24" s="161"/>
+      <c r="D24" s="160"/>
       <c r="F24" s="1">
         <v>2021</v>
       </c>
@@ -5793,9 +5783,9 @@
       </c>
     </row>
     <row r="25" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="169"/>
+      <c r="B25" s="168"/>
       <c r="C25" s="58"/>
-      <c r="D25" s="161"/>
+      <c r="D25" s="160"/>
       <c r="E25" t="s">
         <v>82</v>
       </c>
@@ -5891,9 +5881,9 @@
       </c>
     </row>
     <row r="26" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="169"/>
+      <c r="B26" s="168"/>
       <c r="C26" s="58"/>
-      <c r="D26" s="161"/>
+      <c r="D26" s="160"/>
       <c r="E26" t="s">
         <v>83</v>
       </c>
@@ -5989,9 +5979,9 @@
       </c>
     </row>
     <row r="27" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="169"/>
+      <c r="B27" s="168"/>
       <c r="C27" s="58"/>
-      <c r="D27" s="161"/>
+      <c r="D27" s="160"/>
       <c r="E27" t="s">
         <v>84</v>
       </c>
@@ -6087,7 +6077,7 @@
       </c>
     </row>
     <row r="28" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="169"/>
+      <c r="B28" s="168"/>
       <c r="C28" s="58"/>
       <c r="D28" s="58"/>
       <c r="G28" s="5"/>
@@ -6125,7 +6115,7 @@
       <c r="AM28" s="5"/>
     </row>
     <row r="29" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="169"/>
+      <c r="B29" s="168"/>
       <c r="C29" s="58"/>
       <c r="D29" s="58"/>
       <c r="E29" s="1" t="s">
@@ -6167,7 +6157,7 @@
       <c r="AM29" s="5"/>
     </row>
     <row r="30" spans="2:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="169"/>
+      <c r="B30" s="168"/>
       <c r="C30" s="58"/>
       <c r="D30" s="58"/>
       <c r="E30" s="1"/>
@@ -6207,9 +6197,9 @@
       <c r="AM30" s="5"/>
     </row>
     <row r="31" spans="2:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="169"/>
+      <c r="B31" s="168"/>
       <c r="C31" s="58"/>
-      <c r="D31" s="160" t="s">
+      <c r="D31" s="159" t="s">
         <v>87</v>
       </c>
       <c r="E31" s="61" t="s">
@@ -6259,9 +6249,9 @@
       <c r="AM31" s="5"/>
     </row>
     <row r="32" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="169"/>
+      <c r="B32" s="168"/>
       <c r="C32" s="58"/>
-      <c r="D32" s="160"/>
+      <c r="D32" s="159"/>
       <c r="E32" s="66" t="s">
         <v>93</v>
       </c>
@@ -6309,9 +6299,9 @@
       <c r="AM32" s="5"/>
     </row>
     <row r="33" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="169"/>
+      <c r="B33" s="168"/>
       <c r="C33" s="58"/>
-      <c r="D33" s="160"/>
+      <c r="D33" s="159"/>
       <c r="E33" s="69" t="s">
         <v>98</v>
       </c>
@@ -6359,9 +6349,9 @@
       <c r="AM33" s="5"/>
     </row>
     <row r="34" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="169"/>
+      <c r="B34" s="168"/>
       <c r="C34" s="58"/>
-      <c r="D34" s="160"/>
+      <c r="D34" s="159"/>
       <c r="E34" s="72" t="s">
         <v>100</v>
       </c>
@@ -6409,9 +6399,9 @@
       <c r="AM34" s="5"/>
     </row>
     <row r="35" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="169"/>
+      <c r="B35" s="168"/>
       <c r="C35" s="58"/>
-      <c r="D35" s="160"/>
+      <c r="D35" s="159"/>
       <c r="E35" s="69" t="s">
         <v>102</v>
       </c>
@@ -6459,9 +6449,9 @@
       <c r="AM35" s="5"/>
     </row>
     <row r="36" spans="2:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="169"/>
+      <c r="B36" s="168"/>
       <c r="C36" s="58"/>
-      <c r="D36" s="160"/>
+      <c r="D36" s="159"/>
       <c r="E36" s="75" t="s">
         <v>104</v>
       </c>
@@ -6548,23 +6538,23 @@
       <c r="AM37" s="5"/>
     </row>
     <row r="38" spans="2:74" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="162" t="s">
+      <c r="C38" s="161" t="s">
         <v>106</v>
       </c>
-      <c r="D38" s="162"/>
-      <c r="E38" s="162"/>
-      <c r="F38" s="162"/>
-      <c r="G38" s="162"/>
-      <c r="H38" s="162"/>
-      <c r="I38" s="162"/>
-      <c r="J38" s="162"/>
-      <c r="K38" s="162"/>
-      <c r="L38" s="162"/>
-      <c r="M38" s="162"/>
-      <c r="N38" s="162"/>
-      <c r="O38" s="162"/>
-      <c r="P38" s="162"/>
-      <c r="Q38" s="162"/>
+      <c r="D38" s="161"/>
+      <c r="E38" s="161"/>
+      <c r="F38" s="161"/>
+      <c r="G38" s="161"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="161"/>
+      <c r="J38" s="161"/>
+      <c r="K38" s="161"/>
+      <c r="L38" s="161"/>
+      <c r="M38" s="161"/>
+      <c r="N38" s="161"/>
+      <c r="O38" s="161"/>
+      <c r="P38" s="161"/>
+      <c r="Q38" s="161"/>
       <c r="R38" s="50"/>
       <c r="S38" s="50"/>
       <c r="T38" s="50"/>
@@ -6697,10 +6687,10 @@
       </c>
     </row>
     <row r="43" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="164" t="s">
+      <c r="B43" s="163" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="159" t="s">
+      <c r="D43" s="158" t="s">
         <v>109</v>
       </c>
       <c r="E43" s="79" t="s">
@@ -6802,8 +6792,8 @@
       </c>
     </row>
     <row r="44" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B44" s="164"/>
-      <c r="D44" s="160"/>
+      <c r="B44" s="163"/>
+      <c r="D44" s="159"/>
       <c r="E44" s="82" t="s">
         <v>93</v>
       </c>
@@ -6903,8 +6893,8 @@
       </c>
     </row>
     <row r="45" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B45" s="164"/>
-      <c r="D45" s="160"/>
+      <c r="B45" s="163"/>
+      <c r="D45" s="159"/>
       <c r="E45" s="83" t="s">
         <v>93</v>
       </c>
@@ -7004,8 +6994,8 @@
       </c>
     </row>
     <row r="46" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B46" s="164"/>
-      <c r="D46" s="161"/>
+      <c r="B46" s="163"/>
+      <c r="D46" s="160"/>
       <c r="E46" s="79" t="s">
         <v>98</v>
       </c>
@@ -7138,8 +7128,8 @@
       <c r="BV46" s="5"/>
     </row>
     <row r="47" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B47" s="164"/>
-      <c r="D47" s="161"/>
+      <c r="B47" s="163"/>
+      <c r="D47" s="160"/>
       <c r="E47" s="79" t="s">
         <v>98</v>
       </c>
@@ -7272,8 +7262,8 @@
       <c r="BV47" s="5"/>
     </row>
     <row r="48" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B48" s="164"/>
-      <c r="D48" s="161"/>
+      <c r="B48" s="163"/>
+      <c r="D48" s="160"/>
       <c r="E48" s="79" t="s">
         <v>98</v>
       </c>
@@ -7406,8 +7396,8 @@
       <c r="BV48" s="5"/>
     </row>
     <row r="49" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B49" s="164"/>
-      <c r="D49" s="161"/>
+      <c r="B49" s="163"/>
+      <c r="D49" s="160"/>
       <c r="E49" s="79" t="s">
         <v>100</v>
       </c>
@@ -7540,8 +7530,8 @@
       <c r="BV49" s="5"/>
     </row>
     <row r="50" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B50" s="164"/>
-      <c r="D50" s="161"/>
+      <c r="B50" s="163"/>
+      <c r="D50" s="160"/>
       <c r="E50" s="79" t="s">
         <v>100</v>
       </c>
@@ -7674,8 +7664,8 @@
       <c r="BV50" s="5"/>
     </row>
     <row r="51" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B51" s="164"/>
-      <c r="D51" s="161"/>
+      <c r="B51" s="163"/>
+      <c r="D51" s="160"/>
       <c r="E51" s="79" t="s">
         <v>100</v>
       </c>
@@ -7808,8 +7798,8 @@
       <c r="BV51" s="5"/>
     </row>
     <row r="52" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B52" s="164"/>
-      <c r="D52" s="161"/>
+      <c r="B52" s="163"/>
+      <c r="D52" s="160"/>
       <c r="E52" s="79" t="s">
         <v>102</v>
       </c>
@@ -7942,8 +7932,8 @@
       <c r="BV52" s="5"/>
     </row>
     <row r="53" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B53" s="164"/>
-      <c r="D53" s="161"/>
+      <c r="B53" s="163"/>
+      <c r="D53" s="160"/>
       <c r="E53" s="79" t="s">
         <v>102</v>
       </c>
@@ -8076,8 +8066,8 @@
       <c r="BV53" s="5"/>
     </row>
     <row r="54" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B54" s="164"/>
-      <c r="D54" s="161"/>
+      <c r="B54" s="163"/>
+      <c r="D54" s="160"/>
       <c r="E54" s="79" t="s">
         <v>102</v>
       </c>
@@ -8210,8 +8200,8 @@
       <c r="BV54" s="5"/>
     </row>
     <row r="55" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B55" s="164"/>
-      <c r="D55" s="161"/>
+      <c r="B55" s="163"/>
+      <c r="D55" s="160"/>
       <c r="E55" s="79" t="s">
         <v>104</v>
       </c>
@@ -8344,8 +8334,8 @@
       <c r="BV55" s="5"/>
     </row>
     <row r="56" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B56" s="164"/>
-      <c r="D56" s="161"/>
+      <c r="B56" s="163"/>
+      <c r="D56" s="160"/>
       <c r="E56" s="79" t="s">
         <v>104</v>
       </c>
@@ -8478,8 +8468,8 @@
       <c r="BV56" s="5"/>
     </row>
     <row r="57" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B57" s="164"/>
-      <c r="D57" s="161"/>
+      <c r="B57" s="163"/>
+      <c r="D57" s="160"/>
       <c r="E57" s="79" t="s">
         <v>104</v>
       </c>
@@ -8612,7 +8602,7 @@
       <c r="BV57" s="5"/>
     </row>
     <row r="58" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B58" s="164"/>
+      <c r="B58" s="163"/>
       <c r="D58" s="58"/>
       <c r="E58" s="82"/>
       <c r="F58" s="82"/>
@@ -8681,7 +8671,7 @@
       <c r="BV58" s="5"/>
     </row>
     <row r="59" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B59" s="164"/>
+      <c r="B59" s="163"/>
       <c r="D59" s="58"/>
       <c r="E59" s="82"/>
       <c r="F59" s="82"/>
@@ -8750,7 +8740,7 @@
       <c r="BV59" s="5"/>
     </row>
     <row r="60" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B60" s="164"/>
+      <c r="B60" s="163"/>
       <c r="D60" s="58"/>
       <c r="E60" s="82"/>
       <c r="F60" s="82"/>
@@ -8819,7 +8809,7 @@
       <c r="BV60" s="5"/>
     </row>
     <row r="61" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B61" s="164"/>
+      <c r="B61" s="163"/>
       <c r="D61" s="84"/>
       <c r="E61" s="82"/>
       <c r="F61" s="82"/>
@@ -8915,8 +8905,8 @@
       </c>
     </row>
     <row r="62" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B62" s="164"/>
-      <c r="D62" s="159" t="s">
+      <c r="B62" s="163"/>
+      <c r="D62" s="158" t="s">
         <v>110</v>
       </c>
       <c r="E62" s="79" t="s">
@@ -9018,8 +9008,8 @@
       </c>
     </row>
     <row r="63" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B63" s="164"/>
-      <c r="D63" s="160"/>
+      <c r="B63" s="163"/>
+      <c r="D63" s="159"/>
       <c r="E63" s="82" t="s">
         <v>93</v>
       </c>
@@ -9119,8 +9109,8 @@
       </c>
     </row>
     <row r="64" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B64" s="164"/>
-      <c r="D64" s="160"/>
+      <c r="B64" s="163"/>
+      <c r="D64" s="159"/>
       <c r="E64" s="83" t="s">
         <v>93</v>
       </c>
@@ -9220,8 +9210,8 @@
       </c>
     </row>
     <row r="65" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B65" s="164"/>
-      <c r="D65" s="161"/>
+      <c r="B65" s="163"/>
+      <c r="D65" s="160"/>
       <c r="E65" s="79" t="s">
         <v>98</v>
       </c>
@@ -9321,8 +9311,8 @@
       </c>
     </row>
     <row r="66" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B66" s="164"/>
-      <c r="D66" s="161"/>
+      <c r="B66" s="163"/>
+      <c r="D66" s="160"/>
       <c r="E66" s="79" t="s">
         <v>98</v>
       </c>
@@ -9422,8 +9412,8 @@
       </c>
     </row>
     <row r="67" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B67" s="164"/>
-      <c r="D67" s="161"/>
+      <c r="B67" s="163"/>
+      <c r="D67" s="160"/>
       <c r="E67" s="79" t="s">
         <v>98</v>
       </c>
@@ -9523,8 +9513,8 @@
       </c>
     </row>
     <row r="68" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B68" s="164"/>
-      <c r="D68" s="161"/>
+      <c r="B68" s="163"/>
+      <c r="D68" s="160"/>
       <c r="E68" s="79" t="s">
         <v>100</v>
       </c>
@@ -9624,8 +9614,8 @@
       </c>
     </row>
     <row r="69" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B69" s="164"/>
-      <c r="D69" s="161"/>
+      <c r="B69" s="163"/>
+      <c r="D69" s="160"/>
       <c r="E69" s="79" t="s">
         <v>100</v>
       </c>
@@ -9725,8 +9715,8 @@
       </c>
     </row>
     <row r="70" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B70" s="164"/>
-      <c r="D70" s="161"/>
+      <c r="B70" s="163"/>
+      <c r="D70" s="160"/>
       <c r="E70" s="79" t="s">
         <v>100</v>
       </c>
@@ -9826,8 +9816,8 @@
       </c>
     </row>
     <row r="71" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B71" s="164"/>
-      <c r="D71" s="161"/>
+      <c r="B71" s="163"/>
+      <c r="D71" s="160"/>
       <c r="E71" s="79" t="s">
         <v>102</v>
       </c>
@@ -9960,8 +9950,8 @@
       <c r="BV71" s="5"/>
     </row>
     <row r="72" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B72" s="164"/>
-      <c r="D72" s="161"/>
+      <c r="B72" s="163"/>
+      <c r="D72" s="160"/>
       <c r="E72" s="79" t="s">
         <v>102</v>
       </c>
@@ -10094,8 +10084,8 @@
       <c r="BV72" s="5"/>
     </row>
     <row r="73" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B73" s="164"/>
-      <c r="D73" s="161"/>
+      <c r="B73" s="163"/>
+      <c r="D73" s="160"/>
       <c r="E73" s="79" t="s">
         <v>102</v>
       </c>
@@ -10228,8 +10218,8 @@
       <c r="BV73" s="5"/>
     </row>
     <row r="74" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B74" s="164"/>
-      <c r="D74" s="161"/>
+      <c r="B74" s="163"/>
+      <c r="D74" s="160"/>
       <c r="E74" s="79" t="s">
         <v>104</v>
       </c>
@@ -10362,8 +10352,8 @@
       <c r="BV74" s="5"/>
     </row>
     <row r="75" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B75" s="164"/>
-      <c r="D75" s="161"/>
+      <c r="B75" s="163"/>
+      <c r="D75" s="160"/>
       <c r="E75" s="79" t="s">
         <v>104</v>
       </c>
@@ -10496,8 +10486,8 @@
       <c r="BV75" s="5"/>
     </row>
     <row r="76" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B76" s="164"/>
-      <c r="D76" s="161"/>
+      <c r="B76" s="163"/>
+      <c r="D76" s="160"/>
       <c r="E76" s="79" t="s">
         <v>104</v>
       </c>
@@ -10630,13 +10620,13 @@
       <c r="BV76" s="5"/>
     </row>
     <row r="77" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B77" s="164"/>
+      <c r="B77" s="163"/>
       <c r="D77" s="84"/>
       <c r="E77" s="82"/>
       <c r="F77" s="82"/>
     </row>
     <row r="78" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B78" s="164"/>
+      <c r="B78" s="163"/>
       <c r="D78" s="40"/>
       <c r="E78" s="85"/>
       <c r="F78" s="85"/>
@@ -10732,8 +10722,8 @@
       </c>
     </row>
     <row r="79" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B79" s="164"/>
-      <c r="D79" s="159" t="s">
+      <c r="B79" s="163"/>
+      <c r="D79" s="158" t="s">
         <v>111</v>
       </c>
       <c r="E79" s="79" t="s">
@@ -10835,8 +10825,8 @@
       <c r="AO79" s="1"/>
     </row>
     <row r="80" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B80" s="164"/>
-      <c r="D80" s="160"/>
+      <c r="B80" s="163"/>
+      <c r="D80" s="159"/>
       <c r="E80" s="82" t="s">
         <v>93</v>
       </c>
@@ -10936,8 +10926,8 @@
       <c r="AO80" s="1"/>
     </row>
     <row r="81" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B81" s="164"/>
-      <c r="D81" s="160"/>
+      <c r="B81" s="163"/>
+      <c r="D81" s="159"/>
       <c r="E81" s="83" t="s">
         <v>93</v>
       </c>
@@ -11037,8 +11027,8 @@
       <c r="AO81" s="1"/>
     </row>
     <row r="82" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B82" s="165"/>
-      <c r="D82" s="161"/>
+      <c r="B82" s="164"/>
+      <c r="D82" s="160"/>
       <c r="E82" s="79" t="s">
         <v>98</v>
       </c>
@@ -11137,8 +11127,8 @@
       </c>
     </row>
     <row r="83" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B83" s="165"/>
-      <c r="D83" s="161"/>
+      <c r="B83" s="164"/>
+      <c r="D83" s="160"/>
       <c r="E83" s="79" t="s">
         <v>98</v>
       </c>
@@ -11237,8 +11227,8 @@
       </c>
     </row>
     <row r="84" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B84" s="165"/>
-      <c r="D84" s="161"/>
+      <c r="B84" s="164"/>
+      <c r="D84" s="160"/>
       <c r="E84" s="79" t="s">
         <v>98</v>
       </c>
@@ -11339,8 +11329,8 @@
       <c r="AL84" s="5"/>
     </row>
     <row r="85" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B85" s="165"/>
-      <c r="D85" s="161"/>
+      <c r="B85" s="164"/>
+      <c r="D85" s="160"/>
       <c r="E85" s="79" t="s">
         <v>100</v>
       </c>
@@ -11441,8 +11431,8 @@
       <c r="AL85" s="5"/>
     </row>
     <row r="86" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B86" s="165"/>
-      <c r="D86" s="161"/>
+      <c r="B86" s="164"/>
+      <c r="D86" s="160"/>
       <c r="E86" s="79" t="s">
         <v>100</v>
       </c>
@@ -11543,8 +11533,8 @@
       <c r="AL86" s="5"/>
     </row>
     <row r="87" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B87" s="165"/>
-      <c r="D87" s="161"/>
+      <c r="B87" s="164"/>
+      <c r="D87" s="160"/>
       <c r="E87" s="79" t="s">
         <v>100</v>
       </c>
@@ -11645,8 +11635,8 @@
       <c r="AL87" s="5"/>
     </row>
     <row r="88" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B88" s="165"/>
-      <c r="D88" s="161"/>
+      <c r="B88" s="164"/>
+      <c r="D88" s="160"/>
       <c r="E88" s="79" t="s">
         <v>102</v>
       </c>
@@ -11747,8 +11737,8 @@
       <c r="AL88" s="5"/>
     </row>
     <row r="89" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B89" s="165"/>
-      <c r="D89" s="161"/>
+      <c r="B89" s="164"/>
+      <c r="D89" s="160"/>
       <c r="E89" s="79" t="s">
         <v>102</v>
       </c>
@@ -11849,8 +11839,8 @@
       <c r="AL89" s="5"/>
     </row>
     <row r="90" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B90" s="165"/>
-      <c r="D90" s="161"/>
+      <c r="B90" s="164"/>
+      <c r="D90" s="160"/>
       <c r="E90" s="79" t="s">
         <v>102</v>
       </c>
@@ -11951,8 +11941,8 @@
       <c r="AL90" s="5"/>
     </row>
     <row r="91" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B91" s="165"/>
-      <c r="D91" s="161"/>
+      <c r="B91" s="164"/>
+      <c r="D91" s="160"/>
       <c r="E91" s="79" t="s">
         <v>104</v>
       </c>
@@ -12053,8 +12043,8 @@
       <c r="AL91" s="5"/>
     </row>
     <row r="92" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B92" s="165"/>
-      <c r="D92" s="161"/>
+      <c r="B92" s="164"/>
+      <c r="D92" s="160"/>
       <c r="E92" s="79" t="s">
         <v>104</v>
       </c>
@@ -12155,8 +12145,8 @@
       <c r="AL92" s="5"/>
     </row>
     <row r="93" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B93" s="165"/>
-      <c r="D93" s="161"/>
+      <c r="B93" s="164"/>
+      <c r="D93" s="160"/>
       <c r="E93" s="79" t="s">
         <v>104</v>
       </c>
@@ -12257,10 +12247,10 @@
       <c r="AL93" s="5"/>
     </row>
     <row r="94" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B94" s="165"/>
+      <c r="B94" s="164"/>
     </row>
     <row r="95" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="165"/>
+      <c r="B95" s="164"/>
       <c r="G95" s="1">
         <v>2021</v>
       </c>
@@ -12353,8 +12343,8 @@
       </c>
     </row>
     <row r="96" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B96" s="165"/>
-      <c r="D96" s="159" t="s">
+      <c r="B96" s="164"/>
+      <c r="D96" s="158" t="s">
         <v>112</v>
       </c>
       <c r="E96" s="79" t="s">
@@ -12455,8 +12445,8 @@
       </c>
     </row>
     <row r="97" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B97" s="165"/>
-      <c r="D97" s="160"/>
+      <c r="B97" s="164"/>
+      <c r="D97" s="159"/>
       <c r="E97" s="82" t="s">
         <v>93</v>
       </c>
@@ -12555,8 +12545,8 @@
       </c>
     </row>
     <row r="98" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B98" s="165"/>
-      <c r="D98" s="160"/>
+      <c r="B98" s="164"/>
+      <c r="D98" s="159"/>
       <c r="E98" s="83" t="s">
         <v>93</v>
       </c>
@@ -12655,8 +12645,8 @@
       </c>
     </row>
     <row r="99" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B99" s="165"/>
-      <c r="D99" s="161"/>
+      <c r="B99" s="164"/>
+      <c r="D99" s="160"/>
       <c r="E99" s="79" t="s">
         <v>98</v>
       </c>
@@ -12755,8 +12745,8 @@
       </c>
     </row>
     <row r="100" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B100" s="165"/>
-      <c r="D100" s="161"/>
+      <c r="B100" s="164"/>
+      <c r="D100" s="160"/>
       <c r="E100" s="79" t="s">
         <v>98</v>
       </c>
@@ -12855,8 +12845,8 @@
       </c>
     </row>
     <row r="101" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B101" s="165"/>
-      <c r="D101" s="161"/>
+      <c r="B101" s="164"/>
+      <c r="D101" s="160"/>
       <c r="E101" s="79" t="s">
         <v>98</v>
       </c>
@@ -12955,8 +12945,8 @@
       </c>
     </row>
     <row r="102" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B102" s="165"/>
-      <c r="D102" s="161"/>
+      <c r="B102" s="164"/>
+      <c r="D102" s="160"/>
       <c r="E102" s="79" t="s">
         <v>100</v>
       </c>
@@ -13055,8 +13045,8 @@
       </c>
     </row>
     <row r="103" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B103" s="165"/>
-      <c r="D103" s="161"/>
+      <c r="B103" s="164"/>
+      <c r="D103" s="160"/>
       <c r="E103" s="79" t="s">
         <v>100</v>
       </c>
@@ -13155,8 +13145,8 @@
       </c>
     </row>
     <row r="104" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B104" s="165"/>
-      <c r="D104" s="161"/>
+      <c r="B104" s="164"/>
+      <c r="D104" s="160"/>
       <c r="E104" s="79" t="s">
         <v>100</v>
       </c>
@@ -13255,8 +13245,8 @@
       </c>
     </row>
     <row r="105" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B105" s="165"/>
-      <c r="D105" s="161"/>
+      <c r="B105" s="164"/>
+      <c r="D105" s="160"/>
       <c r="E105" s="79" t="s">
         <v>102</v>
       </c>
@@ -13355,8 +13345,8 @@
       </c>
     </row>
     <row r="106" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B106" s="165"/>
-      <c r="D106" s="161"/>
+      <c r="B106" s="164"/>
+      <c r="D106" s="160"/>
       <c r="E106" s="79" t="s">
         <v>102</v>
       </c>
@@ -13455,8 +13445,8 @@
       </c>
     </row>
     <row r="107" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B107" s="165"/>
-      <c r="D107" s="161"/>
+      <c r="B107" s="164"/>
+      <c r="D107" s="160"/>
       <c r="E107" s="79" t="s">
         <v>102</v>
       </c>
@@ -13555,8 +13545,8 @@
       </c>
     </row>
     <row r="108" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B108" s="165"/>
-      <c r="D108" s="161"/>
+      <c r="B108" s="164"/>
+      <c r="D108" s="160"/>
       <c r="E108" s="79" t="s">
         <v>104</v>
       </c>
@@ -13655,8 +13645,8 @@
       </c>
     </row>
     <row r="109" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B109" s="165"/>
-      <c r="D109" s="161"/>
+      <c r="B109" s="164"/>
+      <c r="D109" s="160"/>
       <c r="E109" s="79" t="s">
         <v>104</v>
       </c>
@@ -13755,8 +13745,8 @@
       </c>
     </row>
     <row r="110" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B110" s="165"/>
-      <c r="D110" s="161"/>
+      <c r="B110" s="164"/>
+      <c r="D110" s="160"/>
       <c r="E110" s="79" t="s">
         <v>104</v>
       </c>
@@ -13855,10 +13845,10 @@
       </c>
     </row>
     <row r="111" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B111" s="165"/>
+      <c r="B111" s="164"/>
     </row>
     <row r="112" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B112" s="165"/>
+      <c r="B112" s="164"/>
       <c r="G112" s="1">
         <v>2021</v>
       </c>
@@ -13951,8 +13941,8 @@
       </c>
     </row>
     <row r="113" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B113" s="165"/>
-      <c r="D113" s="159" t="s">
+      <c r="B113" s="164"/>
+      <c r="D113" s="158" t="s">
         <v>113</v>
       </c>
       <c r="E113" s="79" t="s">
@@ -14054,8 +14044,8 @@
       </c>
     </row>
     <row r="114" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B114" s="165"/>
-      <c r="D114" s="160"/>
+      <c r="B114" s="164"/>
+      <c r="D114" s="159"/>
       <c r="E114" s="82" t="s">
         <v>93</v>
       </c>
@@ -14155,8 +14145,8 @@
       </c>
     </row>
     <row r="115" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B115" s="165"/>
-      <c r="D115" s="160"/>
+      <c r="B115" s="164"/>
+      <c r="D115" s="159"/>
       <c r="E115" s="83" t="s">
         <v>93</v>
       </c>
@@ -14256,8 +14246,8 @@
       </c>
     </row>
     <row r="116" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B116" s="165"/>
-      <c r="D116" s="161"/>
+      <c r="B116" s="164"/>
+      <c r="D116" s="160"/>
       <c r="E116" s="79" t="s">
         <v>98</v>
       </c>
@@ -14357,8 +14347,8 @@
       </c>
     </row>
     <row r="117" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B117" s="165"/>
-      <c r="D117" s="161"/>
+      <c r="B117" s="164"/>
+      <c r="D117" s="160"/>
       <c r="E117" s="79" t="s">
         <v>98</v>
       </c>
@@ -14458,8 +14448,8 @@
       </c>
     </row>
     <row r="118" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B118" s="165"/>
-      <c r="D118" s="161"/>
+      <c r="B118" s="164"/>
+      <c r="D118" s="160"/>
       <c r="E118" s="79" t="s">
         <v>98</v>
       </c>
@@ -14559,8 +14549,8 @@
       </c>
     </row>
     <row r="119" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B119" s="165"/>
-      <c r="D119" s="161"/>
+      <c r="B119" s="164"/>
+      <c r="D119" s="160"/>
       <c r="E119" s="79" t="s">
         <v>100</v>
       </c>
@@ -14660,8 +14650,8 @@
       </c>
     </row>
     <row r="120" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B120" s="165"/>
-      <c r="D120" s="161"/>
+      <c r="B120" s="164"/>
+      <c r="D120" s="160"/>
       <c r="E120" s="79" t="s">
         <v>100</v>
       </c>
@@ -14761,8 +14751,8 @@
       </c>
     </row>
     <row r="121" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B121" s="165"/>
-      <c r="D121" s="161"/>
+      <c r="B121" s="164"/>
+      <c r="D121" s="160"/>
       <c r="E121" s="79" t="s">
         <v>100</v>
       </c>
@@ -14862,8 +14852,8 @@
       </c>
     </row>
     <row r="122" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B122" s="165"/>
-      <c r="D122" s="161"/>
+      <c r="B122" s="164"/>
+      <c r="D122" s="160"/>
       <c r="E122" s="79" t="s">
         <v>102</v>
       </c>
@@ -14963,8 +14953,8 @@
       </c>
     </row>
     <row r="123" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B123" s="165"/>
-      <c r="D123" s="161"/>
+      <c r="B123" s="164"/>
+      <c r="D123" s="160"/>
       <c r="E123" s="79" t="s">
         <v>102</v>
       </c>
@@ -15064,8 +15054,8 @@
       </c>
     </row>
     <row r="124" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B124" s="165"/>
-      <c r="D124" s="161"/>
+      <c r="B124" s="164"/>
+      <c r="D124" s="160"/>
       <c r="E124" s="79" t="s">
         <v>102</v>
       </c>
@@ -15165,8 +15155,8 @@
       </c>
     </row>
     <row r="125" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B125" s="165"/>
-      <c r="D125" s="161"/>
+      <c r="B125" s="164"/>
+      <c r="D125" s="160"/>
       <c r="E125" s="79" t="s">
         <v>104</v>
       </c>
@@ -15266,8 +15256,8 @@
       </c>
     </row>
     <row r="126" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B126" s="165"/>
-      <c r="D126" s="161"/>
+      <c r="B126" s="164"/>
+      <c r="D126" s="160"/>
       <c r="E126" s="79" t="s">
         <v>104</v>
       </c>
@@ -15367,8 +15357,8 @@
       </c>
     </row>
     <row r="127" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B127" s="165"/>
-      <c r="D127" s="161"/>
+      <c r="B127" s="164"/>
+      <c r="D127" s="160"/>
       <c r="E127" s="79" t="s">
         <v>104</v>
       </c>
@@ -15471,23 +15461,23 @@
       <c r="B128" s="87"/>
     </row>
     <row r="129" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B129" s="163" t="s">
+      <c r="B129" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="C129" s="162"/>
-      <c r="D129" s="162"/>
-      <c r="E129" s="162"/>
-      <c r="F129" s="162"/>
-      <c r="G129" s="162"/>
-      <c r="H129" s="162"/>
-      <c r="I129" s="162"/>
-      <c r="J129" s="162"/>
-      <c r="K129" s="162"/>
-      <c r="L129" s="162"/>
-      <c r="M129" s="162"/>
-      <c r="N129" s="162"/>
-      <c r="O129" s="162"/>
-      <c r="P129" s="162"/>
+      <c r="C129" s="161"/>
+      <c r="D129" s="161"/>
+      <c r="E129" s="161"/>
+      <c r="F129" s="161"/>
+      <c r="G129" s="161"/>
+      <c r="H129" s="161"/>
+      <c r="I129" s="161"/>
+      <c r="J129" s="161"/>
+      <c r="K129" s="161"/>
+      <c r="L129" s="161"/>
+      <c r="M129" s="161"/>
+      <c r="N129" s="161"/>
+      <c r="O129" s="161"/>
+      <c r="P129" s="161"/>
       <c r="Q129" s="50"/>
       <c r="R129" s="50"/>
       <c r="S129" s="50"/>
@@ -15522,21 +15512,21 @@
     </row>
     <row r="131" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B131" s="40"/>
-      <c r="C131" s="153" t="s">
+      <c r="C131" s="152" t="s">
         <v>115</v>
       </c>
-      <c r="D131" s="154"/>
-      <c r="E131" s="154"/>
-      <c r="F131" s="154"/>
-      <c r="G131" s="154"/>
-      <c r="H131" s="154"/>
-      <c r="I131" s="156" t="s">
+      <c r="D131" s="153"/>
+      <c r="E131" s="153"/>
+      <c r="F131" s="153"/>
+      <c r="G131" s="153"/>
+      <c r="H131" s="153"/>
+      <c r="I131" s="155" t="s">
         <v>116</v>
       </c>
-      <c r="J131" s="157"/>
-      <c r="K131" s="157"/>
-      <c r="L131" s="157"/>
-      <c r="M131" s="158"/>
+      <c r="J131" s="156"/>
+      <c r="K131" s="156"/>
+      <c r="L131" s="156"/>
+      <c r="M131" s="157"/>
       <c r="N131" s="89" t="s">
         <v>117</v>
       </c>
@@ -15554,14 +15544,14 @@
     </row>
     <row r="132" spans="2:28" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="40"/>
-      <c r="C132" s="143" t="s">
+      <c r="C132" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="D132" s="144"/>
-      <c r="E132" s="144"/>
-      <c r="F132" s="144"/>
-      <c r="G132" s="144"/>
-      <c r="H132" s="145"/>
+      <c r="D132" s="143"/>
+      <c r="E132" s="143"/>
+      <c r="F132" s="143"/>
+      <c r="G132" s="143"/>
+      <c r="H132" s="144"/>
       <c r="I132" t="s">
         <v>95</v>
       </c>
@@ -15572,14 +15562,14 @@
     </row>
     <row r="133" spans="2:28" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="40"/>
-      <c r="C133" s="143" t="s">
+      <c r="C133" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D133" s="144"/>
-      <c r="E133" s="144"/>
-      <c r="F133" s="144"/>
-      <c r="G133" s="144"/>
-      <c r="H133" s="145"/>
+      <c r="D133" s="143"/>
+      <c r="E133" s="143"/>
+      <c r="F133" s="143"/>
+      <c r="G133" s="143"/>
+      <c r="H133" s="144"/>
       <c r="I133" s="100" t="s">
         <v>95</v>
       </c>
@@ -15602,21 +15592,21 @@
     </row>
     <row r="134" spans="2:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="40"/>
-      <c r="C134" s="143" t="s">
+      <c r="C134" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="D134" s="144"/>
-      <c r="E134" s="144"/>
-      <c r="F134" s="144"/>
-      <c r="G134" s="144"/>
-      <c r="H134" s="145"/>
-      <c r="I134" s="149" t="s">
+      <c r="D134" s="143"/>
+      <c r="E134" s="143"/>
+      <c r="F134" s="143"/>
+      <c r="G134" s="143"/>
+      <c r="H134" s="144"/>
+      <c r="I134" s="148" t="s">
         <v>122</v>
       </c>
-      <c r="J134" s="150"/>
-      <c r="K134" s="150"/>
-      <c r="L134" s="150"/>
-      <c r="M134" s="151"/>
+      <c r="J134" s="149"/>
+      <c r="K134" s="149"/>
+      <c r="L134" s="149"/>
+      <c r="M134" s="150"/>
       <c r="N134" s="105"/>
       <c r="O134" s="105"/>
       <c r="P134" s="106"/>
@@ -15630,21 +15620,21 @@
     </row>
     <row r="135" spans="2:28" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="40"/>
-      <c r="C135" s="143" t="s">
+      <c r="C135" s="142" t="s">
         <v>123</v>
       </c>
-      <c r="D135" s="144"/>
-      <c r="E135" s="144"/>
-      <c r="F135" s="144"/>
-      <c r="G135" s="144"/>
-      <c r="H135" s="145"/>
-      <c r="I135" s="149" t="s">
+      <c r="D135" s="143"/>
+      <c r="E135" s="143"/>
+      <c r="F135" s="143"/>
+      <c r="G135" s="143"/>
+      <c r="H135" s="144"/>
+      <c r="I135" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="J135" s="150"/>
-      <c r="K135" s="150"/>
-      <c r="L135" s="150"/>
-      <c r="M135" s="151"/>
+      <c r="J135" s="149"/>
+      <c r="K135" s="149"/>
+      <c r="L135" s="149"/>
+      <c r="M135" s="150"/>
       <c r="N135" s="105"/>
       <c r="O135" s="105"/>
       <c r="P135" s="106"/>
@@ -15658,14 +15648,14 @@
     </row>
     <row r="136" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B136" s="40"/>
-      <c r="C136" s="143" t="s">
+      <c r="C136" s="142" t="s">
         <v>125</v>
       </c>
-      <c r="D136" s="144"/>
-      <c r="E136" s="144"/>
-      <c r="F136" s="144"/>
-      <c r="G136" s="144"/>
-      <c r="H136" s="145"/>
+      <c r="D136" s="143"/>
+      <c r="E136" s="143"/>
+      <c r="F136" s="143"/>
+      <c r="G136" s="143"/>
+      <c r="H136" s="144"/>
       <c r="I136" s="108" t="s">
         <v>95</v>
       </c>
@@ -15686,14 +15676,14 @@
     </row>
     <row r="137" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B137" s="40"/>
-      <c r="C137" s="146" t="s">
+      <c r="C137" s="145" t="s">
         <v>126</v>
       </c>
-      <c r="D137" s="147"/>
-      <c r="E137" s="147"/>
-      <c r="F137" s="147"/>
-      <c r="G137" s="147"/>
-      <c r="H137" s="148"/>
+      <c r="D137" s="146"/>
+      <c r="E137" s="146"/>
+      <c r="F137" s="146"/>
+      <c r="G137" s="146"/>
+      <c r="H137" s="147"/>
       <c r="I137" s="112" t="s">
         <v>95</v>
       </c>
@@ -15714,12 +15704,12 @@
     </row>
     <row r="138" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B138" s="40"/>
-      <c r="C138" s="152"/>
-      <c r="D138" s="152"/>
-      <c r="E138" s="152"/>
-      <c r="F138" s="152"/>
-      <c r="G138" s="152"/>
-      <c r="H138" s="152"/>
+      <c r="C138" s="151"/>
+      <c r="D138" s="151"/>
+      <c r="E138" s="151"/>
+      <c r="F138" s="151"/>
+      <c r="G138" s="151"/>
+      <c r="H138" s="151"/>
       <c r="I138" s="116"/>
       <c r="J138" s="116"/>
       <c r="K138" s="116"/>
@@ -15738,21 +15728,21 @@
     </row>
     <row r="139" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B139" s="40"/>
-      <c r="C139" s="153" t="s">
+      <c r="C139" s="152" t="s">
         <v>127</v>
       </c>
-      <c r="D139" s="154"/>
-      <c r="E139" s="154"/>
-      <c r="F139" s="154"/>
-      <c r="G139" s="154"/>
-      <c r="H139" s="155"/>
-      <c r="I139" s="156" t="s">
+      <c r="D139" s="153"/>
+      <c r="E139" s="153"/>
+      <c r="F139" s="153"/>
+      <c r="G139" s="153"/>
+      <c r="H139" s="154"/>
+      <c r="I139" s="155" t="s">
         <v>116</v>
       </c>
-      <c r="J139" s="157"/>
-      <c r="K139" s="157"/>
-      <c r="L139" s="157"/>
-      <c r="M139" s="158"/>
+      <c r="J139" s="156"/>
+      <c r="K139" s="156"/>
+      <c r="L139" s="156"/>
+      <c r="M139" s="157"/>
       <c r="N139" s="89" t="s">
         <v>117</v>
       </c>
@@ -15770,14 +15760,14 @@
     </row>
     <row r="140" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B140" s="40"/>
-      <c r="C140" s="143" t="s">
+      <c r="C140" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D140" s="144"/>
-      <c r="E140" s="144"/>
-      <c r="F140" s="144"/>
-      <c r="G140" s="144"/>
-      <c r="H140" s="145"/>
+      <c r="D140" s="143"/>
+      <c r="E140" s="143"/>
+      <c r="F140" s="143"/>
+      <c r="G140" s="143"/>
+      <c r="H140" s="144"/>
       <c r="I140" s="100" t="s">
         <v>95</v>
       </c>
@@ -15861,14 +15851,14 @@
     </row>
     <row r="143" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B143" s="40"/>
-      <c r="C143" s="143" t="s">
+      <c r="C143" s="142" t="s">
         <v>123</v>
       </c>
-      <c r="D143" s="144"/>
-      <c r="E143" s="144"/>
-      <c r="F143" s="144"/>
-      <c r="G143" s="144"/>
-      <c r="H143" s="145"/>
+      <c r="D143" s="143"/>
+      <c r="E143" s="143"/>
+      <c r="F143" s="143"/>
+      <c r="G143" s="143"/>
+      <c r="H143" s="144"/>
       <c r="I143" s="122" t="s">
         <v>128</v>
       </c>
@@ -15889,14 +15879,14 @@
     </row>
     <row r="144" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B144" s="40"/>
-      <c r="C144" s="143" t="s">
+      <c r="C144" s="142" t="s">
         <v>125</v>
       </c>
-      <c r="D144" s="144"/>
-      <c r="E144" s="144"/>
-      <c r="F144" s="144"/>
-      <c r="G144" s="144"/>
-      <c r="H144" s="145"/>
+      <c r="D144" s="143"/>
+      <c r="E144" s="143"/>
+      <c r="F144" s="143"/>
+      <c r="G144" s="143"/>
+      <c r="H144" s="144"/>
       <c r="I144" s="122" t="s">
         <v>128</v>
       </c>
@@ -15917,14 +15907,14 @@
     </row>
     <row r="145" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B145" s="40"/>
-      <c r="C145" s="146" t="s">
+      <c r="C145" s="145" t="s">
         <v>131</v>
       </c>
-      <c r="D145" s="147"/>
-      <c r="E145" s="147"/>
-      <c r="F145" s="147"/>
-      <c r="G145" s="147"/>
-      <c r="H145" s="148"/>
+      <c r="D145" s="146"/>
+      <c r="E145" s="146"/>
+      <c r="F145" s="146"/>
+      <c r="G145" s="146"/>
+      <c r="H145" s="147"/>
       <c r="I145" s="112" t="s">
         <v>95</v>
       </c>
@@ -16260,27 +16250,27 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="187"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="186"/>
       <c r="E2" s="39"/>
-      <c r="F2" s="185" t="s">
+      <c r="F2" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="186"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="185" t="s">
+      <c r="G2" s="185"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="184" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="186"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="185" t="s">
+      <c r="J2" s="185"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="184" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="186"/>
-      <c r="N2" s="187"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="186"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">

--- a/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
+++ b/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\BCpUC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999D7867-60B9-40C5-9EDF-D7A44AA77B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F6D865-6970-43AC-AAE4-3A52F19D49FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -505,13 +505,13 @@
     <t>Raw Data (2022 $)</t>
   </si>
   <si>
-    <t>Battery Power Cost per Unit Capacity : NDC</t>
-  </si>
-  <si>
     <t>Time (Year)</t>
   </si>
   <si>
-    <t>Battery Energy Cost per Unit Capacity : NDC</t>
+    <t>Battery Energy Cost per Unit Capacity : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Battery Power Cost per Unit Capacity : MostRecentRun</t>
   </si>
 </sst>
 </file>
@@ -1968,69 +1968,15 @@
     <xf numFmtId="5" fontId="10" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="10" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -2077,6 +2023,60 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2224,85 +2224,85 @@
                   <c:v>303546</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>277345</c:v>
+                  <c:v>275720</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>256728</c:v>
+                  <c:v>254008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>240275</c:v>
+                  <c:v>237399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>226464</c:v>
+                  <c:v>223663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>214618</c:v>
+                  <c:v>212018</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>204553</c:v>
+                  <c:v>202332</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>196075</c:v>
+                  <c:v>194107</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>188655</c:v>
+                  <c:v>186872</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>182183</c:v>
+                  <c:v>180500</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>176401</c:v>
+                  <c:v>174745</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>171611</c:v>
+                  <c:v>169959</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>167430</c:v>
+                  <c:v>165780</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>163809</c:v>
+                  <c:v>162166</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>160633</c:v>
+                  <c:v>159002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>157780</c:v>
+                  <c:v>156172</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>155218</c:v>
+                  <c:v>153632</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>152921</c:v>
+                  <c:v>151363</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>150890</c:v>
+                  <c:v>149361</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>149018</c:v>
+                  <c:v>147535</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>147310</c:v>
+                  <c:v>145853</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>145744</c:v>
+                  <c:v>144309</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>144287</c:v>
+                  <c:v>142883</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>142963</c:v>
+                  <c:v>141583</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>141726</c:v>
+                  <c:v>140367</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>140576</c:v>
+                  <c:v>139237</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>139495</c:v>
+                  <c:v>138175</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>138485</c:v>
+                  <c:v>137182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4911,19 +4911,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:108" s="40" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
       <c r="M1" s="3" t="s">
         <v>68</v>
       </c>
@@ -5053,12 +5053,12 @@
     </row>
     <row r="4" spans="1:108" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="44"/>
-      <c r="L4" s="166" t="s">
+      <c r="L4" s="143" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:108" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L5" s="167"/>
+      <c r="L5" s="144"/>
     </row>
     <row r="6" spans="1:108" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H6" s="45"/>
@@ -5090,23 +5090,23 @@
       <c r="B7" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="161" t="s">
+      <c r="C7" s="145" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="161"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
-      <c r="L7" s="161"/>
-      <c r="M7" s="161"/>
-      <c r="N7" s="161"/>
-      <c r="O7" s="161"/>
-      <c r="P7" s="161"/>
-      <c r="Q7" s="161"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
+      <c r="P7" s="145"/>
+      <c r="Q7" s="145"/>
       <c r="R7" s="50"/>
       <c r="S7" s="50"/>
       <c r="T7" s="50"/>
@@ -5124,43 +5124,43 @@
     </row>
     <row r="9" spans="1:108" s="40" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9"/>
-      <c r="B9" s="168" t="s">
+      <c r="B9" s="146" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="169" t="s">
+      <c r="D9" s="147" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="170"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="172">
+      <c r="E9" s="148"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="150">
         <v>2021</v>
       </c>
-      <c r="H9" s="173"/>
-      <c r="I9" s="173"/>
-      <c r="J9" s="173"/>
-      <c r="K9" s="174"/>
-      <c r="L9" s="174"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="152"/>
+      <c r="L9" s="152"/>
     </row>
     <row r="10" spans="1:108" s="40" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="168"/>
+      <c r="B10" s="146"/>
       <c r="D10" s="53" t="s">
         <v>76</v>
       </c>
       <c r="J10" s="52"/>
     </row>
     <row r="11" spans="1:108" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="168"/>
-      <c r="D11" s="175" t="s">
+      <c r="B11" s="146"/>
+      <c r="D11" s="153" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="176"/>
-      <c r="F11" s="176"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="176"/>
-      <c r="K11" s="176"/>
-      <c r="L11" s="176"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="154"/>
       <c r="W11" s="54"/>
       <c r="X11" s="55"/>
       <c r="Y11" s="55"/>
@@ -5168,18 +5168,18 @@
       <c r="AA11" s="55"/>
     </row>
     <row r="12" spans="1:108" s="40" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="168"/>
-      <c r="D12" s="177" t="s">
+      <c r="B12" s="146"/>
+      <c r="D12" s="155" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="178"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="178"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="178"/>
-      <c r="K12" s="178"/>
-      <c r="L12" s="179"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="157"/>
       <c r="M12" s="56"/>
       <c r="W12" s="54"/>
       <c r="X12" s="55"/>
@@ -5188,16 +5188,16 @@
       <c r="AA12" s="55"/>
     </row>
     <row r="13" spans="1:108" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="168"/>
-      <c r="D13" s="180"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="181"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="181"/>
-      <c r="J13" s="181"/>
-      <c r="K13" s="181"/>
-      <c r="L13" s="182"/>
+      <c r="B13" s="146"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="159"/>
+      <c r="L13" s="160"/>
       <c r="W13" s="54"/>
       <c r="X13" s="55"/>
       <c r="Y13" s="55"/>
@@ -5205,49 +5205,49 @@
       <c r="AA13" s="55"/>
     </row>
     <row r="14" spans="1:108" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="168"/>
+      <c r="B14" s="146"/>
     </row>
     <row r="15" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="B15" s="168"/>
-      <c r="C15" s="183" t="s">
+      <c r="B15" s="146"/>
+      <c r="C15" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="183"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="183"/>
-      <c r="L15" s="183"/>
-      <c r="M15" s="183"/>
-      <c r="N15" s="183"/>
-      <c r="O15" s="183"/>
-      <c r="P15" s="183"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="161"/>
+      <c r="L15" s="161"/>
+      <c r="M15" s="161"/>
+      <c r="N15" s="161"/>
+      <c r="O15" s="161"/>
+      <c r="P15" s="161"/>
       <c r="Q15" s="57"/>
     </row>
     <row r="16" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="B16" s="168"/>
-      <c r="C16" s="183"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="183"/>
-      <c r="F16" s="183"/>
-      <c r="G16" s="183"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="183"/>
-      <c r="K16" s="183"/>
-      <c r="L16" s="183"/>
-      <c r="M16" s="183"/>
-      <c r="N16" s="183"/>
-      <c r="O16" s="183"/>
-      <c r="P16" s="183"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="161"/>
+      <c r="D16" s="161"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="161"/>
+      <c r="L16" s="161"/>
+      <c r="M16" s="161"/>
+      <c r="N16" s="161"/>
+      <c r="O16" s="161"/>
+      <c r="P16" s="161"/>
     </row>
     <row r="17" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="168"/>
+      <c r="B17" s="146"/>
       <c r="C17" s="58"/>
-      <c r="D17" s="158" t="s">
+      <c r="D17" s="168" t="s">
         <v>80</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -5255,9 +5255,9 @@
       </c>
     </row>
     <row r="18" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="168"/>
+      <c r="B18" s="146"/>
       <c r="C18" s="58"/>
-      <c r="D18" s="159"/>
+      <c r="D18" s="169"/>
       <c r="F18" s="1">
         <v>2021</v>
       </c>
@@ -5350,9 +5350,9 @@
       </c>
     </row>
     <row r="19" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="168"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="58"/>
-      <c r="D19" s="159"/>
+      <c r="D19" s="169"/>
       <c r="E19" t="s">
         <v>82</v>
       </c>
@@ -5448,9 +5448,9 @@
       </c>
     </row>
     <row r="20" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="168"/>
+      <c r="B20" s="146"/>
       <c r="C20" s="58"/>
-      <c r="D20" s="160"/>
+      <c r="D20" s="170"/>
       <c r="E20" t="s">
         <v>83</v>
       </c>
@@ -5546,9 +5546,9 @@
       </c>
     </row>
     <row r="21" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="168"/>
+      <c r="B21" s="146"/>
       <c r="C21" s="58"/>
-      <c r="D21" s="160"/>
+      <c r="D21" s="170"/>
       <c r="E21" t="s">
         <v>84</v>
       </c>
@@ -5644,9 +5644,9 @@
       </c>
     </row>
     <row r="22" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="168"/>
+      <c r="B22" s="146"/>
       <c r="C22" s="58"/>
-      <c r="D22" s="160"/>
+      <c r="D22" s="170"/>
       <c r="F22" s="60"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -5679,18 +5679,18 @@
       <c r="AI22" s="5"/>
     </row>
     <row r="23" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="168"/>
+      <c r="B23" s="146"/>
       <c r="C23" s="58"/>
-      <c r="D23" s="160"/>
+      <c r="D23" s="170"/>
       <c r="E23" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F23" s="60"/>
     </row>
     <row r="24" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="168"/>
+      <c r="B24" s="146"/>
       <c r="C24" s="58"/>
-      <c r="D24" s="160"/>
+      <c r="D24" s="170"/>
       <c r="F24" s="1">
         <v>2021</v>
       </c>
@@ -5783,9 +5783,9 @@
       </c>
     </row>
     <row r="25" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="168"/>
+      <c r="B25" s="146"/>
       <c r="C25" s="58"/>
-      <c r="D25" s="160"/>
+      <c r="D25" s="170"/>
       <c r="E25" t="s">
         <v>82</v>
       </c>
@@ -5881,9 +5881,9 @@
       </c>
     </row>
     <row r="26" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="168"/>
+      <c r="B26" s="146"/>
       <c r="C26" s="58"/>
-      <c r="D26" s="160"/>
+      <c r="D26" s="170"/>
       <c r="E26" t="s">
         <v>83</v>
       </c>
@@ -5979,9 +5979,9 @@
       </c>
     </row>
     <row r="27" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="168"/>
+      <c r="B27" s="146"/>
       <c r="C27" s="58"/>
-      <c r="D27" s="160"/>
+      <c r="D27" s="170"/>
       <c r="E27" t="s">
         <v>84</v>
       </c>
@@ -6077,7 +6077,7 @@
       </c>
     </row>
     <row r="28" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="168"/>
+      <c r="B28" s="146"/>
       <c r="C28" s="58"/>
       <c r="D28" s="58"/>
       <c r="G28" s="5"/>
@@ -6115,7 +6115,7 @@
       <c r="AM28" s="5"/>
     </row>
     <row r="29" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="168"/>
+      <c r="B29" s="146"/>
       <c r="C29" s="58"/>
       <c r="D29" s="58"/>
       <c r="E29" s="1" t="s">
@@ -6157,7 +6157,7 @@
       <c r="AM29" s="5"/>
     </row>
     <row r="30" spans="2:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="168"/>
+      <c r="B30" s="146"/>
       <c r="C30" s="58"/>
       <c r="D30" s="58"/>
       <c r="E30" s="1"/>
@@ -6197,9 +6197,9 @@
       <c r="AM30" s="5"/>
     </row>
     <row r="31" spans="2:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="168"/>
+      <c r="B31" s="146"/>
       <c r="C31" s="58"/>
-      <c r="D31" s="159" t="s">
+      <c r="D31" s="169" t="s">
         <v>87</v>
       </c>
       <c r="E31" s="61" t="s">
@@ -6249,9 +6249,9 @@
       <c r="AM31" s="5"/>
     </row>
     <row r="32" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="168"/>
+      <c r="B32" s="146"/>
       <c r="C32" s="58"/>
-      <c r="D32" s="159"/>
+      <c r="D32" s="169"/>
       <c r="E32" s="66" t="s">
         <v>93</v>
       </c>
@@ -6299,9 +6299,9 @@
       <c r="AM32" s="5"/>
     </row>
     <row r="33" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="168"/>
+      <c r="B33" s="146"/>
       <c r="C33" s="58"/>
-      <c r="D33" s="159"/>
+      <c r="D33" s="169"/>
       <c r="E33" s="69" t="s">
         <v>98</v>
       </c>
@@ -6349,9 +6349,9 @@
       <c r="AM33" s="5"/>
     </row>
     <row r="34" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="168"/>
+      <c r="B34" s="146"/>
       <c r="C34" s="58"/>
-      <c r="D34" s="159"/>
+      <c r="D34" s="169"/>
       <c r="E34" s="72" t="s">
         <v>100</v>
       </c>
@@ -6399,9 +6399,9 @@
       <c r="AM34" s="5"/>
     </row>
     <row r="35" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="168"/>
+      <c r="B35" s="146"/>
       <c r="C35" s="58"/>
-      <c r="D35" s="159"/>
+      <c r="D35" s="169"/>
       <c r="E35" s="69" t="s">
         <v>102</v>
       </c>
@@ -6449,9 +6449,9 @@
       <c r="AM35" s="5"/>
     </row>
     <row r="36" spans="2:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="168"/>
+      <c r="B36" s="146"/>
       <c r="C36" s="58"/>
-      <c r="D36" s="159"/>
+      <c r="D36" s="169"/>
       <c r="E36" s="75" t="s">
         <v>104</v>
       </c>
@@ -6538,23 +6538,23 @@
       <c r="AM37" s="5"/>
     </row>
     <row r="38" spans="2:74" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="161" t="s">
+      <c r="C38" s="145" t="s">
         <v>106</v>
       </c>
-      <c r="D38" s="161"/>
-      <c r="E38" s="161"/>
-      <c r="F38" s="161"/>
-      <c r="G38" s="161"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="161"/>
-      <c r="J38" s="161"/>
-      <c r="K38" s="161"/>
-      <c r="L38" s="161"/>
-      <c r="M38" s="161"/>
-      <c r="N38" s="161"/>
-      <c r="O38" s="161"/>
-      <c r="P38" s="161"/>
-      <c r="Q38" s="161"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
+      <c r="G38" s="145"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="145"/>
+      <c r="J38" s="145"/>
+      <c r="K38" s="145"/>
+      <c r="L38" s="145"/>
+      <c r="M38" s="145"/>
+      <c r="N38" s="145"/>
+      <c r="O38" s="145"/>
+      <c r="P38" s="145"/>
+      <c r="Q38" s="145"/>
       <c r="R38" s="50"/>
       <c r="S38" s="50"/>
       <c r="T38" s="50"/>
@@ -6687,10 +6687,10 @@
       </c>
     </row>
     <row r="43" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="163" t="s">
+      <c r="B43" s="177" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="158" t="s">
+      <c r="D43" s="168" t="s">
         <v>109</v>
       </c>
       <c r="E43" s="79" t="s">
@@ -6792,8 +6792,8 @@
       </c>
     </row>
     <row r="44" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B44" s="163"/>
-      <c r="D44" s="159"/>
+      <c r="B44" s="177"/>
+      <c r="D44" s="169"/>
       <c r="E44" s="82" t="s">
         <v>93</v>
       </c>
@@ -6893,8 +6893,8 @@
       </c>
     </row>
     <row r="45" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B45" s="163"/>
-      <c r="D45" s="159"/>
+      <c r="B45" s="177"/>
+      <c r="D45" s="169"/>
       <c r="E45" s="83" t="s">
         <v>93</v>
       </c>
@@ -6994,8 +6994,8 @@
       </c>
     </row>
     <row r="46" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B46" s="163"/>
-      <c r="D46" s="160"/>
+      <c r="B46" s="177"/>
+      <c r="D46" s="170"/>
       <c r="E46" s="79" t="s">
         <v>98</v>
       </c>
@@ -7128,8 +7128,8 @@
       <c r="BV46" s="5"/>
     </row>
     <row r="47" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B47" s="163"/>
-      <c r="D47" s="160"/>
+      <c r="B47" s="177"/>
+      <c r="D47" s="170"/>
       <c r="E47" s="79" t="s">
         <v>98</v>
       </c>
@@ -7262,8 +7262,8 @@
       <c r="BV47" s="5"/>
     </row>
     <row r="48" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B48" s="163"/>
-      <c r="D48" s="160"/>
+      <c r="B48" s="177"/>
+      <c r="D48" s="170"/>
       <c r="E48" s="79" t="s">
         <v>98</v>
       </c>
@@ -7396,8 +7396,8 @@
       <c r="BV48" s="5"/>
     </row>
     <row r="49" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B49" s="163"/>
-      <c r="D49" s="160"/>
+      <c r="B49" s="177"/>
+      <c r="D49" s="170"/>
       <c r="E49" s="79" t="s">
         <v>100</v>
       </c>
@@ -7530,8 +7530,8 @@
       <c r="BV49" s="5"/>
     </row>
     <row r="50" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B50" s="163"/>
-      <c r="D50" s="160"/>
+      <c r="B50" s="177"/>
+      <c r="D50" s="170"/>
       <c r="E50" s="79" t="s">
         <v>100</v>
       </c>
@@ -7664,8 +7664,8 @@
       <c r="BV50" s="5"/>
     </row>
     <row r="51" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B51" s="163"/>
-      <c r="D51" s="160"/>
+      <c r="B51" s="177"/>
+      <c r="D51" s="170"/>
       <c r="E51" s="79" t="s">
         <v>100</v>
       </c>
@@ -7798,8 +7798,8 @@
       <c r="BV51" s="5"/>
     </row>
     <row r="52" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B52" s="163"/>
-      <c r="D52" s="160"/>
+      <c r="B52" s="177"/>
+      <c r="D52" s="170"/>
       <c r="E52" s="79" t="s">
         <v>102</v>
       </c>
@@ -7932,8 +7932,8 @@
       <c r="BV52" s="5"/>
     </row>
     <row r="53" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B53" s="163"/>
-      <c r="D53" s="160"/>
+      <c r="B53" s="177"/>
+      <c r="D53" s="170"/>
       <c r="E53" s="79" t="s">
         <v>102</v>
       </c>
@@ -8066,8 +8066,8 @@
       <c r="BV53" s="5"/>
     </row>
     <row r="54" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B54" s="163"/>
-      <c r="D54" s="160"/>
+      <c r="B54" s="177"/>
+      <c r="D54" s="170"/>
       <c r="E54" s="79" t="s">
         <v>102</v>
       </c>
@@ -8200,8 +8200,8 @@
       <c r="BV54" s="5"/>
     </row>
     <row r="55" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B55" s="163"/>
-      <c r="D55" s="160"/>
+      <c r="B55" s="177"/>
+      <c r="D55" s="170"/>
       <c r="E55" s="79" t="s">
         <v>104</v>
       </c>
@@ -8334,8 +8334,8 @@
       <c r="BV55" s="5"/>
     </row>
     <row r="56" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B56" s="163"/>
-      <c r="D56" s="160"/>
+      <c r="B56" s="177"/>
+      <c r="D56" s="170"/>
       <c r="E56" s="79" t="s">
         <v>104</v>
       </c>
@@ -8468,8 +8468,8 @@
       <c r="BV56" s="5"/>
     </row>
     <row r="57" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B57" s="163"/>
-      <c r="D57" s="160"/>
+      <c r="B57" s="177"/>
+      <c r="D57" s="170"/>
       <c r="E57" s="79" t="s">
         <v>104</v>
       </c>
@@ -8602,7 +8602,7 @@
       <c r="BV57" s="5"/>
     </row>
     <row r="58" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B58" s="163"/>
+      <c r="B58" s="177"/>
       <c r="D58" s="58"/>
       <c r="E58" s="82"/>
       <c r="F58" s="82"/>
@@ -8671,7 +8671,7 @@
       <c r="BV58" s="5"/>
     </row>
     <row r="59" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B59" s="163"/>
+      <c r="B59" s="177"/>
       <c r="D59" s="58"/>
       <c r="E59" s="82"/>
       <c r="F59" s="82"/>
@@ -8740,7 +8740,7 @@
       <c r="BV59" s="5"/>
     </row>
     <row r="60" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B60" s="163"/>
+      <c r="B60" s="177"/>
       <c r="D60" s="58"/>
       <c r="E60" s="82"/>
       <c r="F60" s="82"/>
@@ -8809,7 +8809,7 @@
       <c r="BV60" s="5"/>
     </row>
     <row r="61" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B61" s="163"/>
+      <c r="B61" s="177"/>
       <c r="D61" s="84"/>
       <c r="E61" s="82"/>
       <c r="F61" s="82"/>
@@ -8905,8 +8905,8 @@
       </c>
     </row>
     <row r="62" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B62" s="163"/>
-      <c r="D62" s="158" t="s">
+      <c r="B62" s="177"/>
+      <c r="D62" s="168" t="s">
         <v>110</v>
       </c>
       <c r="E62" s="79" t="s">
@@ -9008,8 +9008,8 @@
       </c>
     </row>
     <row r="63" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B63" s="163"/>
-      <c r="D63" s="159"/>
+      <c r="B63" s="177"/>
+      <c r="D63" s="169"/>
       <c r="E63" s="82" t="s">
         <v>93</v>
       </c>
@@ -9109,8 +9109,8 @@
       </c>
     </row>
     <row r="64" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B64" s="163"/>
-      <c r="D64" s="159"/>
+      <c r="B64" s="177"/>
+      <c r="D64" s="169"/>
       <c r="E64" s="83" t="s">
         <v>93</v>
       </c>
@@ -9210,8 +9210,8 @@
       </c>
     </row>
     <row r="65" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B65" s="163"/>
-      <c r="D65" s="160"/>
+      <c r="B65" s="177"/>
+      <c r="D65" s="170"/>
       <c r="E65" s="79" t="s">
         <v>98</v>
       </c>
@@ -9311,8 +9311,8 @@
       </c>
     </row>
     <row r="66" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B66" s="163"/>
-      <c r="D66" s="160"/>
+      <c r="B66" s="177"/>
+      <c r="D66" s="170"/>
       <c r="E66" s="79" t="s">
         <v>98</v>
       </c>
@@ -9412,8 +9412,8 @@
       </c>
     </row>
     <row r="67" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B67" s="163"/>
-      <c r="D67" s="160"/>
+      <c r="B67" s="177"/>
+      <c r="D67" s="170"/>
       <c r="E67" s="79" t="s">
         <v>98</v>
       </c>
@@ -9513,8 +9513,8 @@
       </c>
     </row>
     <row r="68" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B68" s="163"/>
-      <c r="D68" s="160"/>
+      <c r="B68" s="177"/>
+      <c r="D68" s="170"/>
       <c r="E68" s="79" t="s">
         <v>100</v>
       </c>
@@ -9614,8 +9614,8 @@
       </c>
     </row>
     <row r="69" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B69" s="163"/>
-      <c r="D69" s="160"/>
+      <c r="B69" s="177"/>
+      <c r="D69" s="170"/>
       <c r="E69" s="79" t="s">
         <v>100</v>
       </c>
@@ -9715,8 +9715,8 @@
       </c>
     </row>
     <row r="70" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B70" s="163"/>
-      <c r="D70" s="160"/>
+      <c r="B70" s="177"/>
+      <c r="D70" s="170"/>
       <c r="E70" s="79" t="s">
         <v>100</v>
       </c>
@@ -9816,8 +9816,8 @@
       </c>
     </row>
     <row r="71" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B71" s="163"/>
-      <c r="D71" s="160"/>
+      <c r="B71" s="177"/>
+      <c r="D71" s="170"/>
       <c r="E71" s="79" t="s">
         <v>102</v>
       </c>
@@ -9950,8 +9950,8 @@
       <c r="BV71" s="5"/>
     </row>
     <row r="72" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B72" s="163"/>
-      <c r="D72" s="160"/>
+      <c r="B72" s="177"/>
+      <c r="D72" s="170"/>
       <c r="E72" s="79" t="s">
         <v>102</v>
       </c>
@@ -10084,8 +10084,8 @@
       <c r="BV72" s="5"/>
     </row>
     <row r="73" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B73" s="163"/>
-      <c r="D73" s="160"/>
+      <c r="B73" s="177"/>
+      <c r="D73" s="170"/>
       <c r="E73" s="79" t="s">
         <v>102</v>
       </c>
@@ -10218,8 +10218,8 @@
       <c r="BV73" s="5"/>
     </row>
     <row r="74" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B74" s="163"/>
-      <c r="D74" s="160"/>
+      <c r="B74" s="177"/>
+      <c r="D74" s="170"/>
       <c r="E74" s="79" t="s">
         <v>104</v>
       </c>
@@ -10352,8 +10352,8 @@
       <c r="BV74" s="5"/>
     </row>
     <row r="75" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B75" s="163"/>
-      <c r="D75" s="160"/>
+      <c r="B75" s="177"/>
+      <c r="D75" s="170"/>
       <c r="E75" s="79" t="s">
         <v>104</v>
       </c>
@@ -10486,8 +10486,8 @@
       <c r="BV75" s="5"/>
     </row>
     <row r="76" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B76" s="163"/>
-      <c r="D76" s="160"/>
+      <c r="B76" s="177"/>
+      <c r="D76" s="170"/>
       <c r="E76" s="79" t="s">
         <v>104</v>
       </c>
@@ -10620,13 +10620,13 @@
       <c r="BV76" s="5"/>
     </row>
     <row r="77" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B77" s="163"/>
+      <c r="B77" s="177"/>
       <c r="D77" s="84"/>
       <c r="E77" s="82"/>
       <c r="F77" s="82"/>
     </row>
     <row r="78" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B78" s="163"/>
+      <c r="B78" s="177"/>
       <c r="D78" s="40"/>
       <c r="E78" s="85"/>
       <c r="F78" s="85"/>
@@ -10722,8 +10722,8 @@
       </c>
     </row>
     <row r="79" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B79" s="163"/>
-      <c r="D79" s="158" t="s">
+      <c r="B79" s="177"/>
+      <c r="D79" s="168" t="s">
         <v>111</v>
       </c>
       <c r="E79" s="79" t="s">
@@ -10825,8 +10825,8 @@
       <c r="AO79" s="1"/>
     </row>
     <row r="80" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B80" s="163"/>
-      <c r="D80" s="159"/>
+      <c r="B80" s="177"/>
+      <c r="D80" s="169"/>
       <c r="E80" s="82" t="s">
         <v>93</v>
       </c>
@@ -10926,8 +10926,8 @@
       <c r="AO80" s="1"/>
     </row>
     <row r="81" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B81" s="163"/>
-      <c r="D81" s="159"/>
+      <c r="B81" s="177"/>
+      <c r="D81" s="169"/>
       <c r="E81" s="83" t="s">
         <v>93</v>
       </c>
@@ -11027,8 +11027,8 @@
       <c r="AO81" s="1"/>
     </row>
     <row r="82" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B82" s="164"/>
-      <c r="D82" s="160"/>
+      <c r="B82" s="178"/>
+      <c r="D82" s="170"/>
       <c r="E82" s="79" t="s">
         <v>98</v>
       </c>
@@ -11127,8 +11127,8 @@
       </c>
     </row>
     <row r="83" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B83" s="164"/>
-      <c r="D83" s="160"/>
+      <c r="B83" s="178"/>
+      <c r="D83" s="170"/>
       <c r="E83" s="79" t="s">
         <v>98</v>
       </c>
@@ -11227,8 +11227,8 @@
       </c>
     </row>
     <row r="84" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B84" s="164"/>
-      <c r="D84" s="160"/>
+      <c r="B84" s="178"/>
+      <c r="D84" s="170"/>
       <c r="E84" s="79" t="s">
         <v>98</v>
       </c>
@@ -11329,8 +11329,8 @@
       <c r="AL84" s="5"/>
     </row>
     <row r="85" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B85" s="164"/>
-      <c r="D85" s="160"/>
+      <c r="B85" s="178"/>
+      <c r="D85" s="170"/>
       <c r="E85" s="79" t="s">
         <v>100</v>
       </c>
@@ -11431,8 +11431,8 @@
       <c r="AL85" s="5"/>
     </row>
     <row r="86" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B86" s="164"/>
-      <c r="D86" s="160"/>
+      <c r="B86" s="178"/>
+      <c r="D86" s="170"/>
       <c r="E86" s="79" t="s">
         <v>100</v>
       </c>
@@ -11533,8 +11533,8 @@
       <c r="AL86" s="5"/>
     </row>
     <row r="87" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B87" s="164"/>
-      <c r="D87" s="160"/>
+      <c r="B87" s="178"/>
+      <c r="D87" s="170"/>
       <c r="E87" s="79" t="s">
         <v>100</v>
       </c>
@@ -11635,8 +11635,8 @@
       <c r="AL87" s="5"/>
     </row>
     <row r="88" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B88" s="164"/>
-      <c r="D88" s="160"/>
+      <c r="B88" s="178"/>
+      <c r="D88" s="170"/>
       <c r="E88" s="79" t="s">
         <v>102</v>
       </c>
@@ -11737,8 +11737,8 @@
       <c r="AL88" s="5"/>
     </row>
     <row r="89" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B89" s="164"/>
-      <c r="D89" s="160"/>
+      <c r="B89" s="178"/>
+      <c r="D89" s="170"/>
       <c r="E89" s="79" t="s">
         <v>102</v>
       </c>
@@ -11839,8 +11839,8 @@
       <c r="AL89" s="5"/>
     </row>
     <row r="90" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B90" s="164"/>
-      <c r="D90" s="160"/>
+      <c r="B90" s="178"/>
+      <c r="D90" s="170"/>
       <c r="E90" s="79" t="s">
         <v>102</v>
       </c>
@@ -11941,8 +11941,8 @@
       <c r="AL90" s="5"/>
     </row>
     <row r="91" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B91" s="164"/>
-      <c r="D91" s="160"/>
+      <c r="B91" s="178"/>
+      <c r="D91" s="170"/>
       <c r="E91" s="79" t="s">
         <v>104</v>
       </c>
@@ -12043,8 +12043,8 @@
       <c r="AL91" s="5"/>
     </row>
     <row r="92" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B92" s="164"/>
-      <c r="D92" s="160"/>
+      <c r="B92" s="178"/>
+      <c r="D92" s="170"/>
       <c r="E92" s="79" t="s">
         <v>104</v>
       </c>
@@ -12145,8 +12145,8 @@
       <c r="AL92" s="5"/>
     </row>
     <row r="93" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B93" s="164"/>
-      <c r="D93" s="160"/>
+      <c r="B93" s="178"/>
+      <c r="D93" s="170"/>
       <c r="E93" s="79" t="s">
         <v>104</v>
       </c>
@@ -12247,10 +12247,10 @@
       <c r="AL93" s="5"/>
     </row>
     <row r="94" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B94" s="164"/>
+      <c r="B94" s="178"/>
     </row>
     <row r="95" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="164"/>
+      <c r="B95" s="178"/>
       <c r="G95" s="1">
         <v>2021</v>
       </c>
@@ -12343,8 +12343,8 @@
       </c>
     </row>
     <row r="96" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B96" s="164"/>
-      <c r="D96" s="158" t="s">
+      <c r="B96" s="178"/>
+      <c r="D96" s="168" t="s">
         <v>112</v>
       </c>
       <c r="E96" s="79" t="s">
@@ -12445,8 +12445,8 @@
       </c>
     </row>
     <row r="97" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B97" s="164"/>
-      <c r="D97" s="159"/>
+      <c r="B97" s="178"/>
+      <c r="D97" s="169"/>
       <c r="E97" s="82" t="s">
         <v>93</v>
       </c>
@@ -12545,8 +12545,8 @@
       </c>
     </row>
     <row r="98" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B98" s="164"/>
-      <c r="D98" s="159"/>
+      <c r="B98" s="178"/>
+      <c r="D98" s="169"/>
       <c r="E98" s="83" t="s">
         <v>93</v>
       </c>
@@ -12645,8 +12645,8 @@
       </c>
     </row>
     <row r="99" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B99" s="164"/>
-      <c r="D99" s="160"/>
+      <c r="B99" s="178"/>
+      <c r="D99" s="170"/>
       <c r="E99" s="79" t="s">
         <v>98</v>
       </c>
@@ -12745,8 +12745,8 @@
       </c>
     </row>
     <row r="100" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B100" s="164"/>
-      <c r="D100" s="160"/>
+      <c r="B100" s="178"/>
+      <c r="D100" s="170"/>
       <c r="E100" s="79" t="s">
         <v>98</v>
       </c>
@@ -12845,8 +12845,8 @@
       </c>
     </row>
     <row r="101" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B101" s="164"/>
-      <c r="D101" s="160"/>
+      <c r="B101" s="178"/>
+      <c r="D101" s="170"/>
       <c r="E101" s="79" t="s">
         <v>98</v>
       </c>
@@ -12945,8 +12945,8 @@
       </c>
     </row>
     <row r="102" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B102" s="164"/>
-      <c r="D102" s="160"/>
+      <c r="B102" s="178"/>
+      <c r="D102" s="170"/>
       <c r="E102" s="79" t="s">
         <v>100</v>
       </c>
@@ -13045,8 +13045,8 @@
       </c>
     </row>
     <row r="103" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B103" s="164"/>
-      <c r="D103" s="160"/>
+      <c r="B103" s="178"/>
+      <c r="D103" s="170"/>
       <c r="E103" s="79" t="s">
         <v>100</v>
       </c>
@@ -13145,8 +13145,8 @@
       </c>
     </row>
     <row r="104" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B104" s="164"/>
-      <c r="D104" s="160"/>
+      <c r="B104" s="178"/>
+      <c r="D104" s="170"/>
       <c r="E104" s="79" t="s">
         <v>100</v>
       </c>
@@ -13245,8 +13245,8 @@
       </c>
     </row>
     <row r="105" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B105" s="164"/>
-      <c r="D105" s="160"/>
+      <c r="B105" s="178"/>
+      <c r="D105" s="170"/>
       <c r="E105" s="79" t="s">
         <v>102</v>
       </c>
@@ -13345,8 +13345,8 @@
       </c>
     </row>
     <row r="106" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B106" s="164"/>
-      <c r="D106" s="160"/>
+      <c r="B106" s="178"/>
+      <c r="D106" s="170"/>
       <c r="E106" s="79" t="s">
         <v>102</v>
       </c>
@@ -13445,8 +13445,8 @@
       </c>
     </row>
     <row r="107" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B107" s="164"/>
-      <c r="D107" s="160"/>
+      <c r="B107" s="178"/>
+      <c r="D107" s="170"/>
       <c r="E107" s="79" t="s">
         <v>102</v>
       </c>
@@ -13545,8 +13545,8 @@
       </c>
     </row>
     <row r="108" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B108" s="164"/>
-      <c r="D108" s="160"/>
+      <c r="B108" s="178"/>
+      <c r="D108" s="170"/>
       <c r="E108" s="79" t="s">
         <v>104</v>
       </c>
@@ -13645,8 +13645,8 @@
       </c>
     </row>
     <row r="109" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B109" s="164"/>
-      <c r="D109" s="160"/>
+      <c r="B109" s="178"/>
+      <c r="D109" s="170"/>
       <c r="E109" s="79" t="s">
         <v>104</v>
       </c>
@@ -13745,8 +13745,8 @@
       </c>
     </row>
     <row r="110" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B110" s="164"/>
-      <c r="D110" s="160"/>
+      <c r="B110" s="178"/>
+      <c r="D110" s="170"/>
       <c r="E110" s="79" t="s">
         <v>104</v>
       </c>
@@ -13845,10 +13845,10 @@
       </c>
     </row>
     <row r="111" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B111" s="164"/>
+      <c r="B111" s="178"/>
     </row>
     <row r="112" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B112" s="164"/>
+      <c r="B112" s="178"/>
       <c r="G112" s="1">
         <v>2021</v>
       </c>
@@ -13941,8 +13941,8 @@
       </c>
     </row>
     <row r="113" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B113" s="164"/>
-      <c r="D113" s="158" t="s">
+      <c r="B113" s="178"/>
+      <c r="D113" s="168" t="s">
         <v>113</v>
       </c>
       <c r="E113" s="79" t="s">
@@ -14044,8 +14044,8 @@
       </c>
     </row>
     <row r="114" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B114" s="164"/>
-      <c r="D114" s="159"/>
+      <c r="B114" s="178"/>
+      <c r="D114" s="169"/>
       <c r="E114" s="82" t="s">
         <v>93</v>
       </c>
@@ -14145,8 +14145,8 @@
       </c>
     </row>
     <row r="115" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B115" s="164"/>
-      <c r="D115" s="159"/>
+      <c r="B115" s="178"/>
+      <c r="D115" s="169"/>
       <c r="E115" s="83" t="s">
         <v>93</v>
       </c>
@@ -14246,8 +14246,8 @@
       </c>
     </row>
     <row r="116" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B116" s="164"/>
-      <c r="D116" s="160"/>
+      <c r="B116" s="178"/>
+      <c r="D116" s="170"/>
       <c r="E116" s="79" t="s">
         <v>98</v>
       </c>
@@ -14347,8 +14347,8 @@
       </c>
     </row>
     <row r="117" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B117" s="164"/>
-      <c r="D117" s="160"/>
+      <c r="B117" s="178"/>
+      <c r="D117" s="170"/>
       <c r="E117" s="79" t="s">
         <v>98</v>
       </c>
@@ -14448,8 +14448,8 @@
       </c>
     </row>
     <row r="118" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B118" s="164"/>
-      <c r="D118" s="160"/>
+      <c r="B118" s="178"/>
+      <c r="D118" s="170"/>
       <c r="E118" s="79" t="s">
         <v>98</v>
       </c>
@@ -14549,8 +14549,8 @@
       </c>
     </row>
     <row r="119" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B119" s="164"/>
-      <c r="D119" s="160"/>
+      <c r="B119" s="178"/>
+      <c r="D119" s="170"/>
       <c r="E119" s="79" t="s">
         <v>100</v>
       </c>
@@ -14650,8 +14650,8 @@
       </c>
     </row>
     <row r="120" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B120" s="164"/>
-      <c r="D120" s="160"/>
+      <c r="B120" s="178"/>
+      <c r="D120" s="170"/>
       <c r="E120" s="79" t="s">
         <v>100</v>
       </c>
@@ -14751,8 +14751,8 @@
       </c>
     </row>
     <row r="121" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B121" s="164"/>
-      <c r="D121" s="160"/>
+      <c r="B121" s="178"/>
+      <c r="D121" s="170"/>
       <c r="E121" s="79" t="s">
         <v>100</v>
       </c>
@@ -14852,8 +14852,8 @@
       </c>
     </row>
     <row r="122" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B122" s="164"/>
-      <c r="D122" s="160"/>
+      <c r="B122" s="178"/>
+      <c r="D122" s="170"/>
       <c r="E122" s="79" t="s">
         <v>102</v>
       </c>
@@ -14953,8 +14953,8 @@
       </c>
     </row>
     <row r="123" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B123" s="164"/>
-      <c r="D123" s="160"/>
+      <c r="B123" s="178"/>
+      <c r="D123" s="170"/>
       <c r="E123" s="79" t="s">
         <v>102</v>
       </c>
@@ -15054,8 +15054,8 @@
       </c>
     </row>
     <row r="124" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B124" s="164"/>
-      <c r="D124" s="160"/>
+      <c r="B124" s="178"/>
+      <c r="D124" s="170"/>
       <c r="E124" s="79" t="s">
         <v>102</v>
       </c>
@@ -15155,8 +15155,8 @@
       </c>
     </row>
     <row r="125" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B125" s="164"/>
-      <c r="D125" s="160"/>
+      <c r="B125" s="178"/>
+      <c r="D125" s="170"/>
       <c r="E125" s="79" t="s">
         <v>104</v>
       </c>
@@ -15256,8 +15256,8 @@
       </c>
     </row>
     <row r="126" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B126" s="164"/>
-      <c r="D126" s="160"/>
+      <c r="B126" s="178"/>
+      <c r="D126" s="170"/>
       <c r="E126" s="79" t="s">
         <v>104</v>
       </c>
@@ -15357,8 +15357,8 @@
       </c>
     </row>
     <row r="127" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B127" s="164"/>
-      <c r="D127" s="160"/>
+      <c r="B127" s="178"/>
+      <c r="D127" s="170"/>
       <c r="E127" s="79" t="s">
         <v>104</v>
       </c>
@@ -15461,23 +15461,23 @@
       <c r="B128" s="87"/>
     </row>
     <row r="129" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B129" s="162" t="s">
+      <c r="B129" s="171" t="s">
         <v>114</v>
       </c>
-      <c r="C129" s="161"/>
-      <c r="D129" s="161"/>
-      <c r="E129" s="161"/>
-      <c r="F129" s="161"/>
-      <c r="G129" s="161"/>
-      <c r="H129" s="161"/>
-      <c r="I129" s="161"/>
-      <c r="J129" s="161"/>
-      <c r="K129" s="161"/>
-      <c r="L129" s="161"/>
-      <c r="M129" s="161"/>
-      <c r="N129" s="161"/>
-      <c r="O129" s="161"/>
-      <c r="P129" s="161"/>
+      <c r="C129" s="145"/>
+      <c r="D129" s="145"/>
+      <c r="E129" s="145"/>
+      <c r="F129" s="145"/>
+      <c r="G129" s="145"/>
+      <c r="H129" s="145"/>
+      <c r="I129" s="145"/>
+      <c r="J129" s="145"/>
+      <c r="K129" s="145"/>
+      <c r="L129" s="145"/>
+      <c r="M129" s="145"/>
+      <c r="N129" s="145"/>
+      <c r="O129" s="145"/>
+      <c r="P129" s="145"/>
       <c r="Q129" s="50"/>
       <c r="R129" s="50"/>
       <c r="S129" s="50"/>
@@ -15512,21 +15512,21 @@
     </row>
     <row r="131" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B131" s="40"/>
-      <c r="C131" s="152" t="s">
+      <c r="C131" s="172" t="s">
         <v>115</v>
       </c>
-      <c r="D131" s="153"/>
-      <c r="E131" s="153"/>
-      <c r="F131" s="153"/>
-      <c r="G131" s="153"/>
-      <c r="H131" s="153"/>
-      <c r="I131" s="155" t="s">
+      <c r="D131" s="173"/>
+      <c r="E131" s="173"/>
+      <c r="F131" s="173"/>
+      <c r="G131" s="173"/>
+      <c r="H131" s="173"/>
+      <c r="I131" s="174" t="s">
         <v>116</v>
       </c>
-      <c r="J131" s="156"/>
-      <c r="K131" s="156"/>
-      <c r="L131" s="156"/>
-      <c r="M131" s="157"/>
+      <c r="J131" s="175"/>
+      <c r="K131" s="175"/>
+      <c r="L131" s="175"/>
+      <c r="M131" s="176"/>
       <c r="N131" s="89" t="s">
         <v>117</v>
       </c>
@@ -15544,14 +15544,14 @@
     </row>
     <row r="132" spans="2:28" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="40"/>
-      <c r="C132" s="142" t="s">
+      <c r="C132" s="162" t="s">
         <v>119</v>
       </c>
-      <c r="D132" s="143"/>
-      <c r="E132" s="143"/>
-      <c r="F132" s="143"/>
-      <c r="G132" s="143"/>
-      <c r="H132" s="144"/>
+      <c r="D132" s="163"/>
+      <c r="E132" s="163"/>
+      <c r="F132" s="163"/>
+      <c r="G132" s="163"/>
+      <c r="H132" s="164"/>
       <c r="I132" t="s">
         <v>95</v>
       </c>
@@ -15562,14 +15562,14 @@
     </row>
     <row r="133" spans="2:28" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="40"/>
-      <c r="C133" s="142" t="s">
+      <c r="C133" s="162" t="s">
         <v>120</v>
       </c>
-      <c r="D133" s="143"/>
-      <c r="E133" s="143"/>
-      <c r="F133" s="143"/>
-      <c r="G133" s="143"/>
-      <c r="H133" s="144"/>
+      <c r="D133" s="163"/>
+      <c r="E133" s="163"/>
+      <c r="F133" s="163"/>
+      <c r="G133" s="163"/>
+      <c r="H133" s="164"/>
       <c r="I133" s="100" t="s">
         <v>95</v>
       </c>
@@ -15592,21 +15592,21 @@
     </row>
     <row r="134" spans="2:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="40"/>
-      <c r="C134" s="142" t="s">
+      <c r="C134" s="162" t="s">
         <v>109</v>
       </c>
-      <c r="D134" s="143"/>
-      <c r="E134" s="143"/>
-      <c r="F134" s="143"/>
-      <c r="G134" s="143"/>
-      <c r="H134" s="144"/>
-      <c r="I134" s="148" t="s">
+      <c r="D134" s="163"/>
+      <c r="E134" s="163"/>
+      <c r="F134" s="163"/>
+      <c r="G134" s="163"/>
+      <c r="H134" s="164"/>
+      <c r="I134" s="165" t="s">
         <v>122</v>
       </c>
-      <c r="J134" s="149"/>
-      <c r="K134" s="149"/>
-      <c r="L134" s="149"/>
-      <c r="M134" s="150"/>
+      <c r="J134" s="166"/>
+      <c r="K134" s="166"/>
+      <c r="L134" s="166"/>
+      <c r="M134" s="167"/>
       <c r="N134" s="105"/>
       <c r="O134" s="105"/>
       <c r="P134" s="106"/>
@@ -15620,21 +15620,21 @@
     </row>
     <row r="135" spans="2:28" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="40"/>
-      <c r="C135" s="142" t="s">
+      <c r="C135" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="D135" s="143"/>
-      <c r="E135" s="143"/>
-      <c r="F135" s="143"/>
-      <c r="G135" s="143"/>
-      <c r="H135" s="144"/>
-      <c r="I135" s="148" t="s">
+      <c r="D135" s="163"/>
+      <c r="E135" s="163"/>
+      <c r="F135" s="163"/>
+      <c r="G135" s="163"/>
+      <c r="H135" s="164"/>
+      <c r="I135" s="165" t="s">
         <v>124</v>
       </c>
-      <c r="J135" s="149"/>
-      <c r="K135" s="149"/>
-      <c r="L135" s="149"/>
-      <c r="M135" s="150"/>
+      <c r="J135" s="166"/>
+      <c r="K135" s="166"/>
+      <c r="L135" s="166"/>
+      <c r="M135" s="167"/>
       <c r="N135" s="105"/>
       <c r="O135" s="105"/>
       <c r="P135" s="106"/>
@@ -15648,14 +15648,14 @@
     </row>
     <row r="136" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B136" s="40"/>
-      <c r="C136" s="142" t="s">
+      <c r="C136" s="162" t="s">
         <v>125</v>
       </c>
-      <c r="D136" s="143"/>
-      <c r="E136" s="143"/>
-      <c r="F136" s="143"/>
-      <c r="G136" s="143"/>
-      <c r="H136" s="144"/>
+      <c r="D136" s="163"/>
+      <c r="E136" s="163"/>
+      <c r="F136" s="163"/>
+      <c r="G136" s="163"/>
+      <c r="H136" s="164"/>
       <c r="I136" s="108" t="s">
         <v>95</v>
       </c>
@@ -15676,14 +15676,14 @@
     </row>
     <row r="137" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B137" s="40"/>
-      <c r="C137" s="145" t="s">
+      <c r="C137" s="179" t="s">
         <v>126</v>
       </c>
-      <c r="D137" s="146"/>
-      <c r="E137" s="146"/>
-      <c r="F137" s="146"/>
-      <c r="G137" s="146"/>
-      <c r="H137" s="147"/>
+      <c r="D137" s="180"/>
+      <c r="E137" s="180"/>
+      <c r="F137" s="180"/>
+      <c r="G137" s="180"/>
+      <c r="H137" s="181"/>
       <c r="I137" s="112" t="s">
         <v>95</v>
       </c>
@@ -15704,12 +15704,12 @@
     </row>
     <row r="138" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B138" s="40"/>
-      <c r="C138" s="151"/>
-      <c r="D138" s="151"/>
-      <c r="E138" s="151"/>
-      <c r="F138" s="151"/>
-      <c r="G138" s="151"/>
-      <c r="H138" s="151"/>
+      <c r="C138" s="182"/>
+      <c r="D138" s="182"/>
+      <c r="E138" s="182"/>
+      <c r="F138" s="182"/>
+      <c r="G138" s="182"/>
+      <c r="H138" s="182"/>
       <c r="I138" s="116"/>
       <c r="J138" s="116"/>
       <c r="K138" s="116"/>
@@ -15728,21 +15728,21 @@
     </row>
     <row r="139" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B139" s="40"/>
-      <c r="C139" s="152" t="s">
+      <c r="C139" s="172" t="s">
         <v>127</v>
       </c>
-      <c r="D139" s="153"/>
-      <c r="E139" s="153"/>
-      <c r="F139" s="153"/>
-      <c r="G139" s="153"/>
-      <c r="H139" s="154"/>
-      <c r="I139" s="155" t="s">
+      <c r="D139" s="173"/>
+      <c r="E139" s="173"/>
+      <c r="F139" s="173"/>
+      <c r="G139" s="173"/>
+      <c r="H139" s="183"/>
+      <c r="I139" s="174" t="s">
         <v>116</v>
       </c>
-      <c r="J139" s="156"/>
-      <c r="K139" s="156"/>
-      <c r="L139" s="156"/>
-      <c r="M139" s="157"/>
+      <c r="J139" s="175"/>
+      <c r="K139" s="175"/>
+      <c r="L139" s="175"/>
+      <c r="M139" s="176"/>
       <c r="N139" s="89" t="s">
         <v>117</v>
       </c>
@@ -15760,14 +15760,14 @@
     </row>
     <row r="140" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B140" s="40"/>
-      <c r="C140" s="142" t="s">
+      <c r="C140" s="162" t="s">
         <v>120</v>
       </c>
-      <c r="D140" s="143"/>
-      <c r="E140" s="143"/>
-      <c r="F140" s="143"/>
-      <c r="G140" s="143"/>
-      <c r="H140" s="144"/>
+      <c r="D140" s="163"/>
+      <c r="E140" s="163"/>
+      <c r="F140" s="163"/>
+      <c r="G140" s="163"/>
+      <c r="H140" s="164"/>
       <c r="I140" s="100" t="s">
         <v>95</v>
       </c>
@@ -15851,14 +15851,14 @@
     </row>
     <row r="143" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B143" s="40"/>
-      <c r="C143" s="142" t="s">
+      <c r="C143" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="D143" s="143"/>
-      <c r="E143" s="143"/>
-      <c r="F143" s="143"/>
-      <c r="G143" s="143"/>
-      <c r="H143" s="144"/>
+      <c r="D143" s="163"/>
+      <c r="E143" s="163"/>
+      <c r="F143" s="163"/>
+      <c r="G143" s="163"/>
+      <c r="H143" s="164"/>
       <c r="I143" s="122" t="s">
         <v>128</v>
       </c>
@@ -15879,14 +15879,14 @@
     </row>
     <row r="144" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B144" s="40"/>
-      <c r="C144" s="142" t="s">
+      <c r="C144" s="162" t="s">
         <v>125</v>
       </c>
-      <c r="D144" s="143"/>
-      <c r="E144" s="143"/>
-      <c r="F144" s="143"/>
-      <c r="G144" s="143"/>
-      <c r="H144" s="144"/>
+      <c r="D144" s="163"/>
+      <c r="E144" s="163"/>
+      <c r="F144" s="163"/>
+      <c r="G144" s="163"/>
+      <c r="H144" s="164"/>
       <c r="I144" s="122" t="s">
         <v>128</v>
       </c>
@@ -15907,14 +15907,14 @@
     </row>
     <row r="145" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B145" s="40"/>
-      <c r="C145" s="145" t="s">
+      <c r="C145" s="179" t="s">
         <v>131</v>
       </c>
-      <c r="D145" s="146"/>
-      <c r="E145" s="146"/>
-      <c r="F145" s="146"/>
-      <c r="G145" s="146"/>
-      <c r="H145" s="147"/>
+      <c r="D145" s="180"/>
+      <c r="E145" s="180"/>
+      <c r="F145" s="180"/>
+      <c r="G145" s="180"/>
+      <c r="H145" s="181"/>
       <c r="I145" s="112" t="s">
         <v>95</v>
       </c>
@@ -16166,16 +16166,17 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="C7:Q7"/>
-    <mergeCell ref="B9:B36"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="C15:P16"/>
+    <mergeCell ref="C140:H140"/>
+    <mergeCell ref="C143:H143"/>
+    <mergeCell ref="C144:H144"/>
+    <mergeCell ref="C145:H145"/>
+    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="I135:M135"/>
+    <mergeCell ref="C136:H136"/>
+    <mergeCell ref="C137:H137"/>
+    <mergeCell ref="C138:H138"/>
+    <mergeCell ref="C139:H139"/>
+    <mergeCell ref="I139:M139"/>
     <mergeCell ref="C134:H134"/>
     <mergeCell ref="I134:M134"/>
     <mergeCell ref="D17:D27"/>
@@ -16192,17 +16193,16 @@
     <mergeCell ref="D79:D93"/>
     <mergeCell ref="D96:D110"/>
     <mergeCell ref="D113:D127"/>
-    <mergeCell ref="I135:M135"/>
-    <mergeCell ref="C136:H136"/>
-    <mergeCell ref="C137:H137"/>
-    <mergeCell ref="C138:H138"/>
-    <mergeCell ref="C139:H139"/>
-    <mergeCell ref="I139:M139"/>
-    <mergeCell ref="C140:H140"/>
-    <mergeCell ref="C143:H143"/>
-    <mergeCell ref="C144:H144"/>
-    <mergeCell ref="C145:H145"/>
-    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="C7:Q7"/>
+    <mergeCell ref="B9:B36"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="C15:P16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M1" r:id="rId1" display="https://atb.nrel.gov/electricity/2022/utility-scale_battery_storage" xr:uid="{7816EC9A-0454-4087-A6E1-F971C99AA20E}"/>
@@ -17060,17 +17060,17 @@
   <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AE2"/>
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B1">
         <v>2021</v>
@@ -17165,7 +17165,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2">
         <v>272875</v>
@@ -17177,85 +17177,85 @@
         <v>303546</v>
       </c>
       <c r="E2">
-        <v>277345</v>
+        <v>275720</v>
       </c>
       <c r="F2">
-        <v>256728</v>
+        <v>254008</v>
       </c>
       <c r="G2">
-        <v>240275</v>
+        <v>237399</v>
       </c>
       <c r="H2">
-        <v>226464</v>
+        <v>223663</v>
       </c>
       <c r="I2">
-        <v>214618</v>
+        <v>212018</v>
       </c>
       <c r="J2">
-        <v>204553</v>
+        <v>202332</v>
       </c>
       <c r="K2">
-        <v>196075</v>
+        <v>194107</v>
       </c>
       <c r="L2">
-        <v>188655</v>
+        <v>186872</v>
       </c>
       <c r="M2">
-        <v>182183</v>
+        <v>180500</v>
       </c>
       <c r="N2">
-        <v>176401</v>
+        <v>174745</v>
       </c>
       <c r="O2">
-        <v>171611</v>
+        <v>169959</v>
       </c>
       <c r="P2">
-        <v>167430</v>
+        <v>165780</v>
       </c>
       <c r="Q2">
-        <v>163809</v>
+        <v>162166</v>
       </c>
       <c r="R2">
-        <v>160633</v>
+        <v>159002</v>
       </c>
       <c r="S2">
-        <v>157780</v>
+        <v>156172</v>
       </c>
       <c r="T2">
-        <v>155218</v>
+        <v>153632</v>
       </c>
       <c r="U2">
-        <v>152921</v>
+        <v>151363</v>
       </c>
       <c r="V2">
-        <v>150890</v>
+        <v>149361</v>
       </c>
       <c r="W2">
-        <v>149018</v>
+        <v>147535</v>
       </c>
       <c r="X2">
-        <v>147310</v>
+        <v>145853</v>
       </c>
       <c r="Y2">
-        <v>145744</v>
+        <v>144309</v>
       </c>
       <c r="Z2">
-        <v>144287</v>
+        <v>142883</v>
       </c>
       <c r="AA2">
-        <v>142963</v>
+        <v>141583</v>
       </c>
       <c r="AB2">
-        <v>141726</v>
+        <v>140367</v>
       </c>
       <c r="AC2">
-        <v>140576</v>
+        <v>139237</v>
       </c>
       <c r="AD2">
-        <v>139495</v>
+        <v>138175</v>
       </c>
       <c r="AE2">
-        <v>138485</v>
+        <v>137182</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -17378,7 +17378,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5">
         <v>2021</v>
@@ -17473,7 +17473,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B6">
         <v>253384</v>

--- a/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
+++ b/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\BCpUC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\elec\BCpUC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F6D865-6970-43AC-AAE4-3A52F19D49FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2023F6E8-4F57-4EF1-831B-D65E2CCCF5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="152">
   <si>
     <t>Year</t>
   </si>
@@ -270,9 +270,6 @@
     <t>Base Year:</t>
   </si>
   <si>
-    <t>All values are given in 2021 U.S. dollars, see references at the bottom of this worksheet for dollar year conversions where source dollar years don't match 2021.</t>
-  </si>
-  <si>
     <t>Utility Scale Battery Storage</t>
   </si>
   <si>
@@ -296,9 +293,6 @@
       </rPr>
       <t xml:space="preserve"> storage (4 hours)</t>
     </r>
-  </si>
-  <si>
-    <t>Reference: Battery Storage cost values from W. Cole and A. Karmakar, “Cost Projections for Utility-scale Battery Storage: 2023 Update,” NREL/TP-6A40-85332. Golden, CO: National Renewable Energy Laboratory. https://www.nrel.gov/docs/fy23osti/85332.pdf. Note that values are converted to 2021$ for the ATB.</t>
   </si>
   <si>
     <t>Capital Cost ($/kWh)</t>
@@ -380,9 +374,6 @@
   </si>
   <si>
     <t>Future Projections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All values are given in 2021 U.S. dollars, using the Consumer Price Index (BLS, 2022) for dollar year conversions. </t>
   </si>
   <si>
     <t>For 15-year technical life (values in 2021$):</t>
@@ -512,6 +503,18 @@
   </si>
   <si>
     <t>Battery Power Cost per Unit Capacity : MostRecentRun</t>
+  </si>
+  <si>
+    <t>2021 (from 2023 ATB)</t>
+  </si>
+  <si>
+    <t>All values are given in 2022 U.S. dollars except 2021 data.</t>
+  </si>
+  <si>
+    <t>Reference: Battery Storage cost values from W. Cole and A. Karmakar, “Cost Projections for Utility-scale Battery Storage: 2023 Update,” NREL/TP-6A40-85332. Golden, CO: National Renewable Energy Laboratory. https://www.nrel.gov/docs/fy23osti/85332.pdf.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All values are given in 2022 U.S. dollars except for 2021 values from ATB 2023 </t>
   </si>
 </sst>
 </file>
@@ -1968,15 +1971,69 @@
     <xf numFmtId="5" fontId="10" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="10" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -2023,60 +2080,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4610,10 +4613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD49"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4629,7 +4632,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4717,7 +4720,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -4762,12 +4765,12 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -4777,12 +4780,12 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -4792,7 +4795,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -4807,7 +4810,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -4836,7 +4839,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <v>0.89805481563188172</v>
       </c>
@@ -4844,7 +4847,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="38">
         <v>0.88711067149387013</v>
       </c>
@@ -4852,30 +4855,34 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="38">
         <v>0.84730412960844359</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="C51">
+        <f>cpi_2022_to_2012/A51</f>
+        <v>0.92590251319813455</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="38">
         <v>0.78452102304761584</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -4895,8 +4902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734360E0-DC8F-4FFB-9748-D4950767514E}">
   <dimension ref="A1:DD222"/>
   <sheetViews>
-    <sheetView topLeftCell="F10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4911,19 +4918,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:108" s="40" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="165" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
       <c r="M1" s="3" t="s">
         <v>68</v>
       </c>
@@ -5053,12 +5060,12 @@
     </row>
     <row r="4" spans="1:108" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="44"/>
-      <c r="L4" s="143" t="s">
+      <c r="L4" s="166" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:108" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L5" s="144"/>
+      <c r="L5" s="167"/>
     </row>
     <row r="6" spans="1:108" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H6" s="45"/>
@@ -5090,23 +5097,23 @@
       <c r="B7" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="145" t="s">
+      <c r="C7" s="161" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
-      <c r="O7" s="145"/>
-      <c r="P7" s="145"/>
-      <c r="Q7" s="145"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
+      <c r="L7" s="161"/>
+      <c r="M7" s="161"/>
+      <c r="N7" s="161"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="161"/>
       <c r="R7" s="50"/>
       <c r="S7" s="50"/>
       <c r="T7" s="50"/>
@@ -5124,43 +5131,43 @@
     </row>
     <row r="9" spans="1:108" s="40" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9"/>
-      <c r="B9" s="146" t="s">
+      <c r="B9" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="147" t="s">
+      <c r="D9" s="169" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="148"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="150">
-        <v>2021</v>
-      </c>
-      <c r="H9" s="151"/>
-      <c r="I9" s="151"/>
-      <c r="J9" s="151"/>
-      <c r="K9" s="152"/>
-      <c r="L9" s="152"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="172">
+        <v>2022</v>
+      </c>
+      <c r="H9" s="173"/>
+      <c r="I9" s="173"/>
+      <c r="J9" s="173"/>
+      <c r="K9" s="174"/>
+      <c r="L9" s="174"/>
     </row>
     <row r="10" spans="1:108" s="40" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="146"/>
+      <c r="B10" s="168"/>
       <c r="D10" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="J10" s="52"/>
+    </row>
+    <row r="11" spans="1:108" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="168"/>
+      <c r="D11" s="175" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="52"/>
-    </row>
-    <row r="11" spans="1:108" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="146"/>
-      <c r="D11" s="153" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="154"/>
-      <c r="L11" s="154"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="176"/>
+      <c r="J11" s="176"/>
+      <c r="K11" s="176"/>
+      <c r="L11" s="176"/>
       <c r="W11" s="54"/>
       <c r="X11" s="55"/>
       <c r="Y11" s="55"/>
@@ -5168,18 +5175,18 @@
       <c r="AA11" s="55"/>
     </row>
     <row r="12" spans="1:108" s="40" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="146"/>
-      <c r="D12" s="155" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="157"/>
+      <c r="B12" s="168"/>
+      <c r="D12" s="177" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="178"/>
+      <c r="F12" s="178"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="178"/>
+      <c r="J12" s="178"/>
+      <c r="K12" s="178"/>
+      <c r="L12" s="179"/>
       <c r="M12" s="56"/>
       <c r="W12" s="54"/>
       <c r="X12" s="55"/>
@@ -5188,16 +5195,16 @@
       <c r="AA12" s="55"/>
     </row>
     <row r="13" spans="1:108" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="146"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="159"/>
-      <c r="K13" s="159"/>
-      <c r="L13" s="160"/>
+      <c r="B13" s="168"/>
+      <c r="D13" s="180"/>
+      <c r="E13" s="181"/>
+      <c r="F13" s="181"/>
+      <c r="G13" s="181"/>
+      <c r="H13" s="181"/>
+      <c r="I13" s="181"/>
+      <c r="J13" s="181"/>
+      <c r="K13" s="181"/>
+      <c r="L13" s="182"/>
       <c r="W13" s="54"/>
       <c r="X13" s="55"/>
       <c r="Y13" s="55"/>
@@ -5205,61 +5212,61 @@
       <c r="AA13" s="55"/>
     </row>
     <row r="14" spans="1:108" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="146"/>
-    </row>
-    <row r="15" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="B15" s="146"/>
-      <c r="C15" s="161" t="s">
+      <c r="B14" s="168"/>
+    </row>
+    <row r="15" spans="1:108" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="168"/>
+      <c r="C15" s="183" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="183"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="183"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="183"/>
+      <c r="I15" s="183"/>
+      <c r="J15" s="183"/>
+      <c r="K15" s="183"/>
+      <c r="L15" s="183"/>
+      <c r="M15" s="183"/>
+      <c r="N15" s="183"/>
+      <c r="O15" s="183"/>
+      <c r="P15" s="183"/>
+      <c r="Q15" s="57"/>
+    </row>
+    <row r="16" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="B16" s="168"/>
+      <c r="C16" s="183"/>
+      <c r="D16" s="183"/>
+      <c r="E16" s="183"/>
+      <c r="F16" s="183"/>
+      <c r="G16" s="183"/>
+      <c r="H16" s="183"/>
+      <c r="I16" s="183"/>
+      <c r="J16" s="183"/>
+      <c r="K16" s="183"/>
+      <c r="L16" s="183"/>
+      <c r="M16" s="183"/>
+      <c r="N16" s="183"/>
+      <c r="O16" s="183"/>
+      <c r="P16" s="183"/>
+    </row>
+    <row r="17" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="168"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="158" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="161"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="161"/>
-      <c r="K15" s="161"/>
-      <c r="L15" s="161"/>
-      <c r="M15" s="161"/>
-      <c r="N15" s="161"/>
-      <c r="O15" s="161"/>
-      <c r="P15" s="161"/>
-      <c r="Q15" s="57"/>
-    </row>
-    <row r="16" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="B16" s="146"/>
-      <c r="C16" s="161"/>
-      <c r="D16" s="161"/>
-      <c r="E16" s="161"/>
-      <c r="F16" s="161"/>
-      <c r="G16" s="161"/>
-      <c r="H16" s="161"/>
-      <c r="I16" s="161"/>
-      <c r="J16" s="161"/>
-      <c r="K16" s="161"/>
-      <c r="L16" s="161"/>
-      <c r="M16" s="161"/>
-      <c r="N16" s="161"/>
-      <c r="O16" s="161"/>
-      <c r="P16" s="161"/>
-    </row>
-    <row r="17" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="146"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="168" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="18" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="146"/>
+      <c r="B18" s="168"/>
       <c r="C18" s="58"/>
-      <c r="D18" s="169"/>
-      <c r="F18" s="1">
-        <v>2021</v>
+      <c r="D18" s="159"/>
+      <c r="F18" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="G18" s="1">
         <v>2022</v>
@@ -5350,11 +5357,11 @@
       </c>
     </row>
     <row r="19" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="146"/>
+      <c r="B19" s="168"/>
       <c r="C19" s="58"/>
-      <c r="D19" s="169"/>
+      <c r="D19" s="159"/>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F19" s="59">
         <v>322.051049922</v>
@@ -5448,11 +5455,11 @@
       </c>
     </row>
     <row r="20" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="146"/>
+      <c r="B20" s="168"/>
       <c r="C20" s="58"/>
-      <c r="D20" s="170"/>
+      <c r="D20" s="160"/>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F20" s="59">
         <v>322.051049922</v>
@@ -5546,11 +5553,11 @@
       </c>
     </row>
     <row r="21" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="146"/>
+      <c r="B21" s="168"/>
       <c r="C21" s="58"/>
-      <c r="D21" s="170"/>
+      <c r="D21" s="160"/>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F21" s="59">
         <v>322.051049922</v>
@@ -5644,9 +5651,9 @@
       </c>
     </row>
     <row r="22" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="146"/>
+      <c r="B22" s="168"/>
       <c r="C22" s="58"/>
-      <c r="D22" s="170"/>
+      <c r="D22" s="160"/>
       <c r="F22" s="60"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -5679,20 +5686,20 @@
       <c r="AI22" s="5"/>
     </row>
     <row r="23" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="146"/>
+      <c r="B23" s="168"/>
       <c r="C23" s="58"/>
-      <c r="D23" s="170"/>
+      <c r="D23" s="160"/>
       <c r="E23" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F23" s="60"/>
     </row>
     <row r="24" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="146"/>
+      <c r="B24" s="168"/>
       <c r="C24" s="58"/>
-      <c r="D24" s="170"/>
-      <c r="F24" s="1">
-        <v>2021</v>
+      <c r="D24" s="160"/>
+      <c r="F24" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="G24" s="1">
         <v>2022</v>
@@ -5783,11 +5790,11 @@
       </c>
     </row>
     <row r="25" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="146"/>
+      <c r="B25" s="168"/>
       <c r="C25" s="58"/>
-      <c r="D25" s="170"/>
+      <c r="D25" s="160"/>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F25" s="59">
         <v>299.04780031199999</v>
@@ -5881,11 +5888,11 @@
       </c>
     </row>
     <row r="26" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="146"/>
+      <c r="B26" s="168"/>
       <c r="C26" s="58"/>
-      <c r="D26" s="170"/>
+      <c r="D26" s="160"/>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F26" s="59">
         <v>299.04780031199999</v>
@@ -5979,11 +5986,11 @@
       </c>
     </row>
     <row r="27" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="146"/>
+      <c r="B27" s="168"/>
       <c r="C27" s="58"/>
-      <c r="D27" s="170"/>
+      <c r="D27" s="160"/>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F27" s="59">
         <v>299.04780031199999</v>
@@ -6077,7 +6084,7 @@
       </c>
     </row>
     <row r="28" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="146"/>
+      <c r="B28" s="168"/>
       <c r="C28" s="58"/>
       <c r="D28" s="58"/>
       <c r="G28" s="5"/>
@@ -6115,11 +6122,11 @@
       <c r="AM28" s="5"/>
     </row>
     <row r="29" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="146"/>
+      <c r="B29" s="168"/>
       <c r="C29" s="58"/>
       <c r="D29" s="58"/>
       <c r="E29" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="5"/>
@@ -6157,7 +6164,7 @@
       <c r="AM29" s="5"/>
     </row>
     <row r="30" spans="2:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="146"/>
+      <c r="B30" s="168"/>
       <c r="C30" s="58"/>
       <c r="D30" s="58"/>
       <c r="E30" s="1"/>
@@ -6197,25 +6204,25 @@
       <c r="AM30" s="5"/>
     </row>
     <row r="31" spans="2:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="146"/>
+      <c r="B31" s="168"/>
       <c r="C31" s="58"/>
-      <c r="D31" s="169" t="s">
+      <c r="D31" s="159" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="61" t="s">
+      <c r="G31" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="F31" s="62" t="s">
+      <c r="H31" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="G31" s="62" t="s">
+      <c r="I31" s="63" t="s">
         <v>90</v>
-      </c>
-      <c r="H31" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="I31" s="63" t="s">
-        <v>92</v>
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="64"/>
@@ -6249,23 +6256,23 @@
       <c r="AM31" s="5"/>
     </row>
     <row r="32" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="146"/>
+      <c r="B32" s="168"/>
       <c r="C32" s="58"/>
-      <c r="D32" s="169"/>
+      <c r="D32" s="159"/>
       <c r="E32" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="67" t="s">
+      <c r="H32" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="G32" s="67" t="s">
+      <c r="I32" s="68" t="s">
         <v>95</v>
-      </c>
-      <c r="H32" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="I32" s="68" t="s">
-        <v>97</v>
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="64"/>
@@ -6299,23 +6306,23 @@
       <c r="AM32" s="5"/>
     </row>
     <row r="33" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="146"/>
+      <c r="B33" s="168"/>
       <c r="C33" s="58"/>
-      <c r="D33" s="169"/>
+      <c r="D33" s="159"/>
       <c r="E33" s="69" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F33" s="70" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G33" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33" s="71" t="s">
         <v>95</v>
-      </c>
-      <c r="H33" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="I33" s="71" t="s">
-        <v>97</v>
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="64"/>
@@ -6349,23 +6356,23 @@
       <c r="AM33" s="5"/>
     </row>
     <row r="34" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="146"/>
+      <c r="B34" s="168"/>
       <c r="C34" s="58"/>
-      <c r="D34" s="169"/>
+      <c r="D34" s="159"/>
       <c r="E34" s="72" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F34" s="73" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G34" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="H34" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="I34" s="74" t="s">
         <v>95</v>
-      </c>
-      <c r="H34" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="I34" s="74" t="s">
-        <v>97</v>
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="64"/>
@@ -6399,23 +6406,23 @@
       <c r="AM34" s="5"/>
     </row>
     <row r="35" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="146"/>
+      <c r="B35" s="168"/>
       <c r="C35" s="58"/>
-      <c r="D35" s="169"/>
+      <c r="D35" s="159"/>
       <c r="E35" s="69" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F35" s="70" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G35" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="H35" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="I35" s="71" t="s">
         <v>95</v>
-      </c>
-      <c r="H35" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="I35" s="71" t="s">
-        <v>97</v>
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="64"/>
@@ -6449,23 +6456,23 @@
       <c r="AM35" s="5"/>
     </row>
     <row r="36" spans="2:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="146"/>
+      <c r="B36" s="168"/>
       <c r="C36" s="58"/>
-      <c r="D36" s="169"/>
+      <c r="D36" s="159"/>
       <c r="E36" s="75" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F36" s="76" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G36" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36" s="77" t="s">
         <v>95</v>
-      </c>
-      <c r="H36" s="76" t="s">
-        <v>96</v>
-      </c>
-      <c r="I36" s="77" t="s">
-        <v>97</v>
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="64"/>
@@ -6538,23 +6545,23 @@
       <c r="AM37" s="5"/>
     </row>
     <row r="38" spans="2:74" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="145" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="145"/>
-      <c r="E38" s="145"/>
-      <c r="F38" s="145"/>
-      <c r="G38" s="145"/>
-      <c r="H38" s="145"/>
-      <c r="I38" s="145"/>
-      <c r="J38" s="145"/>
-      <c r="K38" s="145"/>
-      <c r="L38" s="145"/>
-      <c r="M38" s="145"/>
-      <c r="N38" s="145"/>
-      <c r="O38" s="145"/>
-      <c r="P38" s="145"/>
-      <c r="Q38" s="145"/>
+      <c r="C38" s="161" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="161"/>
+      <c r="E38" s="161"/>
+      <c r="F38" s="161"/>
+      <c r="G38" s="161"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="161"/>
+      <c r="J38" s="161"/>
+      <c r="K38" s="161"/>
+      <c r="L38" s="161"/>
+      <c r="M38" s="161"/>
+      <c r="N38" s="161"/>
+      <c r="O38" s="161"/>
+      <c r="P38" s="161"/>
+      <c r="Q38" s="161"/>
       <c r="R38" s="50"/>
       <c r="S38" s="50"/>
       <c r="T38" s="50"/>
@@ -6586,17 +6593,17 @@
     <row r="39" spans="2:74" s="40" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D40" s="53" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="2:74" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="G42" s="1">
-        <v>2021</v>
+      <c r="G42" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="H42" s="1">
         <v>2022</v>
@@ -6687,17 +6694,17 @@
       </c>
     </row>
     <row r="43" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="177" t="s">
+      <c r="B43" s="163" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="168" t="s">
-        <v>109</v>
+      <c r="D43" s="158" t="s">
+        <v>106</v>
       </c>
       <c r="E43" s="79" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F43" s="80" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G43" s="81">
         <f>F19*2+F25</f>
@@ -6792,13 +6799,13 @@
       </c>
     </row>
     <row r="44" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B44" s="177"/>
-      <c r="D44" s="169"/>
+      <c r="B44" s="163"/>
+      <c r="D44" s="159"/>
       <c r="E44" s="82" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F44" s="80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G44" s="81">
         <f t="shared" ref="G44:G45" si="0">F20*2+F26</f>
@@ -6893,13 +6900,13 @@
       </c>
     </row>
     <row r="45" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B45" s="177"/>
-      <c r="D45" s="169"/>
+      <c r="B45" s="163"/>
+      <c r="D45" s="159"/>
       <c r="E45" s="83" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F45" s="80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G45" s="81">
         <f t="shared" si="0"/>
@@ -6994,13 +7001,13 @@
       </c>
     </row>
     <row r="46" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B46" s="177"/>
-      <c r="D46" s="170"/>
+      <c r="B46" s="163"/>
+      <c r="D46" s="160"/>
       <c r="E46" s="79" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F46" s="80" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G46" s="81">
         <f>F19*4+F25</f>
@@ -7128,13 +7135,13 @@
       <c r="BV46" s="5"/>
     </row>
     <row r="47" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B47" s="177"/>
-      <c r="D47" s="170"/>
+      <c r="B47" s="163"/>
+      <c r="D47" s="160"/>
       <c r="E47" s="79" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F47" s="80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G47" s="81">
         <f>F20*4+F26</f>
@@ -7262,13 +7269,13 @@
       <c r="BV47" s="5"/>
     </row>
     <row r="48" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B48" s="177"/>
-      <c r="D48" s="170"/>
+      <c r="B48" s="163"/>
+      <c r="D48" s="160"/>
       <c r="E48" s="79" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F48" s="80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G48" s="81">
         <f t="shared" ref="G48" si="1">F21*4+F27</f>
@@ -7396,13 +7403,13 @@
       <c r="BV48" s="5"/>
     </row>
     <row r="49" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B49" s="177"/>
-      <c r="D49" s="170"/>
+      <c r="B49" s="163"/>
+      <c r="D49" s="160"/>
       <c r="E49" s="79" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F49" s="80" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G49" s="81">
         <f t="shared" ref="G49:G51" si="2">F19*6+F25</f>
@@ -7530,13 +7537,13 @@
       <c r="BV49" s="5"/>
     </row>
     <row r="50" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B50" s="177"/>
-      <c r="D50" s="170"/>
+      <c r="B50" s="163"/>
+      <c r="D50" s="160"/>
       <c r="E50" s="79" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F50" s="80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G50" s="81">
         <f t="shared" si="2"/>
@@ -7664,13 +7671,13 @@
       <c r="BV50" s="5"/>
     </row>
     <row r="51" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B51" s="177"/>
-      <c r="D51" s="170"/>
+      <c r="B51" s="163"/>
+      <c r="D51" s="160"/>
       <c r="E51" s="79" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F51" s="80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G51" s="81">
         <f t="shared" si="2"/>
@@ -7798,13 +7805,13 @@
       <c r="BV51" s="5"/>
     </row>
     <row r="52" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B52" s="177"/>
-      <c r="D52" s="170"/>
+      <c r="B52" s="163"/>
+      <c r="D52" s="160"/>
       <c r="E52" s="79" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F52" s="80" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G52" s="81">
         <f t="shared" ref="G52:G54" si="3">F19*8+F25</f>
@@ -7932,13 +7939,13 @@
       <c r="BV52" s="5"/>
     </row>
     <row r="53" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B53" s="177"/>
-      <c r="D53" s="170"/>
+      <c r="B53" s="163"/>
+      <c r="D53" s="160"/>
       <c r="E53" s="79" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F53" s="80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G53" s="81">
         <f t="shared" si="3"/>
@@ -8066,13 +8073,13 @@
       <c r="BV53" s="5"/>
     </row>
     <row r="54" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B54" s="177"/>
-      <c r="D54" s="170"/>
+      <c r="B54" s="163"/>
+      <c r="D54" s="160"/>
       <c r="E54" s="79" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F54" s="80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G54" s="81">
         <f t="shared" si="3"/>
@@ -8200,13 +8207,13 @@
       <c r="BV54" s="5"/>
     </row>
     <row r="55" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B55" s="177"/>
-      <c r="D55" s="170"/>
+      <c r="B55" s="163"/>
+      <c r="D55" s="160"/>
       <c r="E55" s="79" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F55" s="80" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G55" s="81">
         <f t="shared" ref="G55:G57" si="4">F19*10+F25</f>
@@ -8334,13 +8341,13 @@
       <c r="BV55" s="5"/>
     </row>
     <row r="56" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B56" s="177"/>
-      <c r="D56" s="170"/>
+      <c r="B56" s="163"/>
+      <c r="D56" s="160"/>
       <c r="E56" s="79" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F56" s="80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G56" s="81">
         <f t="shared" si="4"/>
@@ -8468,13 +8475,13 @@
       <c r="BV56" s="5"/>
     </row>
     <row r="57" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B57" s="177"/>
-      <c r="D57" s="170"/>
+      <c r="B57" s="163"/>
+      <c r="D57" s="160"/>
       <c r="E57" s="79" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F57" s="80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G57" s="81">
         <f t="shared" si="4"/>
@@ -8602,7 +8609,7 @@
       <c r="BV57" s="5"/>
     </row>
     <row r="58" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B58" s="177"/>
+      <c r="B58" s="163"/>
       <c r="D58" s="58"/>
       <c r="E58" s="82"/>
       <c r="F58" s="82"/>
@@ -8671,7 +8678,7 @@
       <c r="BV58" s="5"/>
     </row>
     <row r="59" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B59" s="177"/>
+      <c r="B59" s="163"/>
       <c r="D59" s="58"/>
       <c r="E59" s="82"/>
       <c r="F59" s="82"/>
@@ -8740,7 +8747,7 @@
       <c r="BV59" s="5"/>
     </row>
     <row r="60" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B60" s="177"/>
+      <c r="B60" s="163"/>
       <c r="D60" s="58"/>
       <c r="E60" s="82"/>
       <c r="F60" s="82"/>
@@ -8809,12 +8816,12 @@
       <c r="BV60" s="5"/>
     </row>
     <row r="61" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B61" s="177"/>
+      <c r="B61" s="163"/>
       <c r="D61" s="84"/>
       <c r="E61" s="82"/>
       <c r="F61" s="82"/>
-      <c r="G61" s="1">
-        <v>2021</v>
+      <c r="G61" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="H61" s="1">
         <v>2022</v>
@@ -8905,15 +8912,15 @@
       </c>
     </row>
     <row r="62" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B62" s="177"/>
-      <c r="D62" s="168" t="s">
-        <v>110</v>
+      <c r="B62" s="163"/>
+      <c r="D62" s="158" t="s">
+        <v>107</v>
       </c>
       <c r="E62" s="79" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F62" s="80" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G62" s="81">
         <f t="shared" ref="G62:G70" si="5">0.025*G43</f>
@@ -9008,13 +9015,13 @@
       </c>
     </row>
     <row r="63" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B63" s="177"/>
-      <c r="D63" s="169"/>
+      <c r="B63" s="163"/>
+      <c r="D63" s="159"/>
       <c r="E63" s="82" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F63" s="80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G63" s="81">
         <f t="shared" si="5"/>
@@ -9109,13 +9116,13 @@
       </c>
     </row>
     <row r="64" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B64" s="177"/>
-      <c r="D64" s="169"/>
+      <c r="B64" s="163"/>
+      <c r="D64" s="159"/>
       <c r="E64" s="83" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F64" s="80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G64" s="81">
         <f t="shared" si="5"/>
@@ -9210,13 +9217,13 @@
       </c>
     </row>
     <row r="65" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B65" s="177"/>
-      <c r="D65" s="170"/>
+      <c r="B65" s="163"/>
+      <c r="D65" s="160"/>
       <c r="E65" s="79" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F65" s="80" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G65" s="81">
         <f t="shared" si="5"/>
@@ -9311,13 +9318,13 @@
       </c>
     </row>
     <row r="66" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B66" s="177"/>
-      <c r="D66" s="170"/>
+      <c r="B66" s="163"/>
+      <c r="D66" s="160"/>
       <c r="E66" s="79" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F66" s="80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G66" s="81">
         <f t="shared" si="5"/>
@@ -9412,13 +9419,13 @@
       </c>
     </row>
     <row r="67" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B67" s="177"/>
-      <c r="D67" s="170"/>
+      <c r="B67" s="163"/>
+      <c r="D67" s="160"/>
       <c r="E67" s="79" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F67" s="80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G67" s="81">
         <f t="shared" si="5"/>
@@ -9513,13 +9520,13 @@
       </c>
     </row>
     <row r="68" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B68" s="177"/>
-      <c r="D68" s="170"/>
+      <c r="B68" s="163"/>
+      <c r="D68" s="160"/>
       <c r="E68" s="79" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F68" s="80" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G68" s="81">
         <f t="shared" si="5"/>
@@ -9614,13 +9621,13 @@
       </c>
     </row>
     <row r="69" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B69" s="177"/>
-      <c r="D69" s="170"/>
+      <c r="B69" s="163"/>
+      <c r="D69" s="160"/>
       <c r="E69" s="79" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F69" s="80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G69" s="81">
         <f t="shared" si="5"/>
@@ -9715,13 +9722,13 @@
       </c>
     </row>
     <row r="70" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B70" s="177"/>
-      <c r="D70" s="170"/>
+      <c r="B70" s="163"/>
+      <c r="D70" s="160"/>
       <c r="E70" s="79" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F70" s="80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G70" s="81">
         <f t="shared" si="5"/>
@@ -9816,13 +9823,13 @@
       </c>
     </row>
     <row r="71" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B71" s="177"/>
-      <c r="D71" s="170"/>
+      <c r="B71" s="163"/>
+      <c r="D71" s="160"/>
       <c r="E71" s="79" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F71" s="80" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G71" s="81">
         <f t="shared" ref="G71:G76" si="6">0.025*G52</f>
@@ -9950,13 +9957,13 @@
       <c r="BV71" s="5"/>
     </row>
     <row r="72" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B72" s="177"/>
-      <c r="D72" s="170"/>
+      <c r="B72" s="163"/>
+      <c r="D72" s="160"/>
       <c r="E72" s="79" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F72" s="80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G72" s="81">
         <f t="shared" si="6"/>
@@ -10084,13 +10091,13 @@
       <c r="BV72" s="5"/>
     </row>
     <row r="73" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B73" s="177"/>
-      <c r="D73" s="170"/>
+      <c r="B73" s="163"/>
+      <c r="D73" s="160"/>
       <c r="E73" s="79" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F73" s="80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G73" s="81">
         <f t="shared" si="6"/>
@@ -10218,13 +10225,13 @@
       <c r="BV73" s="5"/>
     </row>
     <row r="74" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B74" s="177"/>
-      <c r="D74" s="170"/>
+      <c r="B74" s="163"/>
+      <c r="D74" s="160"/>
       <c r="E74" s="79" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F74" s="80" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G74" s="81">
         <f t="shared" si="6"/>
@@ -10352,13 +10359,13 @@
       <c r="BV74" s="5"/>
     </row>
     <row r="75" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B75" s="177"/>
-      <c r="D75" s="170"/>
+      <c r="B75" s="163"/>
+      <c r="D75" s="160"/>
       <c r="E75" s="79" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F75" s="80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G75" s="81">
         <f t="shared" si="6"/>
@@ -10486,13 +10493,13 @@
       <c r="BV75" s="5"/>
     </row>
     <row r="76" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B76" s="177"/>
-      <c r="D76" s="170"/>
+      <c r="B76" s="163"/>
+      <c r="D76" s="160"/>
       <c r="E76" s="79" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F76" s="80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G76" s="81">
         <f t="shared" si="6"/>
@@ -10620,18 +10627,18 @@
       <c r="BV76" s="5"/>
     </row>
     <row r="77" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B77" s="177"/>
+      <c r="B77" s="163"/>
       <c r="D77" s="84"/>
       <c r="E77" s="82"/>
       <c r="F77" s="82"/>
     </row>
     <row r="78" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B78" s="177"/>
+      <c r="B78" s="163"/>
       <c r="D78" s="40"/>
       <c r="E78" s="85"/>
       <c r="F78" s="85"/>
-      <c r="G78" s="1">
-        <v>2021</v>
+      <c r="G78" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="H78" s="1">
         <v>2022</v>
@@ -10722,218 +10729,218 @@
       </c>
     </row>
     <row r="79" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B79" s="177"/>
-      <c r="D79" s="168" t="s">
-        <v>111</v>
+      <c r="B79" s="163"/>
+      <c r="D79" s="158" t="s">
+        <v>108</v>
       </c>
       <c r="E79" s="79" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F79" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="G79" s="59">
+        <v>0</v>
+      </c>
+      <c r="H79" s="139">
+        <v>0</v>
+      </c>
+      <c r="I79" s="139">
+        <v>0</v>
+      </c>
+      <c r="J79" s="139">
+        <v>0</v>
+      </c>
+      <c r="K79" s="139">
+        <v>0</v>
+      </c>
+      <c r="L79" s="139">
+        <v>0</v>
+      </c>
+      <c r="M79" s="139">
+        <v>0</v>
+      </c>
+      <c r="N79" s="139">
+        <v>0</v>
+      </c>
+      <c r="O79" s="139">
+        <v>0</v>
+      </c>
+      <c r="P79" s="139">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="139">
+        <v>0</v>
+      </c>
+      <c r="R79" s="139">
+        <v>0</v>
+      </c>
+      <c r="S79" s="139">
+        <v>0</v>
+      </c>
+      <c r="T79" s="139">
+        <v>0</v>
+      </c>
+      <c r="U79" s="139">
+        <v>0</v>
+      </c>
+      <c r="V79" s="139">
+        <v>0</v>
+      </c>
+      <c r="W79" s="139">
+        <v>0</v>
+      </c>
+      <c r="X79" s="139">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="139">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="139">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="139">
+        <v>0</v>
+      </c>
+      <c r="AB79" s="139">
+        <v>0</v>
+      </c>
+      <c r="AC79" s="139">
+        <v>0</v>
+      </c>
+      <c r="AD79" s="139">
+        <v>0</v>
+      </c>
+      <c r="AE79" s="139">
+        <v>0</v>
+      </c>
+      <c r="AF79" s="139">
+        <v>0</v>
+      </c>
+      <c r="AG79" s="139">
+        <v>0</v>
+      </c>
+      <c r="AH79" s="139">
+        <v>0</v>
+      </c>
+      <c r="AI79" s="139">
+        <v>0</v>
+      </c>
+      <c r="AJ79" s="139">
+        <v>0</v>
+      </c>
+      <c r="AO79" s="1"/>
+    </row>
+    <row r="80" spans="2:74" x14ac:dyDescent="0.25">
+      <c r="B80" s="163"/>
+      <c r="D80" s="159"/>
+      <c r="E80" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="F80" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="G80" s="59">
+        <v>0</v>
+      </c>
+      <c r="H80" s="139">
+        <v>0</v>
+      </c>
+      <c r="I80" s="139">
+        <v>0</v>
+      </c>
+      <c r="J80" s="139">
+        <v>0</v>
+      </c>
+      <c r="K80" s="139">
+        <v>0</v>
+      </c>
+      <c r="L80" s="139">
+        <v>0</v>
+      </c>
+      <c r="M80" s="139">
+        <v>0</v>
+      </c>
+      <c r="N80" s="139">
+        <v>0</v>
+      </c>
+      <c r="O80" s="139">
+        <v>0</v>
+      </c>
+      <c r="P80" s="139">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="139">
+        <v>0</v>
+      </c>
+      <c r="R80" s="139">
+        <v>0</v>
+      </c>
+      <c r="S80" s="139">
+        <v>0</v>
+      </c>
+      <c r="T80" s="139">
+        <v>0</v>
+      </c>
+      <c r="U80" s="139">
+        <v>0</v>
+      </c>
+      <c r="V80" s="139">
+        <v>0</v>
+      </c>
+      <c r="W80" s="139">
+        <v>0</v>
+      </c>
+      <c r="X80" s="139">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="139">
+        <v>0</v>
+      </c>
+      <c r="Z80" s="139">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="139">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="139">
+        <v>0</v>
+      </c>
+      <c r="AC80" s="139">
+        <v>0</v>
+      </c>
+      <c r="AD80" s="139">
+        <v>0</v>
+      </c>
+      <c r="AE80" s="139">
+        <v>0</v>
+      </c>
+      <c r="AF80" s="139">
+        <v>0</v>
+      </c>
+      <c r="AG80" s="139">
+        <v>0</v>
+      </c>
+      <c r="AH80" s="139">
+        <v>0</v>
+      </c>
+      <c r="AI80" s="139">
+        <v>0</v>
+      </c>
+      <c r="AJ80" s="139">
+        <v>0</v>
+      </c>
+      <c r="AO80" s="1"/>
+    </row>
+    <row r="81" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B81" s="163"/>
+      <c r="D81" s="159"/>
+      <c r="E81" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="F81" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="G79" s="59">
-        <v>0</v>
-      </c>
-      <c r="H79" s="139">
-        <v>0</v>
-      </c>
-      <c r="I79" s="139">
-        <v>0</v>
-      </c>
-      <c r="J79" s="139">
-        <v>0</v>
-      </c>
-      <c r="K79" s="139">
-        <v>0</v>
-      </c>
-      <c r="L79" s="139">
-        <v>0</v>
-      </c>
-      <c r="M79" s="139">
-        <v>0</v>
-      </c>
-      <c r="N79" s="139">
-        <v>0</v>
-      </c>
-      <c r="O79" s="139">
-        <v>0</v>
-      </c>
-      <c r="P79" s="139">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="139">
-        <v>0</v>
-      </c>
-      <c r="R79" s="139">
-        <v>0</v>
-      </c>
-      <c r="S79" s="139">
-        <v>0</v>
-      </c>
-      <c r="T79" s="139">
-        <v>0</v>
-      </c>
-      <c r="U79" s="139">
-        <v>0</v>
-      </c>
-      <c r="V79" s="139">
-        <v>0</v>
-      </c>
-      <c r="W79" s="139">
-        <v>0</v>
-      </c>
-      <c r="X79" s="139">
-        <v>0</v>
-      </c>
-      <c r="Y79" s="139">
-        <v>0</v>
-      </c>
-      <c r="Z79" s="139">
-        <v>0</v>
-      </c>
-      <c r="AA79" s="139">
-        <v>0</v>
-      </c>
-      <c r="AB79" s="139">
-        <v>0</v>
-      </c>
-      <c r="AC79" s="139">
-        <v>0</v>
-      </c>
-      <c r="AD79" s="139">
-        <v>0</v>
-      </c>
-      <c r="AE79" s="139">
-        <v>0</v>
-      </c>
-      <c r="AF79" s="139">
-        <v>0</v>
-      </c>
-      <c r="AG79" s="139">
-        <v>0</v>
-      </c>
-      <c r="AH79" s="139">
-        <v>0</v>
-      </c>
-      <c r="AI79" s="139">
-        <v>0</v>
-      </c>
-      <c r="AJ79" s="139">
-        <v>0</v>
-      </c>
-      <c r="AO79" s="1"/>
-    </row>
-    <row r="80" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B80" s="177"/>
-      <c r="D80" s="169"/>
-      <c r="E80" s="82" t="s">
-        <v>93</v>
-      </c>
-      <c r="F80" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="G80" s="59">
-        <v>0</v>
-      </c>
-      <c r="H80" s="139">
-        <v>0</v>
-      </c>
-      <c r="I80" s="139">
-        <v>0</v>
-      </c>
-      <c r="J80" s="139">
-        <v>0</v>
-      </c>
-      <c r="K80" s="139">
-        <v>0</v>
-      </c>
-      <c r="L80" s="139">
-        <v>0</v>
-      </c>
-      <c r="M80" s="139">
-        <v>0</v>
-      </c>
-      <c r="N80" s="139">
-        <v>0</v>
-      </c>
-      <c r="O80" s="139">
-        <v>0</v>
-      </c>
-      <c r="P80" s="139">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="139">
-        <v>0</v>
-      </c>
-      <c r="R80" s="139">
-        <v>0</v>
-      </c>
-      <c r="S80" s="139">
-        <v>0</v>
-      </c>
-      <c r="T80" s="139">
-        <v>0</v>
-      </c>
-      <c r="U80" s="139">
-        <v>0</v>
-      </c>
-      <c r="V80" s="139">
-        <v>0</v>
-      </c>
-      <c r="W80" s="139">
-        <v>0</v>
-      </c>
-      <c r="X80" s="139">
-        <v>0</v>
-      </c>
-      <c r="Y80" s="139">
-        <v>0</v>
-      </c>
-      <c r="Z80" s="139">
-        <v>0</v>
-      </c>
-      <c r="AA80" s="139">
-        <v>0</v>
-      </c>
-      <c r="AB80" s="139">
-        <v>0</v>
-      </c>
-      <c r="AC80" s="139">
-        <v>0</v>
-      </c>
-      <c r="AD80" s="139">
-        <v>0</v>
-      </c>
-      <c r="AE80" s="139">
-        <v>0</v>
-      </c>
-      <c r="AF80" s="139">
-        <v>0</v>
-      </c>
-      <c r="AG80" s="139">
-        <v>0</v>
-      </c>
-      <c r="AH80" s="139">
-        <v>0</v>
-      </c>
-      <c r="AI80" s="139">
-        <v>0</v>
-      </c>
-      <c r="AJ80" s="139">
-        <v>0</v>
-      </c>
-      <c r="AO80" s="1"/>
-    </row>
-    <row r="81" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B81" s="177"/>
-      <c r="D81" s="169"/>
-      <c r="E81" s="83" t="s">
-        <v>93</v>
-      </c>
-      <c r="F81" s="80" t="s">
-        <v>84</v>
-      </c>
       <c r="G81" s="59">
         <v>0</v>
       </c>
@@ -11027,213 +11034,213 @@
       <c r="AO81" s="1"/>
     </row>
     <row r="82" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B82" s="178"/>
-      <c r="D82" s="170"/>
+      <c r="B82" s="164"/>
+      <c r="D82" s="160"/>
       <c r="E82" s="79" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F82" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="G82" s="59">
+        <v>0</v>
+      </c>
+      <c r="H82" s="139">
+        <v>0</v>
+      </c>
+      <c r="I82" s="139">
+        <v>0</v>
+      </c>
+      <c r="J82" s="139">
+        <v>0</v>
+      </c>
+      <c r="K82" s="139">
+        <v>0</v>
+      </c>
+      <c r="L82" s="139">
+        <v>0</v>
+      </c>
+      <c r="M82" s="139">
+        <v>0</v>
+      </c>
+      <c r="N82" s="139">
+        <v>0</v>
+      </c>
+      <c r="O82" s="139">
+        <v>0</v>
+      </c>
+      <c r="P82" s="139">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="139">
+        <v>0</v>
+      </c>
+      <c r="R82" s="139">
+        <v>0</v>
+      </c>
+      <c r="S82" s="139">
+        <v>0</v>
+      </c>
+      <c r="T82" s="139">
+        <v>0</v>
+      </c>
+      <c r="U82" s="139">
+        <v>0</v>
+      </c>
+      <c r="V82" s="139">
+        <v>0</v>
+      </c>
+      <c r="W82" s="139">
+        <v>0</v>
+      </c>
+      <c r="X82" s="139">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="139">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="139">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="139">
+        <v>0</v>
+      </c>
+      <c r="AB82" s="139">
+        <v>0</v>
+      </c>
+      <c r="AC82" s="139">
+        <v>0</v>
+      </c>
+      <c r="AD82" s="139">
+        <v>0</v>
+      </c>
+      <c r="AE82" s="139">
+        <v>0</v>
+      </c>
+      <c r="AF82" s="139">
+        <v>0</v>
+      </c>
+      <c r="AG82" s="139">
+        <v>0</v>
+      </c>
+      <c r="AH82" s="139">
+        <v>0</v>
+      </c>
+      <c r="AI82" s="139">
+        <v>0</v>
+      </c>
+      <c r="AJ82" s="139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B83" s="164"/>
+      <c r="D83" s="160"/>
+      <c r="E83" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="F83" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="G83" s="59">
+        <v>0</v>
+      </c>
+      <c r="H83" s="139">
+        <v>0</v>
+      </c>
+      <c r="I83" s="139">
+        <v>0</v>
+      </c>
+      <c r="J83" s="139">
+        <v>0</v>
+      </c>
+      <c r="K83" s="139">
+        <v>0</v>
+      </c>
+      <c r="L83" s="139">
+        <v>0</v>
+      </c>
+      <c r="M83" s="139">
+        <v>0</v>
+      </c>
+      <c r="N83" s="139">
+        <v>0</v>
+      </c>
+      <c r="O83" s="139">
+        <v>0</v>
+      </c>
+      <c r="P83" s="139">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="139">
+        <v>0</v>
+      </c>
+      <c r="R83" s="139">
+        <v>0</v>
+      </c>
+      <c r="S83" s="139">
+        <v>0</v>
+      </c>
+      <c r="T83" s="139">
+        <v>0</v>
+      </c>
+      <c r="U83" s="139">
+        <v>0</v>
+      </c>
+      <c r="V83" s="139">
+        <v>0</v>
+      </c>
+      <c r="W83" s="139">
+        <v>0</v>
+      </c>
+      <c r="X83" s="139">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="139">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="139">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="139">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="139">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="139">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="139">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="139">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="139">
+        <v>0</v>
+      </c>
+      <c r="AG83" s="139">
+        <v>0</v>
+      </c>
+      <c r="AH83" s="139">
+        <v>0</v>
+      </c>
+      <c r="AI83" s="139">
+        <v>0</v>
+      </c>
+      <c r="AJ83" s="139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B84" s="164"/>
+      <c r="D84" s="160"/>
+      <c r="E84" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="F84" s="80" t="s">
         <v>82</v>
-      </c>
-      <c r="G82" s="59">
-        <v>0</v>
-      </c>
-      <c r="H82" s="139">
-        <v>0</v>
-      </c>
-      <c r="I82" s="139">
-        <v>0</v>
-      </c>
-      <c r="J82" s="139">
-        <v>0</v>
-      </c>
-      <c r="K82" s="139">
-        <v>0</v>
-      </c>
-      <c r="L82" s="139">
-        <v>0</v>
-      </c>
-      <c r="M82" s="139">
-        <v>0</v>
-      </c>
-      <c r="N82" s="139">
-        <v>0</v>
-      </c>
-      <c r="O82" s="139">
-        <v>0</v>
-      </c>
-      <c r="P82" s="139">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="139">
-        <v>0</v>
-      </c>
-      <c r="R82" s="139">
-        <v>0</v>
-      </c>
-      <c r="S82" s="139">
-        <v>0</v>
-      </c>
-      <c r="T82" s="139">
-        <v>0</v>
-      </c>
-      <c r="U82" s="139">
-        <v>0</v>
-      </c>
-      <c r="V82" s="139">
-        <v>0</v>
-      </c>
-      <c r="W82" s="139">
-        <v>0</v>
-      </c>
-      <c r="X82" s="139">
-        <v>0</v>
-      </c>
-      <c r="Y82" s="139">
-        <v>0</v>
-      </c>
-      <c r="Z82" s="139">
-        <v>0</v>
-      </c>
-      <c r="AA82" s="139">
-        <v>0</v>
-      </c>
-      <c r="AB82" s="139">
-        <v>0</v>
-      </c>
-      <c r="AC82" s="139">
-        <v>0</v>
-      </c>
-      <c r="AD82" s="139">
-        <v>0</v>
-      </c>
-      <c r="AE82" s="139">
-        <v>0</v>
-      </c>
-      <c r="AF82" s="139">
-        <v>0</v>
-      </c>
-      <c r="AG82" s="139">
-        <v>0</v>
-      </c>
-      <c r="AH82" s="139">
-        <v>0</v>
-      </c>
-      <c r="AI82" s="139">
-        <v>0</v>
-      </c>
-      <c r="AJ82" s="139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B83" s="178"/>
-      <c r="D83" s="170"/>
-      <c r="E83" s="79" t="s">
-        <v>98</v>
-      </c>
-      <c r="F83" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="G83" s="59">
-        <v>0</v>
-      </c>
-      <c r="H83" s="139">
-        <v>0</v>
-      </c>
-      <c r="I83" s="139">
-        <v>0</v>
-      </c>
-      <c r="J83" s="139">
-        <v>0</v>
-      </c>
-      <c r="K83" s="139">
-        <v>0</v>
-      </c>
-      <c r="L83" s="139">
-        <v>0</v>
-      </c>
-      <c r="M83" s="139">
-        <v>0</v>
-      </c>
-      <c r="N83" s="139">
-        <v>0</v>
-      </c>
-      <c r="O83" s="139">
-        <v>0</v>
-      </c>
-      <c r="P83" s="139">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="139">
-        <v>0</v>
-      </c>
-      <c r="R83" s="139">
-        <v>0</v>
-      </c>
-      <c r="S83" s="139">
-        <v>0</v>
-      </c>
-      <c r="T83" s="139">
-        <v>0</v>
-      </c>
-      <c r="U83" s="139">
-        <v>0</v>
-      </c>
-      <c r="V83" s="139">
-        <v>0</v>
-      </c>
-      <c r="W83" s="139">
-        <v>0</v>
-      </c>
-      <c r="X83" s="139">
-        <v>0</v>
-      </c>
-      <c r="Y83" s="139">
-        <v>0</v>
-      </c>
-      <c r="Z83" s="139">
-        <v>0</v>
-      </c>
-      <c r="AA83" s="139">
-        <v>0</v>
-      </c>
-      <c r="AB83" s="139">
-        <v>0</v>
-      </c>
-      <c r="AC83" s="139">
-        <v>0</v>
-      </c>
-      <c r="AD83" s="139">
-        <v>0</v>
-      </c>
-      <c r="AE83" s="139">
-        <v>0</v>
-      </c>
-      <c r="AF83" s="139">
-        <v>0</v>
-      </c>
-      <c r="AG83" s="139">
-        <v>0</v>
-      </c>
-      <c r="AH83" s="139">
-        <v>0</v>
-      </c>
-      <c r="AI83" s="139">
-        <v>0</v>
-      </c>
-      <c r="AJ83" s="139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B84" s="178"/>
-      <c r="D84" s="170"/>
-      <c r="E84" s="79" t="s">
-        <v>98</v>
-      </c>
-      <c r="F84" s="80" t="s">
-        <v>84</v>
       </c>
       <c r="G84" s="59">
         <v>0</v>
@@ -11329,13 +11336,13 @@
       <c r="AL84" s="5"/>
     </row>
     <row r="85" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B85" s="178"/>
-      <c r="D85" s="170"/>
+      <c r="B85" s="164"/>
+      <c r="D85" s="160"/>
       <c r="E85" s="79" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F85" s="80" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G85" s="59">
         <v>0</v>
@@ -11431,13 +11438,13 @@
       <c r="AL85" s="5"/>
     </row>
     <row r="86" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B86" s="178"/>
-      <c r="D86" s="170"/>
+      <c r="B86" s="164"/>
+      <c r="D86" s="160"/>
       <c r="E86" s="79" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F86" s="80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G86" s="59">
         <v>0</v>
@@ -11533,13 +11540,13 @@
       <c r="AL86" s="5"/>
     </row>
     <row r="87" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B87" s="178"/>
-      <c r="D87" s="170"/>
+      <c r="B87" s="164"/>
+      <c r="D87" s="160"/>
       <c r="E87" s="79" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F87" s="80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G87" s="59">
         <v>0</v>
@@ -11635,13 +11642,13 @@
       <c r="AL87" s="5"/>
     </row>
     <row r="88" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B88" s="178"/>
-      <c r="D88" s="170"/>
+      <c r="B88" s="164"/>
+      <c r="D88" s="160"/>
       <c r="E88" s="79" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F88" s="80" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G88" s="59">
         <v>0</v>
@@ -11737,13 +11744,13 @@
       <c r="AL88" s="5"/>
     </row>
     <row r="89" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B89" s="178"/>
-      <c r="D89" s="170"/>
+      <c r="B89" s="164"/>
+      <c r="D89" s="160"/>
       <c r="E89" s="79" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F89" s="80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G89" s="59">
         <v>0</v>
@@ -11839,13 +11846,13 @@
       <c r="AL89" s="5"/>
     </row>
     <row r="90" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B90" s="178"/>
-      <c r="D90" s="170"/>
+      <c r="B90" s="164"/>
+      <c r="D90" s="160"/>
       <c r="E90" s="79" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F90" s="80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G90" s="59">
         <v>0</v>
@@ -11941,13 +11948,13 @@
       <c r="AL90" s="5"/>
     </row>
     <row r="91" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B91" s="178"/>
-      <c r="D91" s="170"/>
+      <c r="B91" s="164"/>
+      <c r="D91" s="160"/>
       <c r="E91" s="79" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F91" s="80" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G91" s="59">
         <v>0</v>
@@ -12043,13 +12050,13 @@
       <c r="AL91" s="5"/>
     </row>
     <row r="92" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B92" s="178"/>
-      <c r="D92" s="170"/>
+      <c r="B92" s="164"/>
+      <c r="D92" s="160"/>
       <c r="E92" s="79" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F92" s="80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G92" s="59">
         <v>0</v>
@@ -12145,13 +12152,13 @@
       <c r="AL92" s="5"/>
     </row>
     <row r="93" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B93" s="178"/>
-      <c r="D93" s="170"/>
+      <c r="B93" s="164"/>
+      <c r="D93" s="160"/>
       <c r="E93" s="79" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F93" s="80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G93" s="59">
         <v>0</v>
@@ -12247,12 +12254,12 @@
       <c r="AL93" s="5"/>
     </row>
     <row r="94" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B94" s="178"/>
+      <c r="B94" s="164"/>
     </row>
     <row r="95" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="178"/>
-      <c r="G95" s="1">
-        <v>2021</v>
+      <c r="B95" s="164"/>
+      <c r="G95" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="H95" s="1">
         <v>2022</v>
@@ -12343,216 +12350,216 @@
       </c>
     </row>
     <row r="96" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B96" s="178"/>
-      <c r="D96" s="168" t="s">
-        <v>112</v>
+      <c r="B96" s="164"/>
+      <c r="D96" s="158" t="s">
+        <v>109</v>
       </c>
       <c r="E96" s="79" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F96" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="G96" s="86">
+        <v>0.85</v>
+      </c>
+      <c r="H96" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="I96" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="J96" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="K96" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="L96" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="M96" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="N96" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="O96" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="P96" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Q96" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="R96" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="S96" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="T96" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="U96" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="V96" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="W96" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="X96" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Y96" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Z96" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AA96" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AB96" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AC96" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AD96" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AE96" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AF96" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AG96" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AH96" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AI96" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AJ96" s="141">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="97" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B97" s="164"/>
+      <c r="D97" s="159"/>
+      <c r="E97" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="F97" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="G97" s="86">
+        <v>0.85</v>
+      </c>
+      <c r="H97" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="I97" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="J97" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="K97" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="L97" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="M97" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="N97" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="O97" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="P97" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Q97" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="R97" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="S97" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="T97" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="U97" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="V97" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="W97" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="X97" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Y97" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Z97" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AA97" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AB97" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AC97" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AD97" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AE97" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AF97" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AG97" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AH97" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AI97" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AJ97" s="141">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="98" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B98" s="164"/>
+      <c r="D98" s="159"/>
+      <c r="E98" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="F98" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="G96" s="86">
-        <v>0.85</v>
-      </c>
-      <c r="H96" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="I96" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="J96" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="K96" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="L96" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="M96" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="N96" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="O96" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="P96" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Q96" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="R96" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="S96" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="T96" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="U96" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="V96" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="W96" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="X96" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Y96" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Z96" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AA96" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AB96" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AC96" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AD96" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AE96" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AF96" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AG96" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AH96" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AI96" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AJ96" s="141">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="97" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B97" s="178"/>
-      <c r="D97" s="169"/>
-      <c r="E97" s="82" t="s">
-        <v>93</v>
-      </c>
-      <c r="F97" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="G97" s="86">
-        <v>0.85</v>
-      </c>
-      <c r="H97" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="I97" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="J97" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="K97" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="L97" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="M97" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="N97" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="O97" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="P97" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Q97" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="R97" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="S97" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="T97" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="U97" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="V97" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="W97" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="X97" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Y97" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Z97" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AA97" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AB97" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AC97" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AD97" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AE97" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AF97" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AG97" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AH97" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AI97" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AJ97" s="141">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="98" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B98" s="178"/>
-      <c r="D98" s="169"/>
-      <c r="E98" s="83" t="s">
-        <v>93</v>
-      </c>
-      <c r="F98" s="80" t="s">
-        <v>84</v>
-      </c>
       <c r="G98" s="86">
         <v>0.85</v>
       </c>
@@ -12645,1114 +12652,1114 @@
       </c>
     </row>
     <row r="99" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B99" s="178"/>
-      <c r="D99" s="170"/>
+      <c r="B99" s="164"/>
+      <c r="D99" s="160"/>
       <c r="E99" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="F99" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="G99" s="86">
+        <v>0.85</v>
+      </c>
+      <c r="H99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="I99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="J99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="K99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="L99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="M99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="N99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="O99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="P99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Q99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="R99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="S99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="T99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="U99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="V99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="W99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="X99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Y99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Z99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AA99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AB99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AC99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AD99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AE99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AF99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AG99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AH99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AI99" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AJ99" s="141">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="100" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B100" s="164"/>
+      <c r="D100" s="160"/>
+      <c r="E100" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="F100" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="G100" s="86">
+        <v>0.85</v>
+      </c>
+      <c r="H100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="I100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="J100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="K100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="L100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="M100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="N100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="O100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="P100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Q100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="R100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="S100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="T100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="U100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="V100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="W100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="X100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Y100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Z100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AA100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AB100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AC100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AD100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AE100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AF100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AG100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AH100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AI100" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AJ100" s="141">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="101" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B101" s="164"/>
+      <c r="D101" s="160"/>
+      <c r="E101" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="F101" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="G101" s="86">
+        <v>0.85</v>
+      </c>
+      <c r="H101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="I101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="J101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="K101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="L101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="M101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="N101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="O101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="P101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Q101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="R101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="S101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="T101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="U101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="V101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="W101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="X101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Y101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Z101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AA101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AB101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AC101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AD101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AE101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AF101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AG101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AH101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AI101" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AJ101" s="141">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="102" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B102" s="164"/>
+      <c r="D102" s="160"/>
+      <c r="E102" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="F99" s="80" t="s">
+      <c r="F102" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="G102" s="86">
+        <v>0.85</v>
+      </c>
+      <c r="H102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="I102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="J102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="K102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="L102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="M102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="N102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="O102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="P102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Q102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="R102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="S102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="T102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="U102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="V102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="W102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="X102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Y102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Z102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AA102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AB102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AC102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AD102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AE102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AF102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AG102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AH102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AI102" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AJ102" s="141">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="103" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B103" s="164"/>
+      <c r="D103" s="160"/>
+      <c r="E103" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="F103" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="G103" s="86">
+        <v>0.85</v>
+      </c>
+      <c r="H103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="I103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="J103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="K103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="L103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="M103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="N103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="O103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="P103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Q103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="R103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="S103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="T103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="U103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="V103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="W103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="X103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Y103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Z103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AA103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AB103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AC103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AD103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AE103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AF103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AG103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AH103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AI103" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AJ103" s="141">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="104" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B104" s="164"/>
+      <c r="D104" s="160"/>
+      <c r="E104" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="F104" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="G99" s="86">
-        <v>0.85</v>
-      </c>
-      <c r="H99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="I99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="J99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="K99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="L99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="M99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="N99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="O99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="P99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Q99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="R99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="S99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="T99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="U99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="V99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="W99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="X99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Y99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Z99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AA99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AB99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AC99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AD99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AE99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AF99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AG99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AH99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AI99" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AJ99" s="141">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="100" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B100" s="178"/>
-      <c r="D100" s="170"/>
-      <c r="E100" s="79" t="s">
-        <v>98</v>
-      </c>
-      <c r="F100" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="G100" s="86">
-        <v>0.85</v>
-      </c>
-      <c r="H100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="I100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="J100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="K100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="L100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="M100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="N100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="O100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="P100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Q100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="R100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="S100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="T100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="U100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="V100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="W100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="X100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Y100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Z100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AA100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AB100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AC100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AD100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AE100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AF100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AG100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AH100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AI100" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AJ100" s="141">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="101" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B101" s="178"/>
-      <c r="D101" s="170"/>
-      <c r="E101" s="79" t="s">
-        <v>98</v>
-      </c>
-      <c r="F101" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="G101" s="86">
-        <v>0.85</v>
-      </c>
-      <c r="H101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="I101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="J101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="K101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="L101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="M101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="N101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="O101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="P101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Q101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="R101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="S101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="T101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="U101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="V101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="W101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="X101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Y101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Z101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AA101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AB101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AC101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AD101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AE101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AF101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AG101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AH101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AI101" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AJ101" s="141">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="102" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B102" s="178"/>
-      <c r="D102" s="170"/>
-      <c r="E102" s="79" t="s">
+      <c r="G104" s="86">
+        <v>0.85</v>
+      </c>
+      <c r="H104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="I104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="J104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="K104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="L104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="M104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="N104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="O104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="P104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Q104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="R104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="S104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="T104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="U104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="V104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="W104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="X104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Y104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Z104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AA104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AB104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AC104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AD104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AE104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AF104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AG104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AH104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AI104" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AJ104" s="141">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="105" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B105" s="164"/>
+      <c r="D105" s="160"/>
+      <c r="E105" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="F102" s="80" t="s">
+      <c r="F105" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="G105" s="86">
+        <v>0.85</v>
+      </c>
+      <c r="H105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="I105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="J105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="K105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="L105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="M105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="N105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="O105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="P105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Q105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="R105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="S105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="T105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="U105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="V105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="W105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="X105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Y105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Z105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AA105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AB105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AC105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AD105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AE105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AF105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AG105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AH105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AI105" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AJ105" s="141">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="106" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B106" s="164"/>
+      <c r="D106" s="160"/>
+      <c r="E106" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="F106" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="G106" s="86">
+        <v>0.85</v>
+      </c>
+      <c r="H106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="I106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="J106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="K106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="L106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="M106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="N106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="O106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="P106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Q106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="R106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="S106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="T106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="U106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="V106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="W106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="X106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Y106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Z106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AA106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AB106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AC106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AD106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AE106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AF106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AG106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AH106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AI106" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AJ106" s="141">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="107" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B107" s="164"/>
+      <c r="D107" s="160"/>
+      <c r="E107" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="F107" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="G102" s="86">
-        <v>0.85</v>
-      </c>
-      <c r="H102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="I102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="J102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="K102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="L102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="M102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="N102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="O102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="P102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Q102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="R102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="S102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="T102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="U102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="V102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="W102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="X102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Y102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Z102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AA102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AB102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AC102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AD102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AE102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AF102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AG102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AH102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AI102" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AJ102" s="141">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="103" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B103" s="178"/>
-      <c r="D103" s="170"/>
-      <c r="E103" s="79" t="s">
-        <v>100</v>
-      </c>
-      <c r="F103" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="G103" s="86">
-        <v>0.85</v>
-      </c>
-      <c r="H103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="I103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="J103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="K103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="L103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="M103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="N103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="O103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="P103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Q103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="R103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="S103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="T103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="U103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="V103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="W103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="X103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Y103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Z103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AA103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AB103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AC103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AD103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AE103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AF103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AG103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AH103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AI103" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AJ103" s="141">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="104" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B104" s="178"/>
-      <c r="D104" s="170"/>
-      <c r="E104" s="79" t="s">
-        <v>100</v>
-      </c>
-      <c r="F104" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="G104" s="86">
-        <v>0.85</v>
-      </c>
-      <c r="H104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="I104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="J104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="K104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="L104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="M104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="N104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="O104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="P104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Q104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="R104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="S104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="T104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="U104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="V104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="W104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="X104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Y104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Z104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AA104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AB104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AC104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AD104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AE104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AF104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AG104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AH104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AI104" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AJ104" s="141">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="105" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B105" s="178"/>
-      <c r="D105" s="170"/>
-      <c r="E105" s="79" t="s">
+      <c r="G107" s="86">
+        <v>0.85</v>
+      </c>
+      <c r="H107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="I107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="J107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="K107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="L107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="M107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="N107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="O107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="P107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Q107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="R107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="S107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="T107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="U107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="V107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="W107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="X107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Y107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Z107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AA107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AB107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AC107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AD107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AE107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AF107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AG107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AH107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AI107" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AJ107" s="141">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="108" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B108" s="164"/>
+      <c r="D108" s="160"/>
+      <c r="E108" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="F105" s="80" t="s">
+      <c r="F108" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="G108" s="86">
+        <v>0.85</v>
+      </c>
+      <c r="H108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="I108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="J108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="K108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="L108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="M108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="N108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="O108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="P108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Q108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="R108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="S108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="T108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="U108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="V108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="W108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="X108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Y108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Z108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AA108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AB108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AC108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AD108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AE108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AF108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AG108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AH108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AI108" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AJ108" s="141">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="109" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B109" s="164"/>
+      <c r="D109" s="160"/>
+      <c r="E109" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="F109" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="G109" s="86">
+        <v>0.85</v>
+      </c>
+      <c r="H109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="I109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="J109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="K109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="L109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="M109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="N109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="O109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="P109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Q109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="R109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="S109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="T109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="U109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="V109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="W109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="X109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Y109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="Z109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AA109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AB109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AC109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AD109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AE109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AF109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AG109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AH109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AI109" s="141">
+        <v>0.85</v>
+      </c>
+      <c r="AJ109" s="141">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="110" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B110" s="164"/>
+      <c r="D110" s="160"/>
+      <c r="E110" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="F110" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="G105" s="86">
-        <v>0.85</v>
-      </c>
-      <c r="H105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="I105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="J105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="K105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="L105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="M105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="N105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="O105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="P105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Q105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="R105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="S105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="T105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="U105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="V105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="W105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="X105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Y105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Z105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AA105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AB105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AC105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AD105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AE105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AF105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AG105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AH105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AI105" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AJ105" s="141">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="106" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B106" s="178"/>
-      <c r="D106" s="170"/>
-      <c r="E106" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="F106" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="G106" s="86">
-        <v>0.85</v>
-      </c>
-      <c r="H106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="I106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="J106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="K106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="L106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="M106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="N106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="O106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="P106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Q106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="R106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="S106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="T106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="U106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="V106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="W106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="X106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Y106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Z106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AA106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AB106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AC106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AD106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AE106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AF106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AG106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AH106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AI106" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AJ106" s="141">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="107" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B107" s="178"/>
-      <c r="D107" s="170"/>
-      <c r="E107" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="F107" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="G107" s="86">
-        <v>0.85</v>
-      </c>
-      <c r="H107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="I107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="J107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="K107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="L107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="M107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="N107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="O107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="P107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Q107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="R107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="S107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="T107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="U107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="V107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="W107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="X107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Y107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Z107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AA107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AB107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AC107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AD107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AE107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AF107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AG107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AH107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AI107" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AJ107" s="141">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="108" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B108" s="178"/>
-      <c r="D108" s="170"/>
-      <c r="E108" s="79" t="s">
-        <v>104</v>
-      </c>
-      <c r="F108" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="G108" s="86">
-        <v>0.85</v>
-      </c>
-      <c r="H108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="I108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="J108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="K108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="L108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="M108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="N108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="O108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="P108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Q108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="R108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="S108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="T108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="U108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="V108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="W108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="X108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Y108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Z108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AA108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AB108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AC108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AD108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AE108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AF108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AG108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AH108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AI108" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AJ108" s="141">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="109" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B109" s="178"/>
-      <c r="D109" s="170"/>
-      <c r="E109" s="79" t="s">
-        <v>104</v>
-      </c>
-      <c r="F109" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="G109" s="86">
-        <v>0.85</v>
-      </c>
-      <c r="H109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="I109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="J109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="K109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="L109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="M109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="N109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="O109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="P109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Q109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="R109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="S109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="T109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="U109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="V109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="W109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="X109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Y109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="Z109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AA109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AB109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AC109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AD109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AE109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AF109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AG109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AH109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AI109" s="141">
-        <v>0.85</v>
-      </c>
-      <c r="AJ109" s="141">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="110" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B110" s="178"/>
-      <c r="D110" s="170"/>
-      <c r="E110" s="79" t="s">
-        <v>104</v>
-      </c>
-      <c r="F110" s="80" t="s">
-        <v>84</v>
-      </c>
       <c r="G110" s="86">
         <v>0.85</v>
       </c>
@@ -13845,12 +13852,12 @@
       </c>
     </row>
     <row r="111" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B111" s="178"/>
+      <c r="B111" s="164"/>
     </row>
     <row r="112" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B112" s="178"/>
-      <c r="G112" s="1">
-        <v>2021</v>
+      <c r="B112" s="164"/>
+      <c r="G112" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="H112" s="1">
         <v>2022</v>
@@ -13941,15 +13948,15 @@
       </c>
     </row>
     <row r="113" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B113" s="178"/>
-      <c r="D113" s="168" t="s">
-        <v>113</v>
+      <c r="B113" s="164"/>
+      <c r="D113" s="158" t="s">
+        <v>110</v>
       </c>
       <c r="E113" s="79" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F113" s="80" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G113" s="86">
         <f>2/24</f>
@@ -14044,13 +14051,13 @@
       </c>
     </row>
     <row r="114" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B114" s="178"/>
-      <c r="D114" s="169"/>
+      <c r="B114" s="164"/>
+      <c r="D114" s="159"/>
       <c r="E114" s="82" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F114" s="80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G114" s="86">
         <f t="shared" ref="G114:G115" si="7">2/24</f>
@@ -14145,13 +14152,13 @@
       </c>
     </row>
     <row r="115" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B115" s="178"/>
-      <c r="D115" s="169"/>
+      <c r="B115" s="164"/>
+      <c r="D115" s="159"/>
       <c r="E115" s="83" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F115" s="80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G115" s="86">
         <f t="shared" si="7"/>
@@ -14246,13 +14253,13 @@
       </c>
     </row>
     <row r="116" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B116" s="178"/>
-      <c r="D116" s="170"/>
+      <c r="B116" s="164"/>
+      <c r="D116" s="160"/>
       <c r="E116" s="79" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F116" s="80" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G116" s="86">
         <f>4/24</f>
@@ -14347,13 +14354,13 @@
       </c>
     </row>
     <row r="117" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B117" s="178"/>
-      <c r="D117" s="170"/>
+      <c r="B117" s="164"/>
+      <c r="D117" s="160"/>
       <c r="E117" s="79" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F117" s="80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G117" s="86">
         <f t="shared" ref="G117:G118" si="8">4/24</f>
@@ -14448,13 +14455,13 @@
       </c>
     </row>
     <row r="118" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B118" s="178"/>
-      <c r="D118" s="170"/>
+      <c r="B118" s="164"/>
+      <c r="D118" s="160"/>
       <c r="E118" s="79" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F118" s="80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G118" s="86">
         <f t="shared" si="8"/>
@@ -14549,13 +14556,13 @@
       </c>
     </row>
     <row r="119" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B119" s="178"/>
-      <c r="D119" s="170"/>
+      <c r="B119" s="164"/>
+      <c r="D119" s="160"/>
       <c r="E119" s="79" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F119" s="80" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G119" s="86">
         <f>6/24</f>
@@ -14650,13 +14657,13 @@
       </c>
     </row>
     <row r="120" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B120" s="178"/>
-      <c r="D120" s="170"/>
+      <c r="B120" s="164"/>
+      <c r="D120" s="160"/>
       <c r="E120" s="79" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F120" s="80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G120" s="86">
         <f t="shared" ref="G120:G121" si="9">6/24</f>
@@ -14751,13 +14758,13 @@
       </c>
     </row>
     <row r="121" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B121" s="178"/>
-      <c r="D121" s="170"/>
+      <c r="B121" s="164"/>
+      <c r="D121" s="160"/>
       <c r="E121" s="79" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F121" s="80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G121" s="86">
         <f t="shared" si="9"/>
@@ -14852,13 +14859,13 @@
       </c>
     </row>
     <row r="122" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B122" s="178"/>
-      <c r="D122" s="170"/>
+      <c r="B122" s="164"/>
+      <c r="D122" s="160"/>
       <c r="E122" s="79" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F122" s="80" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G122" s="86">
         <f>8/24</f>
@@ -14953,13 +14960,13 @@
       </c>
     </row>
     <row r="123" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B123" s="178"/>
-      <c r="D123" s="170"/>
+      <c r="B123" s="164"/>
+      <c r="D123" s="160"/>
       <c r="E123" s="79" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F123" s="80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G123" s="86">
         <f t="shared" ref="G123:G124" si="10">8/24</f>
@@ -15054,13 +15061,13 @@
       </c>
     </row>
     <row r="124" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B124" s="178"/>
-      <c r="D124" s="170"/>
+      <c r="B124" s="164"/>
+      <c r="D124" s="160"/>
       <c r="E124" s="79" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F124" s="80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G124" s="86">
         <f t="shared" si="10"/>
@@ -15155,13 +15162,13 @@
       </c>
     </row>
     <row r="125" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B125" s="178"/>
-      <c r="D125" s="170"/>
+      <c r="B125" s="164"/>
+      <c r="D125" s="160"/>
       <c r="E125" s="79" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F125" s="80" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G125" s="86">
         <f>10/24</f>
@@ -15256,13 +15263,13 @@
       </c>
     </row>
     <row r="126" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B126" s="178"/>
-      <c r="D126" s="170"/>
+      <c r="B126" s="164"/>
+      <c r="D126" s="160"/>
       <c r="E126" s="79" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F126" s="80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G126" s="86">
         <f t="shared" ref="G126:G127" si="11">10/24</f>
@@ -15357,13 +15364,13 @@
       </c>
     </row>
     <row r="127" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B127" s="178"/>
-      <c r="D127" s="170"/>
+      <c r="B127" s="164"/>
+      <c r="D127" s="160"/>
       <c r="E127" s="79" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F127" s="80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G127" s="86">
         <f t="shared" si="11"/>
@@ -15461,23 +15468,23 @@
       <c r="B128" s="87"/>
     </row>
     <row r="129" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B129" s="171" t="s">
-        <v>114</v>
-      </c>
-      <c r="C129" s="145"/>
-      <c r="D129" s="145"/>
-      <c r="E129" s="145"/>
-      <c r="F129" s="145"/>
-      <c r="G129" s="145"/>
-      <c r="H129" s="145"/>
-      <c r="I129" s="145"/>
-      <c r="J129" s="145"/>
-      <c r="K129" s="145"/>
-      <c r="L129" s="145"/>
-      <c r="M129" s="145"/>
-      <c r="N129" s="145"/>
-      <c r="O129" s="145"/>
-      <c r="P129" s="145"/>
+      <c r="B129" s="162" t="s">
+        <v>111</v>
+      </c>
+      <c r="C129" s="161"/>
+      <c r="D129" s="161"/>
+      <c r="E129" s="161"/>
+      <c r="F129" s="161"/>
+      <c r="G129" s="161"/>
+      <c r="H129" s="161"/>
+      <c r="I129" s="161"/>
+      <c r="J129" s="161"/>
+      <c r="K129" s="161"/>
+      <c r="L129" s="161"/>
+      <c r="M129" s="161"/>
+      <c r="N129" s="161"/>
+      <c r="O129" s="161"/>
+      <c r="P129" s="161"/>
       <c r="Q129" s="50"/>
       <c r="R129" s="50"/>
       <c r="S129" s="50"/>
@@ -15512,26 +15519,26 @@
     </row>
     <row r="131" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B131" s="40"/>
-      <c r="C131" s="172" t="s">
+      <c r="C131" s="152" t="s">
+        <v>112</v>
+      </c>
+      <c r="D131" s="153"/>
+      <c r="E131" s="153"/>
+      <c r="F131" s="153"/>
+      <c r="G131" s="153"/>
+      <c r="H131" s="153"/>
+      <c r="I131" s="155" t="s">
+        <v>113</v>
+      </c>
+      <c r="J131" s="156"/>
+      <c r="K131" s="156"/>
+      <c r="L131" s="156"/>
+      <c r="M131" s="157"/>
+      <c r="N131" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="O131" s="90" t="s">
         <v>115</v>
-      </c>
-      <c r="D131" s="173"/>
-      <c r="E131" s="173"/>
-      <c r="F131" s="173"/>
-      <c r="G131" s="173"/>
-      <c r="H131" s="173"/>
-      <c r="I131" s="174" t="s">
-        <v>116</v>
-      </c>
-      <c r="J131" s="175"/>
-      <c r="K131" s="175"/>
-      <c r="L131" s="175"/>
-      <c r="M131" s="176"/>
-      <c r="N131" s="89" t="s">
-        <v>117</v>
-      </c>
-      <c r="O131" s="90" t="s">
-        <v>118</v>
       </c>
       <c r="P131" s="91"/>
       <c r="Q131" s="91"/>
@@ -15544,16 +15551,16 @@
     </row>
     <row r="132" spans="2:28" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="40"/>
-      <c r="C132" s="162" t="s">
-        <v>119</v>
-      </c>
-      <c r="D132" s="163"/>
-      <c r="E132" s="163"/>
-      <c r="F132" s="163"/>
-      <c r="G132" s="163"/>
-      <c r="H132" s="164"/>
+      <c r="C132" s="142" t="s">
+        <v>116</v>
+      </c>
+      <c r="D132" s="143"/>
+      <c r="E132" s="143"/>
+      <c r="F132" s="143"/>
+      <c r="G132" s="143"/>
+      <c r="H132" s="144"/>
       <c r="I132" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M132" s="96"/>
       <c r="N132" s="97"/>
@@ -15562,16 +15569,16 @@
     </row>
     <row r="133" spans="2:28" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="40"/>
-      <c r="C133" s="162" t="s">
-        <v>120</v>
-      </c>
-      <c r="D133" s="163"/>
-      <c r="E133" s="163"/>
-      <c r="F133" s="163"/>
-      <c r="G133" s="163"/>
-      <c r="H133" s="164"/>
+      <c r="C133" s="142" t="s">
+        <v>117</v>
+      </c>
+      <c r="D133" s="143"/>
+      <c r="E133" s="143"/>
+      <c r="F133" s="143"/>
+      <c r="G133" s="143"/>
+      <c r="H133" s="144"/>
       <c r="I133" s="100" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J133" s="101"/>
       <c r="K133" s="101"/>
@@ -15580,7 +15587,7 @@
       <c r="N133" s="103"/>
       <c r="O133" s="103"/>
       <c r="P133" s="101" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q133" s="101"/>
       <c r="R133" s="101"/>
@@ -15592,21 +15599,21 @@
     </row>
     <row r="134" spans="2:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="40"/>
-      <c r="C134" s="162" t="s">
-        <v>109</v>
-      </c>
-      <c r="D134" s="163"/>
-      <c r="E134" s="163"/>
-      <c r="F134" s="163"/>
-      <c r="G134" s="163"/>
-      <c r="H134" s="164"/>
-      <c r="I134" s="165" t="s">
-        <v>122</v>
-      </c>
-      <c r="J134" s="166"/>
-      <c r="K134" s="166"/>
-      <c r="L134" s="166"/>
-      <c r="M134" s="167"/>
+      <c r="C134" s="142" t="s">
+        <v>106</v>
+      </c>
+      <c r="D134" s="143"/>
+      <c r="E134" s="143"/>
+      <c r="F134" s="143"/>
+      <c r="G134" s="143"/>
+      <c r="H134" s="144"/>
+      <c r="I134" s="148" t="s">
+        <v>119</v>
+      </c>
+      <c r="J134" s="149"/>
+      <c r="K134" s="149"/>
+      <c r="L134" s="149"/>
+      <c r="M134" s="150"/>
       <c r="N134" s="105"/>
       <c r="O134" s="105"/>
       <c r="P134" s="106"/>
@@ -15620,21 +15627,21 @@
     </row>
     <row r="135" spans="2:28" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="40"/>
-      <c r="C135" s="162" t="s">
-        <v>123</v>
-      </c>
-      <c r="D135" s="163"/>
-      <c r="E135" s="163"/>
-      <c r="F135" s="163"/>
-      <c r="G135" s="163"/>
-      <c r="H135" s="164"/>
-      <c r="I135" s="165" t="s">
-        <v>124</v>
-      </c>
-      <c r="J135" s="166"/>
-      <c r="K135" s="166"/>
-      <c r="L135" s="166"/>
-      <c r="M135" s="167"/>
+      <c r="C135" s="142" t="s">
+        <v>120</v>
+      </c>
+      <c r="D135" s="143"/>
+      <c r="E135" s="143"/>
+      <c r="F135" s="143"/>
+      <c r="G135" s="143"/>
+      <c r="H135" s="144"/>
+      <c r="I135" s="148" t="s">
+        <v>121</v>
+      </c>
+      <c r="J135" s="149"/>
+      <c r="K135" s="149"/>
+      <c r="L135" s="149"/>
+      <c r="M135" s="150"/>
       <c r="N135" s="105"/>
       <c r="O135" s="105"/>
       <c r="P135" s="106"/>
@@ -15648,16 +15655,16 @@
     </row>
     <row r="136" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B136" s="40"/>
-      <c r="C136" s="162" t="s">
-        <v>125</v>
-      </c>
-      <c r="D136" s="163"/>
-      <c r="E136" s="163"/>
-      <c r="F136" s="163"/>
-      <c r="G136" s="163"/>
-      <c r="H136" s="164"/>
+      <c r="C136" s="142" t="s">
+        <v>122</v>
+      </c>
+      <c r="D136" s="143"/>
+      <c r="E136" s="143"/>
+      <c r="F136" s="143"/>
+      <c r="G136" s="143"/>
+      <c r="H136" s="144"/>
       <c r="I136" s="108" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J136" s="109"/>
       <c r="K136" s="109"/>
@@ -15676,16 +15683,16 @@
     </row>
     <row r="137" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B137" s="40"/>
-      <c r="C137" s="179" t="s">
-        <v>126</v>
-      </c>
-      <c r="D137" s="180"/>
-      <c r="E137" s="180"/>
-      <c r="F137" s="180"/>
-      <c r="G137" s="180"/>
-      <c r="H137" s="181"/>
+      <c r="C137" s="145" t="s">
+        <v>123</v>
+      </c>
+      <c r="D137" s="146"/>
+      <c r="E137" s="146"/>
+      <c r="F137" s="146"/>
+      <c r="G137" s="146"/>
+      <c r="H137" s="147"/>
       <c r="I137" s="112" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J137" s="113"/>
       <c r="K137" s="113"/>
@@ -15704,12 +15711,12 @@
     </row>
     <row r="138" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B138" s="40"/>
-      <c r="C138" s="182"/>
-      <c r="D138" s="182"/>
-      <c r="E138" s="182"/>
-      <c r="F138" s="182"/>
-      <c r="G138" s="182"/>
-      <c r="H138" s="182"/>
+      <c r="C138" s="151"/>
+      <c r="D138" s="151"/>
+      <c r="E138" s="151"/>
+      <c r="F138" s="151"/>
+      <c r="G138" s="151"/>
+      <c r="H138" s="151"/>
       <c r="I138" s="116"/>
       <c r="J138" s="116"/>
       <c r="K138" s="116"/>
@@ -15728,26 +15735,26 @@
     </row>
     <row r="139" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B139" s="40"/>
-      <c r="C139" s="172" t="s">
-        <v>127</v>
-      </c>
-      <c r="D139" s="173"/>
-      <c r="E139" s="173"/>
-      <c r="F139" s="173"/>
-      <c r="G139" s="173"/>
-      <c r="H139" s="183"/>
-      <c r="I139" s="174" t="s">
-        <v>116</v>
-      </c>
-      <c r="J139" s="175"/>
-      <c r="K139" s="175"/>
-      <c r="L139" s="175"/>
-      <c r="M139" s="176"/>
+      <c r="C139" s="152" t="s">
+        <v>124</v>
+      </c>
+      <c r="D139" s="153"/>
+      <c r="E139" s="153"/>
+      <c r="F139" s="153"/>
+      <c r="G139" s="153"/>
+      <c r="H139" s="154"/>
+      <c r="I139" s="155" t="s">
+        <v>113</v>
+      </c>
+      <c r="J139" s="156"/>
+      <c r="K139" s="156"/>
+      <c r="L139" s="156"/>
+      <c r="M139" s="157"/>
       <c r="N139" s="89" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O139" s="89" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P139" s="118"/>
       <c r="Q139" s="119"/>
@@ -15760,16 +15767,16 @@
     </row>
     <row r="140" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B140" s="40"/>
-      <c r="C140" s="162" t="s">
-        <v>120</v>
-      </c>
-      <c r="D140" s="163"/>
-      <c r="E140" s="163"/>
-      <c r="F140" s="163"/>
-      <c r="G140" s="163"/>
-      <c r="H140" s="164"/>
+      <c r="C140" s="142" t="s">
+        <v>117</v>
+      </c>
+      <c r="D140" s="143"/>
+      <c r="E140" s="143"/>
+      <c r="F140" s="143"/>
+      <c r="G140" s="143"/>
+      <c r="H140" s="144"/>
       <c r="I140" s="100" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J140" s="101"/>
       <c r="K140" s="101"/>
@@ -15778,7 +15785,7 @@
       <c r="N140" s="103"/>
       <c r="O140" s="103"/>
       <c r="P140" s="101" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q140" s="101"/>
       <c r="R140" s="101"/>
@@ -15791,7 +15798,7 @@
     <row r="141" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B141" s="40"/>
       <c r="C141" s="93" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D141" s="94"/>
       <c r="E141" s="94"/>
@@ -15799,7 +15806,7 @@
       <c r="G141" s="94"/>
       <c r="H141" s="95"/>
       <c r="I141" s="122" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J141" s="123"/>
       <c r="K141" s="123"/>
@@ -15818,7 +15825,7 @@
     </row>
     <row r="142" spans="2:28" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C142" s="93" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D142" s="94"/>
       <c r="E142" s="94"/>
@@ -15826,7 +15833,7 @@
       <c r="G142" s="94"/>
       <c r="H142" s="95"/>
       <c r="I142" s="127" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J142" s="127"/>
       <c r="K142" s="127"/>
@@ -15834,7 +15841,7 @@
       <c r="M142" s="127"/>
       <c r="O142" s="128"/>
       <c r="P142" s="129" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Q142" s="94"/>
       <c r="R142" s="95"/>
@@ -15851,16 +15858,16 @@
     </row>
     <row r="143" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B143" s="40"/>
-      <c r="C143" s="162" t="s">
-        <v>123</v>
-      </c>
-      <c r="D143" s="163"/>
-      <c r="E143" s="163"/>
-      <c r="F143" s="163"/>
-      <c r="G143" s="163"/>
-      <c r="H143" s="164"/>
+      <c r="C143" s="142" t="s">
+        <v>120</v>
+      </c>
+      <c r="D143" s="143"/>
+      <c r="E143" s="143"/>
+      <c r="F143" s="143"/>
+      <c r="G143" s="143"/>
+      <c r="H143" s="144"/>
       <c r="I143" s="122" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J143" s="131"/>
       <c r="K143" s="131"/>
@@ -15879,16 +15886,16 @@
     </row>
     <row r="144" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B144" s="40"/>
-      <c r="C144" s="162" t="s">
+      <c r="C144" s="142" t="s">
+        <v>122</v>
+      </c>
+      <c r="D144" s="143"/>
+      <c r="E144" s="143"/>
+      <c r="F144" s="143"/>
+      <c r="G144" s="143"/>
+      <c r="H144" s="144"/>
+      <c r="I144" s="122" t="s">
         <v>125</v>
-      </c>
-      <c r="D144" s="163"/>
-      <c r="E144" s="163"/>
-      <c r="F144" s="163"/>
-      <c r="G144" s="163"/>
-      <c r="H144" s="164"/>
-      <c r="I144" s="122" t="s">
-        <v>128</v>
       </c>
       <c r="J144" s="109"/>
       <c r="K144" s="109"/>
@@ -15907,16 +15914,16 @@
     </row>
     <row r="145" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B145" s="40"/>
-      <c r="C145" s="179" t="s">
-        <v>131</v>
-      </c>
-      <c r="D145" s="180"/>
-      <c r="E145" s="180"/>
-      <c r="F145" s="180"/>
-      <c r="G145" s="180"/>
-      <c r="H145" s="181"/>
+      <c r="C145" s="145" t="s">
+        <v>128</v>
+      </c>
+      <c r="D145" s="146"/>
+      <c r="E145" s="146"/>
+      <c r="F145" s="146"/>
+      <c r="G145" s="146"/>
+      <c r="H145" s="147"/>
       <c r="I145" s="112" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J145" s="113"/>
       <c r="K145" s="113"/>
@@ -16166,17 +16173,16 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C140:H140"/>
-    <mergeCell ref="C143:H143"/>
-    <mergeCell ref="C144:H144"/>
-    <mergeCell ref="C145:H145"/>
-    <mergeCell ref="C135:H135"/>
-    <mergeCell ref="I135:M135"/>
-    <mergeCell ref="C136:H136"/>
-    <mergeCell ref="C137:H137"/>
-    <mergeCell ref="C138:H138"/>
-    <mergeCell ref="C139:H139"/>
-    <mergeCell ref="I139:M139"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="C7:Q7"/>
+    <mergeCell ref="B9:B36"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="C15:P16"/>
     <mergeCell ref="C134:H134"/>
     <mergeCell ref="I134:M134"/>
     <mergeCell ref="D17:D27"/>
@@ -16193,16 +16199,17 @@
     <mergeCell ref="D79:D93"/>
     <mergeCell ref="D96:D110"/>
     <mergeCell ref="D113:D127"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="C7:Q7"/>
-    <mergeCell ref="B9:B36"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="C15:P16"/>
+    <mergeCell ref="I135:M135"/>
+    <mergeCell ref="C136:H136"/>
+    <mergeCell ref="C137:H137"/>
+    <mergeCell ref="C138:H138"/>
+    <mergeCell ref="C139:H139"/>
+    <mergeCell ref="I139:M139"/>
+    <mergeCell ref="C140:H140"/>
+    <mergeCell ref="C143:H143"/>
+    <mergeCell ref="C144:H144"/>
+    <mergeCell ref="C145:H145"/>
+    <mergeCell ref="C135:H135"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M1" r:id="rId1" display="https://atb.nrel.gov/electricity/2022/utility-scale_battery_storage" xr:uid="{7816EC9A-0454-4087-A6E1-F971C99AA20E}"/>
@@ -16221,7 +16228,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17060,7 +17067,7 @@
   <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17070,7 +17077,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B1">
         <v>2021</v>
@@ -17165,7 +17172,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B2">
         <v>272875</v>
@@ -17378,7 +17385,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B5">
         <v>2021</v>
@@ -17473,7 +17480,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B6">
         <v>253384</v>
@@ -17686,10 +17693,10 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9">
         <v>390.92859792000002</v>
@@ -17781,10 +17788,10 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10">
         <v>363.00560831999996</v>
@@ -17876,7 +17883,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B12">
         <v>0.78500000000000003</v>
@@ -17896,7 +17903,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17911,7 +17918,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -18173,7 +18180,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B31"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18485,7 +18492,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
@@ -18493,7 +18500,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B2" s="36">
         <v>0.2</v>

--- a/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
+++ b/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\elec\BCpUC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\BCpUC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2023F6E8-4F57-4EF1-831B-D65E2CCCF5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6724F2-1A41-4679-A919-9BC9B9ABD18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -490,19 +490,10 @@
     <t>We determine this value via calibration against ATB data.</t>
   </si>
   <si>
-    <t>2022 to 2013 costs</t>
-  </si>
-  <si>
     <t>Raw Data (2022 $)</t>
   </si>
   <si>
     <t>Time (Year)</t>
-  </si>
-  <si>
-    <t>Battery Energy Cost per Unit Capacity : MostRecentRun</t>
-  </si>
-  <si>
-    <t>Battery Power Cost per Unit Capacity : MostRecentRun</t>
   </si>
   <si>
     <t>2021 (from 2023 ATB)</t>
@@ -515,6 +506,15 @@
   </si>
   <si>
     <t xml:space="preserve">All values are given in 2022 U.S. dollars except for 2021 values from ATB 2023 </t>
+  </si>
+  <si>
+    <t>Battery Energy Cost per Unit Capacity : test</t>
+  </si>
+  <si>
+    <t>2022 to 2012 costs</t>
+  </si>
+  <si>
+    <t>Battery Power Cost per Unit Capacity : test</t>
   </si>
 </sst>
 </file>
@@ -1971,69 +1971,15 @@
     <xf numFmtId="5" fontId="10" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="10" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -2080,6 +2026,60 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2227,85 +2227,85 @@
                   <c:v>303546</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>275720</c:v>
+                  <c:v>274986</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>254008</c:v>
+                  <c:v>253296</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>237399</c:v>
+                  <c:v>236734</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>223663</c:v>
+                  <c:v>223030</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>212018</c:v>
+                  <c:v>211554</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>202332</c:v>
+                  <c:v>201954</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>194107</c:v>
+                  <c:v>193764</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>186872</c:v>
+                  <c:v>186541</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>180500</c:v>
+                  <c:v>180196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>174745</c:v>
+                  <c:v>174552</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>169959</c:v>
+                  <c:v>169876</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>165780</c:v>
+                  <c:v>165776</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>162166</c:v>
+                  <c:v>162216</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>159002</c:v>
+                  <c:v>159077</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>156172</c:v>
+                  <c:v>156257</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>153632</c:v>
+                  <c:v>153722</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>151363</c:v>
+                  <c:v>151442</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>149361</c:v>
+                  <c:v>149428</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>147535</c:v>
+                  <c:v>147587</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>145853</c:v>
+                  <c:v>145898</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>144309</c:v>
+                  <c:v>144352</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>142883</c:v>
+                  <c:v>142921</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>141583</c:v>
+                  <c:v>141617</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>140367</c:v>
+                  <c:v>140396</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>139237</c:v>
+                  <c:v>139257</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>138175</c:v>
+                  <c:v>138188</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>137182</c:v>
+                  <c:v>137190</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4615,7 +4615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
@@ -4902,7 +4902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734360E0-DC8F-4FFB-9748-D4950767514E}">
   <dimension ref="A1:DD222"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C15" sqref="C15:P16"/>
     </sheetView>
   </sheetViews>
@@ -4918,19 +4918,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:108" s="40" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
       <c r="M1" s="3" t="s">
         <v>68</v>
       </c>
@@ -5060,12 +5060,12 @@
     </row>
     <row r="4" spans="1:108" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="44"/>
-      <c r="L4" s="166" t="s">
+      <c r="L4" s="143" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:108" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L5" s="167"/>
+      <c r="L5" s="144"/>
     </row>
     <row r="6" spans="1:108" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H6" s="45"/>
@@ -5097,23 +5097,23 @@
       <c r="B7" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="161" t="s">
+      <c r="C7" s="145" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="161"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
-      <c r="L7" s="161"/>
-      <c r="M7" s="161"/>
-      <c r="N7" s="161"/>
-      <c r="O7" s="161"/>
-      <c r="P7" s="161"/>
-      <c r="Q7" s="161"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
+      <c r="P7" s="145"/>
+      <c r="Q7" s="145"/>
       <c r="R7" s="50"/>
       <c r="S7" s="50"/>
       <c r="T7" s="50"/>
@@ -5131,43 +5131,43 @@
     </row>
     <row r="9" spans="1:108" s="40" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9"/>
-      <c r="B9" s="168" t="s">
+      <c r="B9" s="146" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="169" t="s">
+      <c r="D9" s="147" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="170"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="172">
+      <c r="E9" s="148"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="150">
         <v>2022</v>
       </c>
-      <c r="H9" s="173"/>
-      <c r="I9" s="173"/>
-      <c r="J9" s="173"/>
-      <c r="K9" s="174"/>
-      <c r="L9" s="174"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="152"/>
+      <c r="L9" s="152"/>
     </row>
     <row r="10" spans="1:108" s="40" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="168"/>
+      <c r="B10" s="146"/>
       <c r="D10" s="53" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J10" s="52"/>
     </row>
     <row r="11" spans="1:108" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="168"/>
-      <c r="D11" s="175" t="s">
+      <c r="B11" s="146"/>
+      <c r="D11" s="153" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="176"/>
-      <c r="F11" s="176"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="176"/>
-      <c r="K11" s="176"/>
-      <c r="L11" s="176"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="154"/>
       <c r="W11" s="54"/>
       <c r="X11" s="55"/>
       <c r="Y11" s="55"/>
@@ -5175,18 +5175,18 @@
       <c r="AA11" s="55"/>
     </row>
     <row r="12" spans="1:108" s="40" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="168"/>
-      <c r="D12" s="177" t="s">
+      <c r="B12" s="146"/>
+      <c r="D12" s="155" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="178"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="178"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="178"/>
-      <c r="K12" s="178"/>
-      <c r="L12" s="179"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="157"/>
       <c r="M12" s="56"/>
       <c r="W12" s="54"/>
       <c r="X12" s="55"/>
@@ -5195,16 +5195,16 @@
       <c r="AA12" s="55"/>
     </row>
     <row r="13" spans="1:108" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="168"/>
-      <c r="D13" s="180"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="181"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="181"/>
-      <c r="J13" s="181"/>
-      <c r="K13" s="181"/>
-      <c r="L13" s="182"/>
+      <c r="B13" s="146"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="159"/>
+      <c r="L13" s="160"/>
       <c r="W13" s="54"/>
       <c r="X13" s="55"/>
       <c r="Y13" s="55"/>
@@ -5212,49 +5212,49 @@
       <c r="AA13" s="55"/>
     </row>
     <row r="14" spans="1:108" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="168"/>
+      <c r="B14" s="146"/>
     </row>
     <row r="15" spans="1:108" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="168"/>
-      <c r="C15" s="183" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="183"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="183"/>
-      <c r="L15" s="183"/>
-      <c r="M15" s="183"/>
-      <c r="N15" s="183"/>
-      <c r="O15" s="183"/>
-      <c r="P15" s="183"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="161" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="161"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="161"/>
+      <c r="L15" s="161"/>
+      <c r="M15" s="161"/>
+      <c r="N15" s="161"/>
+      <c r="O15" s="161"/>
+      <c r="P15" s="161"/>
       <c r="Q15" s="57"/>
     </row>
     <row r="16" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="B16" s="168"/>
-      <c r="C16" s="183"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="183"/>
-      <c r="F16" s="183"/>
-      <c r="G16" s="183"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="183"/>
-      <c r="K16" s="183"/>
-      <c r="L16" s="183"/>
-      <c r="M16" s="183"/>
-      <c r="N16" s="183"/>
-      <c r="O16" s="183"/>
-      <c r="P16" s="183"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="161"/>
+      <c r="D16" s="161"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="161"/>
+      <c r="L16" s="161"/>
+      <c r="M16" s="161"/>
+      <c r="N16" s="161"/>
+      <c r="O16" s="161"/>
+      <c r="P16" s="161"/>
     </row>
     <row r="17" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="168"/>
+      <c r="B17" s="146"/>
       <c r="C17" s="58"/>
-      <c r="D17" s="158" t="s">
+      <c r="D17" s="168" t="s">
         <v>78</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -5262,11 +5262,11 @@
       </c>
     </row>
     <row r="18" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="168"/>
+      <c r="B18" s="146"/>
       <c r="C18" s="58"/>
-      <c r="D18" s="159"/>
+      <c r="D18" s="169"/>
       <c r="F18" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G18" s="1">
         <v>2022</v>
@@ -5357,9 +5357,9 @@
       </c>
     </row>
     <row r="19" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="168"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="58"/>
-      <c r="D19" s="159"/>
+      <c r="D19" s="169"/>
       <c r="E19" t="s">
         <v>80</v>
       </c>
@@ -5455,9 +5455,9 @@
       </c>
     </row>
     <row r="20" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="168"/>
+      <c r="B20" s="146"/>
       <c r="C20" s="58"/>
-      <c r="D20" s="160"/>
+      <c r="D20" s="170"/>
       <c r="E20" t="s">
         <v>81</v>
       </c>
@@ -5553,9 +5553,9 @@
       </c>
     </row>
     <row r="21" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="168"/>
+      <c r="B21" s="146"/>
       <c r="C21" s="58"/>
-      <c r="D21" s="160"/>
+      <c r="D21" s="170"/>
       <c r="E21" t="s">
         <v>82</v>
       </c>
@@ -5651,9 +5651,9 @@
       </c>
     </row>
     <row r="22" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="168"/>
+      <c r="B22" s="146"/>
       <c r="C22" s="58"/>
-      <c r="D22" s="160"/>
+      <c r="D22" s="170"/>
       <c r="F22" s="60"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -5686,20 +5686,20 @@
       <c r="AI22" s="5"/>
     </row>
     <row r="23" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="168"/>
+      <c r="B23" s="146"/>
       <c r="C23" s="58"/>
-      <c r="D23" s="160"/>
+      <c r="D23" s="170"/>
       <c r="E23" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F23" s="60"/>
     </row>
     <row r="24" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="168"/>
+      <c r="B24" s="146"/>
       <c r="C24" s="58"/>
-      <c r="D24" s="160"/>
+      <c r="D24" s="170"/>
       <c r="F24" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G24" s="1">
         <v>2022</v>
@@ -5790,9 +5790,9 @@
       </c>
     </row>
     <row r="25" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="168"/>
+      <c r="B25" s="146"/>
       <c r="C25" s="58"/>
-      <c r="D25" s="160"/>
+      <c r="D25" s="170"/>
       <c r="E25" t="s">
         <v>80</v>
       </c>
@@ -5888,9 +5888,9 @@
       </c>
     </row>
     <row r="26" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="168"/>
+      <c r="B26" s="146"/>
       <c r="C26" s="58"/>
-      <c r="D26" s="160"/>
+      <c r="D26" s="170"/>
       <c r="E26" t="s">
         <v>81</v>
       </c>
@@ -5986,9 +5986,9 @@
       </c>
     </row>
     <row r="27" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="168"/>
+      <c r="B27" s="146"/>
       <c r="C27" s="58"/>
-      <c r="D27" s="160"/>
+      <c r="D27" s="170"/>
       <c r="E27" t="s">
         <v>82</v>
       </c>
@@ -6084,7 +6084,7 @@
       </c>
     </row>
     <row r="28" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="168"/>
+      <c r="B28" s="146"/>
       <c r="C28" s="58"/>
       <c r="D28" s="58"/>
       <c r="G28" s="5"/>
@@ -6122,7 +6122,7 @@
       <c r="AM28" s="5"/>
     </row>
     <row r="29" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="168"/>
+      <c r="B29" s="146"/>
       <c r="C29" s="58"/>
       <c r="D29" s="58"/>
       <c r="E29" s="1" t="s">
@@ -6164,7 +6164,7 @@
       <c r="AM29" s="5"/>
     </row>
     <row r="30" spans="2:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="168"/>
+      <c r="B30" s="146"/>
       <c r="C30" s="58"/>
       <c r="D30" s="58"/>
       <c r="E30" s="1"/>
@@ -6204,9 +6204,9 @@
       <c r="AM30" s="5"/>
     </row>
     <row r="31" spans="2:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="168"/>
+      <c r="B31" s="146"/>
       <c r="C31" s="58"/>
-      <c r="D31" s="159" t="s">
+      <c r="D31" s="169" t="s">
         <v>85</v>
       </c>
       <c r="E31" s="61" t="s">
@@ -6256,9 +6256,9 @@
       <c r="AM31" s="5"/>
     </row>
     <row r="32" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="168"/>
+      <c r="B32" s="146"/>
       <c r="C32" s="58"/>
-      <c r="D32" s="159"/>
+      <c r="D32" s="169"/>
       <c r="E32" s="66" t="s">
         <v>91</v>
       </c>
@@ -6306,9 +6306,9 @@
       <c r="AM32" s="5"/>
     </row>
     <row r="33" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="168"/>
+      <c r="B33" s="146"/>
       <c r="C33" s="58"/>
-      <c r="D33" s="159"/>
+      <c r="D33" s="169"/>
       <c r="E33" s="69" t="s">
         <v>96</v>
       </c>
@@ -6356,9 +6356,9 @@
       <c r="AM33" s="5"/>
     </row>
     <row r="34" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="168"/>
+      <c r="B34" s="146"/>
       <c r="C34" s="58"/>
-      <c r="D34" s="159"/>
+      <c r="D34" s="169"/>
       <c r="E34" s="72" t="s">
         <v>98</v>
       </c>
@@ -6406,9 +6406,9 @@
       <c r="AM34" s="5"/>
     </row>
     <row r="35" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="168"/>
+      <c r="B35" s="146"/>
       <c r="C35" s="58"/>
-      <c r="D35" s="159"/>
+      <c r="D35" s="169"/>
       <c r="E35" s="69" t="s">
         <v>100</v>
       </c>
@@ -6456,9 +6456,9 @@
       <c r="AM35" s="5"/>
     </row>
     <row r="36" spans="2:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="168"/>
+      <c r="B36" s="146"/>
       <c r="C36" s="58"/>
-      <c r="D36" s="159"/>
+      <c r="D36" s="169"/>
       <c r="E36" s="75" t="s">
         <v>102</v>
       </c>
@@ -6545,23 +6545,23 @@
       <c r="AM37" s="5"/>
     </row>
     <row r="38" spans="2:74" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="161" t="s">
+      <c r="C38" s="145" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="161"/>
-      <c r="E38" s="161"/>
-      <c r="F38" s="161"/>
-      <c r="G38" s="161"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="161"/>
-      <c r="J38" s="161"/>
-      <c r="K38" s="161"/>
-      <c r="L38" s="161"/>
-      <c r="M38" s="161"/>
-      <c r="N38" s="161"/>
-      <c r="O38" s="161"/>
-      <c r="P38" s="161"/>
-      <c r="Q38" s="161"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
+      <c r="G38" s="145"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="145"/>
+      <c r="J38" s="145"/>
+      <c r="K38" s="145"/>
+      <c r="L38" s="145"/>
+      <c r="M38" s="145"/>
+      <c r="N38" s="145"/>
+      <c r="O38" s="145"/>
+      <c r="P38" s="145"/>
+      <c r="Q38" s="145"/>
       <c r="R38" s="50"/>
       <c r="S38" s="50"/>
       <c r="T38" s="50"/>
@@ -6593,7 +6593,7 @@
     <row r="39" spans="2:74" s="40" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D40" s="53" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="2:74" x14ac:dyDescent="0.25">
@@ -6603,7 +6603,7 @@
     </row>
     <row r="42" spans="2:74" x14ac:dyDescent="0.25">
       <c r="G42" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H42" s="1">
         <v>2022</v>
@@ -6694,10 +6694,10 @@
       </c>
     </row>
     <row r="43" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="163" t="s">
+      <c r="B43" s="177" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="158" t="s">
+      <c r="D43" s="168" t="s">
         <v>106</v>
       </c>
       <c r="E43" s="79" t="s">
@@ -6799,8 +6799,8 @@
       </c>
     </row>
     <row r="44" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B44" s="163"/>
-      <c r="D44" s="159"/>
+      <c r="B44" s="177"/>
+      <c r="D44" s="169"/>
       <c r="E44" s="82" t="s">
         <v>91</v>
       </c>
@@ -6900,8 +6900,8 @@
       </c>
     </row>
     <row r="45" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B45" s="163"/>
-      <c r="D45" s="159"/>
+      <c r="B45" s="177"/>
+      <c r="D45" s="169"/>
       <c r="E45" s="83" t="s">
         <v>91</v>
       </c>
@@ -7001,8 +7001,8 @@
       </c>
     </row>
     <row r="46" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B46" s="163"/>
-      <c r="D46" s="160"/>
+      <c r="B46" s="177"/>
+      <c r="D46" s="170"/>
       <c r="E46" s="79" t="s">
         <v>96</v>
       </c>
@@ -7135,8 +7135,8 @@
       <c r="BV46" s="5"/>
     </row>
     <row r="47" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B47" s="163"/>
-      <c r="D47" s="160"/>
+      <c r="B47" s="177"/>
+      <c r="D47" s="170"/>
       <c r="E47" s="79" t="s">
         <v>96</v>
       </c>
@@ -7269,8 +7269,8 @@
       <c r="BV47" s="5"/>
     </row>
     <row r="48" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B48" s="163"/>
-      <c r="D48" s="160"/>
+      <c r="B48" s="177"/>
+      <c r="D48" s="170"/>
       <c r="E48" s="79" t="s">
         <v>96</v>
       </c>
@@ -7403,8 +7403,8 @@
       <c r="BV48" s="5"/>
     </row>
     <row r="49" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B49" s="163"/>
-      <c r="D49" s="160"/>
+      <c r="B49" s="177"/>
+      <c r="D49" s="170"/>
       <c r="E49" s="79" t="s">
         <v>98</v>
       </c>
@@ -7537,8 +7537,8 @@
       <c r="BV49" s="5"/>
     </row>
     <row r="50" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B50" s="163"/>
-      <c r="D50" s="160"/>
+      <c r="B50" s="177"/>
+      <c r="D50" s="170"/>
       <c r="E50" s="79" t="s">
         <v>98</v>
       </c>
@@ -7671,8 +7671,8 @@
       <c r="BV50" s="5"/>
     </row>
     <row r="51" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B51" s="163"/>
-      <c r="D51" s="160"/>
+      <c r="B51" s="177"/>
+      <c r="D51" s="170"/>
       <c r="E51" s="79" t="s">
         <v>98</v>
       </c>
@@ -7805,8 +7805,8 @@
       <c r="BV51" s="5"/>
     </row>
     <row r="52" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B52" s="163"/>
-      <c r="D52" s="160"/>
+      <c r="B52" s="177"/>
+      <c r="D52" s="170"/>
       <c r="E52" s="79" t="s">
         <v>100</v>
       </c>
@@ -7939,8 +7939,8 @@
       <c r="BV52" s="5"/>
     </row>
     <row r="53" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B53" s="163"/>
-      <c r="D53" s="160"/>
+      <c r="B53" s="177"/>
+      <c r="D53" s="170"/>
       <c r="E53" s="79" t="s">
         <v>100</v>
       </c>
@@ -8073,8 +8073,8 @@
       <c r="BV53" s="5"/>
     </row>
     <row r="54" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B54" s="163"/>
-      <c r="D54" s="160"/>
+      <c r="B54" s="177"/>
+      <c r="D54" s="170"/>
       <c r="E54" s="79" t="s">
         <v>100</v>
       </c>
@@ -8207,8 +8207,8 @@
       <c r="BV54" s="5"/>
     </row>
     <row r="55" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B55" s="163"/>
-      <c r="D55" s="160"/>
+      <c r="B55" s="177"/>
+      <c r="D55" s="170"/>
       <c r="E55" s="79" t="s">
         <v>102</v>
       </c>
@@ -8341,8 +8341,8 @@
       <c r="BV55" s="5"/>
     </row>
     <row r="56" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B56" s="163"/>
-      <c r="D56" s="160"/>
+      <c r="B56" s="177"/>
+      <c r="D56" s="170"/>
       <c r="E56" s="79" t="s">
         <v>102</v>
       </c>
@@ -8475,8 +8475,8 @@
       <c r="BV56" s="5"/>
     </row>
     <row r="57" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B57" s="163"/>
-      <c r="D57" s="160"/>
+      <c r="B57" s="177"/>
+      <c r="D57" s="170"/>
       <c r="E57" s="79" t="s">
         <v>102</v>
       </c>
@@ -8609,7 +8609,7 @@
       <c r="BV57" s="5"/>
     </row>
     <row r="58" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B58" s="163"/>
+      <c r="B58" s="177"/>
       <c r="D58" s="58"/>
       <c r="E58" s="82"/>
       <c r="F58" s="82"/>
@@ -8678,7 +8678,7 @@
       <c r="BV58" s="5"/>
     </row>
     <row r="59" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B59" s="163"/>
+      <c r="B59" s="177"/>
       <c r="D59" s="58"/>
       <c r="E59" s="82"/>
       <c r="F59" s="82"/>
@@ -8747,7 +8747,7 @@
       <c r="BV59" s="5"/>
     </row>
     <row r="60" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B60" s="163"/>
+      <c r="B60" s="177"/>
       <c r="D60" s="58"/>
       <c r="E60" s="82"/>
       <c r="F60" s="82"/>
@@ -8816,12 +8816,12 @@
       <c r="BV60" s="5"/>
     </row>
     <row r="61" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B61" s="163"/>
+      <c r="B61" s="177"/>
       <c r="D61" s="84"/>
       <c r="E61" s="82"/>
       <c r="F61" s="82"/>
       <c r="G61" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H61" s="1">
         <v>2022</v>
@@ -8912,8 +8912,8 @@
       </c>
     </row>
     <row r="62" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B62" s="163"/>
-      <c r="D62" s="158" t="s">
+      <c r="B62" s="177"/>
+      <c r="D62" s="168" t="s">
         <v>107</v>
       </c>
       <c r="E62" s="79" t="s">
@@ -9015,8 +9015,8 @@
       </c>
     </row>
     <row r="63" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B63" s="163"/>
-      <c r="D63" s="159"/>
+      <c r="B63" s="177"/>
+      <c r="D63" s="169"/>
       <c r="E63" s="82" t="s">
         <v>91</v>
       </c>
@@ -9116,8 +9116,8 @@
       </c>
     </row>
     <row r="64" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B64" s="163"/>
-      <c r="D64" s="159"/>
+      <c r="B64" s="177"/>
+      <c r="D64" s="169"/>
       <c r="E64" s="83" t="s">
         <v>91</v>
       </c>
@@ -9217,8 +9217,8 @@
       </c>
     </row>
     <row r="65" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B65" s="163"/>
-      <c r="D65" s="160"/>
+      <c r="B65" s="177"/>
+      <c r="D65" s="170"/>
       <c r="E65" s="79" t="s">
         <v>96</v>
       </c>
@@ -9318,8 +9318,8 @@
       </c>
     </row>
     <row r="66" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B66" s="163"/>
-      <c r="D66" s="160"/>
+      <c r="B66" s="177"/>
+      <c r="D66" s="170"/>
       <c r="E66" s="79" t="s">
         <v>96</v>
       </c>
@@ -9419,8 +9419,8 @@
       </c>
     </row>
     <row r="67" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B67" s="163"/>
-      <c r="D67" s="160"/>
+      <c r="B67" s="177"/>
+      <c r="D67" s="170"/>
       <c r="E67" s="79" t="s">
         <v>96</v>
       </c>
@@ -9520,8 +9520,8 @@
       </c>
     </row>
     <row r="68" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B68" s="163"/>
-      <c r="D68" s="160"/>
+      <c r="B68" s="177"/>
+      <c r="D68" s="170"/>
       <c r="E68" s="79" t="s">
         <v>98</v>
       </c>
@@ -9621,8 +9621,8 @@
       </c>
     </row>
     <row r="69" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B69" s="163"/>
-      <c r="D69" s="160"/>
+      <c r="B69" s="177"/>
+      <c r="D69" s="170"/>
       <c r="E69" s="79" t="s">
         <v>98</v>
       </c>
@@ -9722,8 +9722,8 @@
       </c>
     </row>
     <row r="70" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B70" s="163"/>
-      <c r="D70" s="160"/>
+      <c r="B70" s="177"/>
+      <c r="D70" s="170"/>
       <c r="E70" s="79" t="s">
         <v>98</v>
       </c>
@@ -9823,8 +9823,8 @@
       </c>
     </row>
     <row r="71" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B71" s="163"/>
-      <c r="D71" s="160"/>
+      <c r="B71" s="177"/>
+      <c r="D71" s="170"/>
       <c r="E71" s="79" t="s">
         <v>100</v>
       </c>
@@ -9957,8 +9957,8 @@
       <c r="BV71" s="5"/>
     </row>
     <row r="72" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B72" s="163"/>
-      <c r="D72" s="160"/>
+      <c r="B72" s="177"/>
+      <c r="D72" s="170"/>
       <c r="E72" s="79" t="s">
         <v>100</v>
       </c>
@@ -10091,8 +10091,8 @@
       <c r="BV72" s="5"/>
     </row>
     <row r="73" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B73" s="163"/>
-      <c r="D73" s="160"/>
+      <c r="B73" s="177"/>
+      <c r="D73" s="170"/>
       <c r="E73" s="79" t="s">
         <v>100</v>
       </c>
@@ -10225,8 +10225,8 @@
       <c r="BV73" s="5"/>
     </row>
     <row r="74" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B74" s="163"/>
-      <c r="D74" s="160"/>
+      <c r="B74" s="177"/>
+      <c r="D74" s="170"/>
       <c r="E74" s="79" t="s">
         <v>102</v>
       </c>
@@ -10359,8 +10359,8 @@
       <c r="BV74" s="5"/>
     </row>
     <row r="75" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B75" s="163"/>
-      <c r="D75" s="160"/>
+      <c r="B75" s="177"/>
+      <c r="D75" s="170"/>
       <c r="E75" s="79" t="s">
         <v>102</v>
       </c>
@@ -10493,8 +10493,8 @@
       <c r="BV75" s="5"/>
     </row>
     <row r="76" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B76" s="163"/>
-      <c r="D76" s="160"/>
+      <c r="B76" s="177"/>
+      <c r="D76" s="170"/>
       <c r="E76" s="79" t="s">
         <v>102</v>
       </c>
@@ -10627,18 +10627,18 @@
       <c r="BV76" s="5"/>
     </row>
     <row r="77" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B77" s="163"/>
+      <c r="B77" s="177"/>
       <c r="D77" s="84"/>
       <c r="E77" s="82"/>
       <c r="F77" s="82"/>
     </row>
     <row r="78" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B78" s="163"/>
+      <c r="B78" s="177"/>
       <c r="D78" s="40"/>
       <c r="E78" s="85"/>
       <c r="F78" s="85"/>
       <c r="G78" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H78" s="1">
         <v>2022</v>
@@ -10729,8 +10729,8 @@
       </c>
     </row>
     <row r="79" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B79" s="163"/>
-      <c r="D79" s="158" t="s">
+      <c r="B79" s="177"/>
+      <c r="D79" s="168" t="s">
         <v>108</v>
       </c>
       <c r="E79" s="79" t="s">
@@ -10832,8 +10832,8 @@
       <c r="AO79" s="1"/>
     </row>
     <row r="80" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B80" s="163"/>
-      <c r="D80" s="159"/>
+      <c r="B80" s="177"/>
+      <c r="D80" s="169"/>
       <c r="E80" s="82" t="s">
         <v>91</v>
       </c>
@@ -10933,8 +10933,8 @@
       <c r="AO80" s="1"/>
     </row>
     <row r="81" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B81" s="163"/>
-      <c r="D81" s="159"/>
+      <c r="B81" s="177"/>
+      <c r="D81" s="169"/>
       <c r="E81" s="83" t="s">
         <v>91</v>
       </c>
@@ -11034,8 +11034,8 @@
       <c r="AO81" s="1"/>
     </row>
     <row r="82" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B82" s="164"/>
-      <c r="D82" s="160"/>
+      <c r="B82" s="178"/>
+      <c r="D82" s="170"/>
       <c r="E82" s="79" t="s">
         <v>96</v>
       </c>
@@ -11134,8 +11134,8 @@
       </c>
     </row>
     <row r="83" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B83" s="164"/>
-      <c r="D83" s="160"/>
+      <c r="B83" s="178"/>
+      <c r="D83" s="170"/>
       <c r="E83" s="79" t="s">
         <v>96</v>
       </c>
@@ -11234,8 +11234,8 @@
       </c>
     </row>
     <row r="84" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B84" s="164"/>
-      <c r="D84" s="160"/>
+      <c r="B84" s="178"/>
+      <c r="D84" s="170"/>
       <c r="E84" s="79" t="s">
         <v>96</v>
       </c>
@@ -11336,8 +11336,8 @@
       <c r="AL84" s="5"/>
     </row>
     <row r="85" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B85" s="164"/>
-      <c r="D85" s="160"/>
+      <c r="B85" s="178"/>
+      <c r="D85" s="170"/>
       <c r="E85" s="79" t="s">
         <v>98</v>
       </c>
@@ -11438,8 +11438,8 @@
       <c r="AL85" s="5"/>
     </row>
     <row r="86" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B86" s="164"/>
-      <c r="D86" s="160"/>
+      <c r="B86" s="178"/>
+      <c r="D86" s="170"/>
       <c r="E86" s="79" t="s">
         <v>98</v>
       </c>
@@ -11540,8 +11540,8 @@
       <c r="AL86" s="5"/>
     </row>
     <row r="87" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B87" s="164"/>
-      <c r="D87" s="160"/>
+      <c r="B87" s="178"/>
+      <c r="D87" s="170"/>
       <c r="E87" s="79" t="s">
         <v>98</v>
       </c>
@@ -11642,8 +11642,8 @@
       <c r="AL87" s="5"/>
     </row>
     <row r="88" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B88" s="164"/>
-      <c r="D88" s="160"/>
+      <c r="B88" s="178"/>
+      <c r="D88" s="170"/>
       <c r="E88" s="79" t="s">
         <v>100</v>
       </c>
@@ -11744,8 +11744,8 @@
       <c r="AL88" s="5"/>
     </row>
     <row r="89" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B89" s="164"/>
-      <c r="D89" s="160"/>
+      <c r="B89" s="178"/>
+      <c r="D89" s="170"/>
       <c r="E89" s="79" t="s">
         <v>100</v>
       </c>
@@ -11846,8 +11846,8 @@
       <c r="AL89" s="5"/>
     </row>
     <row r="90" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B90" s="164"/>
-      <c r="D90" s="160"/>
+      <c r="B90" s="178"/>
+      <c r="D90" s="170"/>
       <c r="E90" s="79" t="s">
         <v>100</v>
       </c>
@@ -11948,8 +11948,8 @@
       <c r="AL90" s="5"/>
     </row>
     <row r="91" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B91" s="164"/>
-      <c r="D91" s="160"/>
+      <c r="B91" s="178"/>
+      <c r="D91" s="170"/>
       <c r="E91" s="79" t="s">
         <v>102</v>
       </c>
@@ -12050,8 +12050,8 @@
       <c r="AL91" s="5"/>
     </row>
     <row r="92" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B92" s="164"/>
-      <c r="D92" s="160"/>
+      <c r="B92" s="178"/>
+      <c r="D92" s="170"/>
       <c r="E92" s="79" t="s">
         <v>102</v>
       </c>
@@ -12152,8 +12152,8 @@
       <c r="AL92" s="5"/>
     </row>
     <row r="93" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B93" s="164"/>
-      <c r="D93" s="160"/>
+      <c r="B93" s="178"/>
+      <c r="D93" s="170"/>
       <c r="E93" s="79" t="s">
         <v>102</v>
       </c>
@@ -12254,12 +12254,12 @@
       <c r="AL93" s="5"/>
     </row>
     <row r="94" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B94" s="164"/>
+      <c r="B94" s="178"/>
     </row>
     <row r="95" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="164"/>
+      <c r="B95" s="178"/>
       <c r="G95" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H95" s="1">
         <v>2022</v>
@@ -12350,8 +12350,8 @@
       </c>
     </row>
     <row r="96" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B96" s="164"/>
-      <c r="D96" s="158" t="s">
+      <c r="B96" s="178"/>
+      <c r="D96" s="168" t="s">
         <v>109</v>
       </c>
       <c r="E96" s="79" t="s">
@@ -12452,8 +12452,8 @@
       </c>
     </row>
     <row r="97" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B97" s="164"/>
-      <c r="D97" s="159"/>
+      <c r="B97" s="178"/>
+      <c r="D97" s="169"/>
       <c r="E97" s="82" t="s">
         <v>91</v>
       </c>
@@ -12552,8 +12552,8 @@
       </c>
     </row>
     <row r="98" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B98" s="164"/>
-      <c r="D98" s="159"/>
+      <c r="B98" s="178"/>
+      <c r="D98" s="169"/>
       <c r="E98" s="83" t="s">
         <v>91</v>
       </c>
@@ -12652,8 +12652,8 @@
       </c>
     </row>
     <row r="99" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B99" s="164"/>
-      <c r="D99" s="160"/>
+      <c r="B99" s="178"/>
+      <c r="D99" s="170"/>
       <c r="E99" s="79" t="s">
         <v>96</v>
       </c>
@@ -12752,8 +12752,8 @@
       </c>
     </row>
     <row r="100" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B100" s="164"/>
-      <c r="D100" s="160"/>
+      <c r="B100" s="178"/>
+      <c r="D100" s="170"/>
       <c r="E100" s="79" t="s">
         <v>96</v>
       </c>
@@ -12852,8 +12852,8 @@
       </c>
     </row>
     <row r="101" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B101" s="164"/>
-      <c r="D101" s="160"/>
+      <c r="B101" s="178"/>
+      <c r="D101" s="170"/>
       <c r="E101" s="79" t="s">
         <v>96</v>
       </c>
@@ -12952,8 +12952,8 @@
       </c>
     </row>
     <row r="102" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B102" s="164"/>
-      <c r="D102" s="160"/>
+      <c r="B102" s="178"/>
+      <c r="D102" s="170"/>
       <c r="E102" s="79" t="s">
         <v>98</v>
       </c>
@@ -13052,8 +13052,8 @@
       </c>
     </row>
     <row r="103" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B103" s="164"/>
-      <c r="D103" s="160"/>
+      <c r="B103" s="178"/>
+      <c r="D103" s="170"/>
       <c r="E103" s="79" t="s">
         <v>98</v>
       </c>
@@ -13152,8 +13152,8 @@
       </c>
     </row>
     <row r="104" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B104" s="164"/>
-      <c r="D104" s="160"/>
+      <c r="B104" s="178"/>
+      <c r="D104" s="170"/>
       <c r="E104" s="79" t="s">
         <v>98</v>
       </c>
@@ -13252,8 +13252,8 @@
       </c>
     </row>
     <row r="105" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B105" s="164"/>
-      <c r="D105" s="160"/>
+      <c r="B105" s="178"/>
+      <c r="D105" s="170"/>
       <c r="E105" s="79" t="s">
         <v>100</v>
       </c>
@@ -13352,8 +13352,8 @@
       </c>
     </row>
     <row r="106" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B106" s="164"/>
-      <c r="D106" s="160"/>
+      <c r="B106" s="178"/>
+      <c r="D106" s="170"/>
       <c r="E106" s="79" t="s">
         <v>100</v>
       </c>
@@ -13452,8 +13452,8 @@
       </c>
     </row>
     <row r="107" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B107" s="164"/>
-      <c r="D107" s="160"/>
+      <c r="B107" s="178"/>
+      <c r="D107" s="170"/>
       <c r="E107" s="79" t="s">
         <v>100</v>
       </c>
@@ -13552,8 +13552,8 @@
       </c>
     </row>
     <row r="108" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B108" s="164"/>
-      <c r="D108" s="160"/>
+      <c r="B108" s="178"/>
+      <c r="D108" s="170"/>
       <c r="E108" s="79" t="s">
         <v>102</v>
       </c>
@@ -13652,8 +13652,8 @@
       </c>
     </row>
     <row r="109" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B109" s="164"/>
-      <c r="D109" s="160"/>
+      <c r="B109" s="178"/>
+      <c r="D109" s="170"/>
       <c r="E109" s="79" t="s">
         <v>102</v>
       </c>
@@ -13752,8 +13752,8 @@
       </c>
     </row>
     <row r="110" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B110" s="164"/>
-      <c r="D110" s="160"/>
+      <c r="B110" s="178"/>
+      <c r="D110" s="170"/>
       <c r="E110" s="79" t="s">
         <v>102</v>
       </c>
@@ -13852,12 +13852,12 @@
       </c>
     </row>
     <row r="111" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B111" s="164"/>
+      <c r="B111" s="178"/>
     </row>
     <row r="112" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B112" s="164"/>
+      <c r="B112" s="178"/>
       <c r="G112" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H112" s="1">
         <v>2022</v>
@@ -13948,8 +13948,8 @@
       </c>
     </row>
     <row r="113" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B113" s="164"/>
-      <c r="D113" s="158" t="s">
+      <c r="B113" s="178"/>
+      <c r="D113" s="168" t="s">
         <v>110</v>
       </c>
       <c r="E113" s="79" t="s">
@@ -14051,8 +14051,8 @@
       </c>
     </row>
     <row r="114" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B114" s="164"/>
-      <c r="D114" s="159"/>
+      <c r="B114" s="178"/>
+      <c r="D114" s="169"/>
       <c r="E114" s="82" t="s">
         <v>91</v>
       </c>
@@ -14152,8 +14152,8 @@
       </c>
     </row>
     <row r="115" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B115" s="164"/>
-      <c r="D115" s="159"/>
+      <c r="B115" s="178"/>
+      <c r="D115" s="169"/>
       <c r="E115" s="83" t="s">
         <v>91</v>
       </c>
@@ -14253,8 +14253,8 @@
       </c>
     </row>
     <row r="116" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B116" s="164"/>
-      <c r="D116" s="160"/>
+      <c r="B116" s="178"/>
+      <c r="D116" s="170"/>
       <c r="E116" s="79" t="s">
         <v>96</v>
       </c>
@@ -14354,8 +14354,8 @@
       </c>
     </row>
     <row r="117" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B117" s="164"/>
-      <c r="D117" s="160"/>
+      <c r="B117" s="178"/>
+      <c r="D117" s="170"/>
       <c r="E117" s="79" t="s">
         <v>96</v>
       </c>
@@ -14455,8 +14455,8 @@
       </c>
     </row>
     <row r="118" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B118" s="164"/>
-      <c r="D118" s="160"/>
+      <c r="B118" s="178"/>
+      <c r="D118" s="170"/>
       <c r="E118" s="79" t="s">
         <v>96</v>
       </c>
@@ -14556,8 +14556,8 @@
       </c>
     </row>
     <row r="119" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B119" s="164"/>
-      <c r="D119" s="160"/>
+      <c r="B119" s="178"/>
+      <c r="D119" s="170"/>
       <c r="E119" s="79" t="s">
         <v>98</v>
       </c>
@@ -14657,8 +14657,8 @@
       </c>
     </row>
     <row r="120" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B120" s="164"/>
-      <c r="D120" s="160"/>
+      <c r="B120" s="178"/>
+      <c r="D120" s="170"/>
       <c r="E120" s="79" t="s">
         <v>98</v>
       </c>
@@ -14758,8 +14758,8 @@
       </c>
     </row>
     <row r="121" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B121" s="164"/>
-      <c r="D121" s="160"/>
+      <c r="B121" s="178"/>
+      <c r="D121" s="170"/>
       <c r="E121" s="79" t="s">
         <v>98</v>
       </c>
@@ -14859,8 +14859,8 @@
       </c>
     </row>
     <row r="122" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B122" s="164"/>
-      <c r="D122" s="160"/>
+      <c r="B122" s="178"/>
+      <c r="D122" s="170"/>
       <c r="E122" s="79" t="s">
         <v>100</v>
       </c>
@@ -14960,8 +14960,8 @@
       </c>
     </row>
     <row r="123" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B123" s="164"/>
-      <c r="D123" s="160"/>
+      <c r="B123" s="178"/>
+      <c r="D123" s="170"/>
       <c r="E123" s="79" t="s">
         <v>100</v>
       </c>
@@ -15061,8 +15061,8 @@
       </c>
     </row>
     <row r="124" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B124" s="164"/>
-      <c r="D124" s="160"/>
+      <c r="B124" s="178"/>
+      <c r="D124" s="170"/>
       <c r="E124" s="79" t="s">
         <v>100</v>
       </c>
@@ -15162,8 +15162,8 @@
       </c>
     </row>
     <row r="125" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B125" s="164"/>
-      <c r="D125" s="160"/>
+      <c r="B125" s="178"/>
+      <c r="D125" s="170"/>
       <c r="E125" s="79" t="s">
         <v>102</v>
       </c>
@@ -15263,8 +15263,8 @@
       </c>
     </row>
     <row r="126" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B126" s="164"/>
-      <c r="D126" s="160"/>
+      <c r="B126" s="178"/>
+      <c r="D126" s="170"/>
       <c r="E126" s="79" t="s">
         <v>102</v>
       </c>
@@ -15364,8 +15364,8 @@
       </c>
     </row>
     <row r="127" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B127" s="164"/>
-      <c r="D127" s="160"/>
+      <c r="B127" s="178"/>
+      <c r="D127" s="170"/>
       <c r="E127" s="79" t="s">
         <v>102</v>
       </c>
@@ -15468,23 +15468,23 @@
       <c r="B128" s="87"/>
     </row>
     <row r="129" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B129" s="162" t="s">
+      <c r="B129" s="171" t="s">
         <v>111</v>
       </c>
-      <c r="C129" s="161"/>
-      <c r="D129" s="161"/>
-      <c r="E129" s="161"/>
-      <c r="F129" s="161"/>
-      <c r="G129" s="161"/>
-      <c r="H129" s="161"/>
-      <c r="I129" s="161"/>
-      <c r="J129" s="161"/>
-      <c r="K129" s="161"/>
-      <c r="L129" s="161"/>
-      <c r="M129" s="161"/>
-      <c r="N129" s="161"/>
-      <c r="O129" s="161"/>
-      <c r="P129" s="161"/>
+      <c r="C129" s="145"/>
+      <c r="D129" s="145"/>
+      <c r="E129" s="145"/>
+      <c r="F129" s="145"/>
+      <c r="G129" s="145"/>
+      <c r="H129" s="145"/>
+      <c r="I129" s="145"/>
+      <c r="J129" s="145"/>
+      <c r="K129" s="145"/>
+      <c r="L129" s="145"/>
+      <c r="M129" s="145"/>
+      <c r="N129" s="145"/>
+      <c r="O129" s="145"/>
+      <c r="P129" s="145"/>
       <c r="Q129" s="50"/>
       <c r="R129" s="50"/>
       <c r="S129" s="50"/>
@@ -15519,21 +15519,21 @@
     </row>
     <row r="131" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B131" s="40"/>
-      <c r="C131" s="152" t="s">
+      <c r="C131" s="172" t="s">
         <v>112</v>
       </c>
-      <c r="D131" s="153"/>
-      <c r="E131" s="153"/>
-      <c r="F131" s="153"/>
-      <c r="G131" s="153"/>
-      <c r="H131" s="153"/>
-      <c r="I131" s="155" t="s">
+      <c r="D131" s="173"/>
+      <c r="E131" s="173"/>
+      <c r="F131" s="173"/>
+      <c r="G131" s="173"/>
+      <c r="H131" s="173"/>
+      <c r="I131" s="174" t="s">
         <v>113</v>
       </c>
-      <c r="J131" s="156"/>
-      <c r="K131" s="156"/>
-      <c r="L131" s="156"/>
-      <c r="M131" s="157"/>
+      <c r="J131" s="175"/>
+      <c r="K131" s="175"/>
+      <c r="L131" s="175"/>
+      <c r="M131" s="176"/>
       <c r="N131" s="89" t="s">
         <v>114</v>
       </c>
@@ -15551,14 +15551,14 @@
     </row>
     <row r="132" spans="2:28" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="40"/>
-      <c r="C132" s="142" t="s">
+      <c r="C132" s="162" t="s">
         <v>116</v>
       </c>
-      <c r="D132" s="143"/>
-      <c r="E132" s="143"/>
-      <c r="F132" s="143"/>
-      <c r="G132" s="143"/>
-      <c r="H132" s="144"/>
+      <c r="D132" s="163"/>
+      <c r="E132" s="163"/>
+      <c r="F132" s="163"/>
+      <c r="G132" s="163"/>
+      <c r="H132" s="164"/>
       <c r="I132" t="s">
         <v>93</v>
       </c>
@@ -15569,14 +15569,14 @@
     </row>
     <row r="133" spans="2:28" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="40"/>
-      <c r="C133" s="142" t="s">
+      <c r="C133" s="162" t="s">
         <v>117</v>
       </c>
-      <c r="D133" s="143"/>
-      <c r="E133" s="143"/>
-      <c r="F133" s="143"/>
-      <c r="G133" s="143"/>
-      <c r="H133" s="144"/>
+      <c r="D133" s="163"/>
+      <c r="E133" s="163"/>
+      <c r="F133" s="163"/>
+      <c r="G133" s="163"/>
+      <c r="H133" s="164"/>
       <c r="I133" s="100" t="s">
         <v>93</v>
       </c>
@@ -15599,21 +15599,21 @@
     </row>
     <row r="134" spans="2:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="40"/>
-      <c r="C134" s="142" t="s">
+      <c r="C134" s="162" t="s">
         <v>106</v>
       </c>
-      <c r="D134" s="143"/>
-      <c r="E134" s="143"/>
-      <c r="F134" s="143"/>
-      <c r="G134" s="143"/>
-      <c r="H134" s="144"/>
-      <c r="I134" s="148" t="s">
+      <c r="D134" s="163"/>
+      <c r="E134" s="163"/>
+      <c r="F134" s="163"/>
+      <c r="G134" s="163"/>
+      <c r="H134" s="164"/>
+      <c r="I134" s="165" t="s">
         <v>119</v>
       </c>
-      <c r="J134" s="149"/>
-      <c r="K134" s="149"/>
-      <c r="L134" s="149"/>
-      <c r="M134" s="150"/>
+      <c r="J134" s="166"/>
+      <c r="K134" s="166"/>
+      <c r="L134" s="166"/>
+      <c r="M134" s="167"/>
       <c r="N134" s="105"/>
       <c r="O134" s="105"/>
       <c r="P134" s="106"/>
@@ -15627,21 +15627,21 @@
     </row>
     <row r="135" spans="2:28" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="40"/>
-      <c r="C135" s="142" t="s">
+      <c r="C135" s="162" t="s">
         <v>120</v>
       </c>
-      <c r="D135" s="143"/>
-      <c r="E135" s="143"/>
-      <c r="F135" s="143"/>
-      <c r="G135" s="143"/>
-      <c r="H135" s="144"/>
-      <c r="I135" s="148" t="s">
+      <c r="D135" s="163"/>
+      <c r="E135" s="163"/>
+      <c r="F135" s="163"/>
+      <c r="G135" s="163"/>
+      <c r="H135" s="164"/>
+      <c r="I135" s="165" t="s">
         <v>121</v>
       </c>
-      <c r="J135" s="149"/>
-      <c r="K135" s="149"/>
-      <c r="L135" s="149"/>
-      <c r="M135" s="150"/>
+      <c r="J135" s="166"/>
+      <c r="K135" s="166"/>
+      <c r="L135" s="166"/>
+      <c r="M135" s="167"/>
       <c r="N135" s="105"/>
       <c r="O135" s="105"/>
       <c r="P135" s="106"/>
@@ -15655,14 +15655,14 @@
     </row>
     <row r="136" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B136" s="40"/>
-      <c r="C136" s="142" t="s">
+      <c r="C136" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="D136" s="143"/>
-      <c r="E136" s="143"/>
-      <c r="F136" s="143"/>
-      <c r="G136" s="143"/>
-      <c r="H136" s="144"/>
+      <c r="D136" s="163"/>
+      <c r="E136" s="163"/>
+      <c r="F136" s="163"/>
+      <c r="G136" s="163"/>
+      <c r="H136" s="164"/>
       <c r="I136" s="108" t="s">
         <v>93</v>
       </c>
@@ -15683,14 +15683,14 @@
     </row>
     <row r="137" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B137" s="40"/>
-      <c r="C137" s="145" t="s">
+      <c r="C137" s="179" t="s">
         <v>123</v>
       </c>
-      <c r="D137" s="146"/>
-      <c r="E137" s="146"/>
-      <c r="F137" s="146"/>
-      <c r="G137" s="146"/>
-      <c r="H137" s="147"/>
+      <c r="D137" s="180"/>
+      <c r="E137" s="180"/>
+      <c r="F137" s="180"/>
+      <c r="G137" s="180"/>
+      <c r="H137" s="181"/>
       <c r="I137" s="112" t="s">
         <v>93</v>
       </c>
@@ -15711,12 +15711,12 @@
     </row>
     <row r="138" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B138" s="40"/>
-      <c r="C138" s="151"/>
-      <c r="D138" s="151"/>
-      <c r="E138" s="151"/>
-      <c r="F138" s="151"/>
-      <c r="G138" s="151"/>
-      <c r="H138" s="151"/>
+      <c r="C138" s="182"/>
+      <c r="D138" s="182"/>
+      <c r="E138" s="182"/>
+      <c r="F138" s="182"/>
+      <c r="G138" s="182"/>
+      <c r="H138" s="182"/>
       <c r="I138" s="116"/>
       <c r="J138" s="116"/>
       <c r="K138" s="116"/>
@@ -15735,21 +15735,21 @@
     </row>
     <row r="139" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B139" s="40"/>
-      <c r="C139" s="152" t="s">
+      <c r="C139" s="172" t="s">
         <v>124</v>
       </c>
-      <c r="D139" s="153"/>
-      <c r="E139" s="153"/>
-      <c r="F139" s="153"/>
-      <c r="G139" s="153"/>
-      <c r="H139" s="154"/>
-      <c r="I139" s="155" t="s">
+      <c r="D139" s="173"/>
+      <c r="E139" s="173"/>
+      <c r="F139" s="173"/>
+      <c r="G139" s="173"/>
+      <c r="H139" s="183"/>
+      <c r="I139" s="174" t="s">
         <v>113</v>
       </c>
-      <c r="J139" s="156"/>
-      <c r="K139" s="156"/>
-      <c r="L139" s="156"/>
-      <c r="M139" s="157"/>
+      <c r="J139" s="175"/>
+      <c r="K139" s="175"/>
+      <c r="L139" s="175"/>
+      <c r="M139" s="176"/>
       <c r="N139" s="89" t="s">
         <v>114</v>
       </c>
@@ -15767,14 +15767,14 @@
     </row>
     <row r="140" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B140" s="40"/>
-      <c r="C140" s="142" t="s">
+      <c r="C140" s="162" t="s">
         <v>117</v>
       </c>
-      <c r="D140" s="143"/>
-      <c r="E140" s="143"/>
-      <c r="F140" s="143"/>
-      <c r="G140" s="143"/>
-      <c r="H140" s="144"/>
+      <c r="D140" s="163"/>
+      <c r="E140" s="163"/>
+      <c r="F140" s="163"/>
+      <c r="G140" s="163"/>
+      <c r="H140" s="164"/>
       <c r="I140" s="100" t="s">
         <v>93</v>
       </c>
@@ -15858,14 +15858,14 @@
     </row>
     <row r="143" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B143" s="40"/>
-      <c r="C143" s="142" t="s">
+      <c r="C143" s="162" t="s">
         <v>120</v>
       </c>
-      <c r="D143" s="143"/>
-      <c r="E143" s="143"/>
-      <c r="F143" s="143"/>
-      <c r="G143" s="143"/>
-      <c r="H143" s="144"/>
+      <c r="D143" s="163"/>
+      <c r="E143" s="163"/>
+      <c r="F143" s="163"/>
+      <c r="G143" s="163"/>
+      <c r="H143" s="164"/>
       <c r="I143" s="122" t="s">
         <v>125</v>
       </c>
@@ -15886,14 +15886,14 @@
     </row>
     <row r="144" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B144" s="40"/>
-      <c r="C144" s="142" t="s">
+      <c r="C144" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="D144" s="143"/>
-      <c r="E144" s="143"/>
-      <c r="F144" s="143"/>
-      <c r="G144" s="143"/>
-      <c r="H144" s="144"/>
+      <c r="D144" s="163"/>
+      <c r="E144" s="163"/>
+      <c r="F144" s="163"/>
+      <c r="G144" s="163"/>
+      <c r="H144" s="164"/>
       <c r="I144" s="122" t="s">
         <v>125</v>
       </c>
@@ -15914,14 +15914,14 @@
     </row>
     <row r="145" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B145" s="40"/>
-      <c r="C145" s="145" t="s">
+      <c r="C145" s="179" t="s">
         <v>128</v>
       </c>
-      <c r="D145" s="146"/>
-      <c r="E145" s="146"/>
-      <c r="F145" s="146"/>
-      <c r="G145" s="146"/>
-      <c r="H145" s="147"/>
+      <c r="D145" s="180"/>
+      <c r="E145" s="180"/>
+      <c r="F145" s="180"/>
+      <c r="G145" s="180"/>
+      <c r="H145" s="181"/>
       <c r="I145" s="112" t="s">
         <v>93</v>
       </c>
@@ -16173,16 +16173,17 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="C7:Q7"/>
-    <mergeCell ref="B9:B36"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="C15:P16"/>
+    <mergeCell ref="C140:H140"/>
+    <mergeCell ref="C143:H143"/>
+    <mergeCell ref="C144:H144"/>
+    <mergeCell ref="C145:H145"/>
+    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="I135:M135"/>
+    <mergeCell ref="C136:H136"/>
+    <mergeCell ref="C137:H137"/>
+    <mergeCell ref="C138:H138"/>
+    <mergeCell ref="C139:H139"/>
+    <mergeCell ref="I139:M139"/>
     <mergeCell ref="C134:H134"/>
     <mergeCell ref="I134:M134"/>
     <mergeCell ref="D17:D27"/>
@@ -16199,17 +16200,16 @@
     <mergeCell ref="D79:D93"/>
     <mergeCell ref="D96:D110"/>
     <mergeCell ref="D113:D127"/>
-    <mergeCell ref="I135:M135"/>
-    <mergeCell ref="C136:H136"/>
-    <mergeCell ref="C137:H137"/>
-    <mergeCell ref="C138:H138"/>
-    <mergeCell ref="C139:H139"/>
-    <mergeCell ref="I139:M139"/>
-    <mergeCell ref="C140:H140"/>
-    <mergeCell ref="C143:H143"/>
-    <mergeCell ref="C144:H144"/>
-    <mergeCell ref="C145:H145"/>
-    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="C7:Q7"/>
+    <mergeCell ref="B9:B36"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="C15:P16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M1" r:id="rId1" display="https://atb.nrel.gov/electricity/2022/utility-scale_battery_storage" xr:uid="{7816EC9A-0454-4087-A6E1-F971C99AA20E}"/>
@@ -17067,7 +17067,7 @@
   <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+      <selection activeCell="A5" sqref="A5:AE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17077,7 +17077,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1">
         <v>2021</v>
@@ -17172,7 +17172,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B2">
         <v>272875</v>
@@ -17184,94 +17184,94 @@
         <v>303546</v>
       </c>
       <c r="E2">
-        <v>275720</v>
+        <v>274986</v>
       </c>
       <c r="F2">
-        <v>254008</v>
+        <v>253296</v>
       </c>
       <c r="G2">
-        <v>237399</v>
+        <v>236734</v>
       </c>
       <c r="H2">
-        <v>223663</v>
+        <v>223030</v>
       </c>
       <c r="I2">
-        <v>212018</v>
+        <v>211554</v>
       </c>
       <c r="J2">
-        <v>202332</v>
+        <v>201954</v>
       </c>
       <c r="K2">
-        <v>194107</v>
+        <v>193764</v>
       </c>
       <c r="L2">
-        <v>186872</v>
+        <v>186541</v>
       </c>
       <c r="M2">
-        <v>180500</v>
+        <v>180196</v>
       </c>
       <c r="N2">
-        <v>174745</v>
+        <v>174552</v>
       </c>
       <c r="O2">
-        <v>169959</v>
+        <v>169876</v>
       </c>
       <c r="P2">
-        <v>165780</v>
+        <v>165776</v>
       </c>
       <c r="Q2">
-        <v>162166</v>
+        <v>162216</v>
       </c>
       <c r="R2">
-        <v>159002</v>
+        <v>159077</v>
       </c>
       <c r="S2">
-        <v>156172</v>
+        <v>156257</v>
       </c>
       <c r="T2">
-        <v>153632</v>
+        <v>153722</v>
       </c>
       <c r="U2">
-        <v>151363</v>
+        <v>151442</v>
       </c>
       <c r="V2">
-        <v>149361</v>
+        <v>149428</v>
       </c>
       <c r="W2">
-        <v>147535</v>
+        <v>147587</v>
       </c>
       <c r="X2">
-        <v>145853</v>
+        <v>145898</v>
       </c>
       <c r="Y2">
-        <v>144309</v>
+        <v>144352</v>
       </c>
       <c r="Z2">
-        <v>142883</v>
+        <v>142921</v>
       </c>
       <c r="AA2">
-        <v>141583</v>
+        <v>141617</v>
       </c>
       <c r="AB2">
-        <v>140367</v>
+        <v>140396</v>
       </c>
       <c r="AC2">
-        <v>139237</v>
+        <v>139257</v>
       </c>
       <c r="AD2">
-        <v>138175</v>
+        <v>138188</v>
       </c>
       <c r="AE2">
-        <v>137182</v>
+        <v>137190</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C3">
-        <f t="shared" ref="C3:AE3" si="0">C9*$B$12*1000</f>
+        <f>C9*$B$12*1000</f>
         <v>306878.94936720002</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C3:AE3" si="0">D9*$B$12*1000</f>
         <v>303731.66899460001</v>
       </c>
       <c r="E3">
@@ -17385,7 +17385,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5">
         <v>2021</v>
@@ -17480,7 +17480,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B6">
         <v>253384</v>
@@ -17693,7 +17693,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
         <v>81</v>
@@ -17788,7 +17788,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s">
         <v>81</v>
@@ -17883,7 +17883,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B12">
         <v>0.78500000000000003</v>
